--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82319904-402D-0540-83A9-051089296FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437B65D-5757-F840-A097-00F799CFD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -5345,8 +5345,8 @@
   </sheetPr>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6017,7 +6017,9 @@
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="128"/>
-      <c r="G44" s="75"/>
+      <c r="G44" s="75" t="s">
+        <v>138</v>
+      </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
         <v>225</v>
@@ -6025,9 +6027,7 @@
       <c r="J44" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="K44" s="23" t="s">
-        <v>138</v>
-      </c>
+      <c r="K44" s="23"/>
       <c r="L44" s="23">
         <v>0</v>
       </c>
@@ -7784,7 +7784,7 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/vscode/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C437B65D-5757-F840-A097-00F799CFD1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D158A6B-7B80-8449-A6F0-3D872AA7D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="236">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1669,10 +1669,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>array</t>
   </si>
   <si>
@@ -2459,7 +2455,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>POST</t>
+    <t>GET</t>
   </si>
 </sst>
 </file>
@@ -4369,17 +4365,17 @@
       </c>
       <c r="B1" s="18"/>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4398,7 +4394,7 @@
       <c r="B6" s="174"/>
       <c r="C6" s="175"/>
       <c r="D6" s="171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" s="171"/>
     </row>
@@ -4409,7 +4405,7 @@
       <c r="B7" s="162"/>
       <c r="C7" s="162"/>
       <c r="D7" s="171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="171"/>
     </row>
@@ -4420,7 +4416,7 @@
       <c r="B8" s="162"/>
       <c r="C8" s="162"/>
       <c r="D8" s="171" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" s="171"/>
     </row>
@@ -4451,73 +4447,73 @@
       <c r="B11" s="162"/>
       <c r="C11" s="162"/>
       <c r="D11" s="171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="171"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" s="134"/>
       <c r="C12" s="134"/>
       <c r="D12" s="151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E12" s="151"/>
       <c r="F12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="134" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="134"/>
       <c r="C13" s="134"/>
       <c r="D13" s="150" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
       <c r="A14" s="134" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
       <c r="D14" s="172" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="134" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="134"/>
       <c r="C15" s="134"/>
       <c r="D15" s="150"/>
       <c r="E15" s="151"/>
       <c r="F15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="134" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" s="134"/>
       <c r="C16" s="134"/>
       <c r="D16" s="150"/>
       <c r="E16" s="151"/>
       <c r="F16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="152" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" s="153"/>
       <c r="C17" s="154"/>
@@ -4525,15 +4521,15 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="135" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="136"/>
       <c r="C18" s="137"/>
       <c r="D18" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -4549,7 +4545,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="147" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="148"/>
       <c r="C20" s="148"/>
@@ -4560,7 +4556,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="100"/>
       <c r="C21" s="92"/>
@@ -4587,7 +4583,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" s="103"/>
       <c r="C23" s="89"/>
@@ -4601,7 +4597,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="146" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B25" s="146"/>
       <c r="C25" s="146"/>
@@ -4615,7 +4611,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C26" s="141"/>
       <c r="D26" s="141"/>
@@ -4683,7 +4679,7 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="143" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B31" s="144"/>
       <c r="C31" s="144"/>
@@ -4697,7 +4693,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" s="164"/>
       <c r="D32" s="164"/>
@@ -4717,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C33" s="165"/>
       <c r="D33" s="165"/>
@@ -4781,7 +4777,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B37" s="144"/>
       <c r="C37" s="144"/>
@@ -4795,7 +4791,7 @@
         <v>68</v>
       </c>
       <c r="B38" s="164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C38" s="164"/>
       <c r="D38" s="164"/>
@@ -4876,7 +4872,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B43" s="146"/>
       <c r="C43" s="146"/>
@@ -4890,10 +4886,10 @@
         <v>68</v>
       </c>
       <c r="B44" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C44" s="105" t="s">
         <v>197</v>
-      </c>
-      <c r="C44" s="105" t="s">
-        <v>198</v>
       </c>
       <c r="D44" s="105"/>
       <c r="E44" s="105"/>
@@ -4912,10 +4908,10 @@
         <v>1</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="120"/>
       <c r="E45" s="120"/>
@@ -4934,10 +4930,10 @@
         <v>2</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C46" s="120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D46" s="120"/>
       <c r="E46" s="120"/>
@@ -4956,10 +4952,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="120" t="s">
         <v>201</v>
-      </c>
-      <c r="C47" s="120" t="s">
-        <v>202</v>
       </c>
       <c r="D47" s="120"/>
       <c r="E47" s="120"/>
@@ -5346,7 +5342,7 @@
   <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5385,7 +5381,7 @@
         <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5413,7 +5409,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="117" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
-        <v>BlancoApiPlainSamplePostRequest</v>
+        <v>BlancoApiPlainSampleGetRequest</v>
       </c>
       <c r="D6" s="118"/>
     </row>
@@ -5423,7 +5419,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="33"/>
       <c r="O7"/>
@@ -5434,23 +5430,23 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D8" s="114"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="110"/>
@@ -5458,7 +5454,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="110"/>
@@ -5466,7 +5462,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="110"/>
@@ -5474,13 +5470,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -5497,53 +5493,53 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="111"/>
       <c r="C16" s="151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" s="111"/>
       <c r="C17" s="151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D17" s="151"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="111" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="111"/>
       <c r="C18" s="150" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" s="113"/>
       <c r="C19" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -5558,14 +5554,14 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="112" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -5583,7 +5579,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B22" s="146"/>
       <c r="C22" s="146"/>
@@ -5597,7 +5593,7 @@
         <v>68</v>
       </c>
       <c r="B23" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="141"/>
       <c r="D23" s="141"/>
@@ -5677,7 +5673,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="144"/>
       <c r="C28" s="144"/>
@@ -5691,7 +5687,7 @@
         <v>68</v>
       </c>
       <c r="B29" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C29" s="164"/>
       <c r="D29" s="164"/>
@@ -5714,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C30" s="165"/>
       <c r="D30" s="165"/>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B34" s="144"/>
       <c r="C34" s="144"/>
@@ -5804,7 +5800,7 @@
         <v>68</v>
       </c>
       <c r="B35" s="164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C35" s="164"/>
       <c r="D35" s="164"/>
@@ -5900,7 +5896,7 @@
     <row r="40" spans="1:18">
       <c r="A40" s="6"/>
       <c r="J40" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -5938,25 +5934,25 @@
         <v>2</v>
       </c>
       <c r="E42" s="181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F42" s="181" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G42" s="176" t="s">
         <v>12</v>
       </c>
       <c r="H42" s="176" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="176" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J42" s="176" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K42" s="176" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L42" s="179" t="s">
         <v>70</v>
@@ -6018,14 +6014,14 @@
       <c r="E44" s="23"/>
       <c r="F44" s="128"/>
       <c r="G44" s="75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J44" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K44" s="23"/>
       <c r="L44" s="23">
@@ -6059,10 +6055,10 @@
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
       <c r="J45" s="120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="29"/>
@@ -6095,11 +6091,9 @@
       </c>
       <c r="I46" s="25"/>
       <c r="J46" s="120" t="s">
-        <v>202</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>138</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="K46" s="24"/>
       <c r="L46" s="20"/>
       <c r="M46" s="29"/>
       <c r="N46" s="20"/>
@@ -6117,17 +6111,19 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="73"/>
+        <v>108</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>101</v>
+      </c>
       <c r="F47" s="73"/>
       <c r="G47" s="78"/>
       <c r="H47" s="73"/>
       <c r="I47" s="73"/>
-      <c r="J47" s="120"/>
-      <c r="K47" s="24" t="s">
-        <v>138</v>
-      </c>
+      <c r="J47" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="K47" s="24"/>
       <c r="L47" s="20"/>
       <c r="M47" s="29"/>
       <c r="N47" s="20"/>
@@ -6145,26 +6141,24 @@
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="77"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="120"/>
-      <c r="K48" s="24" t="s">
-        <v>138</v>
-      </c>
+      <c r="K48" s="24"/>
       <c r="L48" s="24"/>
       <c r="M48" s="30"/>
       <c r="N48" s="24"/>
       <c r="O48" s="30"/>
       <c r="P48" s="30"/>
       <c r="Q48" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6177,7 +6171,7 @@
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
@@ -6185,9 +6179,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="120"/>
-      <c r="K49" s="24" t="s">
-        <v>138</v>
-      </c>
+      <c r="K49" s="24"/>
       <c r="L49" s="20"/>
       <c r="M49" s="29"/>
       <c r="N49" s="20"/>
@@ -6201,11 +6193,11 @@
         <v>7</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -6213,9 +6205,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="120"/>
-      <c r="K50" s="24" t="s">
-        <v>138</v>
-      </c>
+      <c r="K50" s="24"/>
       <c r="L50" s="20"/>
       <c r="M50" s="29"/>
       <c r="N50" s="20"/>
@@ -6675,7 +6665,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -6703,7 +6693,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="119" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
-        <v>BlancoApiPlainSamplePostResponse</v>
+        <v>BlancoApiPlainSampleGetResponse</v>
       </c>
       <c r="D6" s="118"/>
     </row>
@@ -6713,7 +6703,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="33"/>
       <c r="N7"/>
@@ -6730,23 +6720,23 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -6763,43 +6753,43 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="111"/>
       <c r="C13" s="151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="151"/>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="111"/>
       <c r="C14" s="151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -6815,7 +6805,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="146"/>
       <c r="C17" s="146"/>
@@ -6829,7 +6819,7 @@
         <v>68</v>
       </c>
       <c r="B18" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C18" s="141"/>
       <c r="D18" s="141"/>
@@ -6903,7 +6893,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="144"/>
       <c r="C23" s="144"/>
@@ -6918,7 +6908,7 @@
         <v>68</v>
       </c>
       <c r="B24" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="164"/>
       <c r="D24" s="164"/>
@@ -6940,7 +6930,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="165"/>
       <c r="D25" s="165"/>
@@ -7010,7 +7000,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="144"/>
       <c r="C29" s="144"/>
@@ -7025,7 +7015,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="164"/>
       <c r="D30" s="164"/>
@@ -7118,7 +7108,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
@@ -7138,55 +7128,55 @@
     </row>
     <row r="37" spans="1:17" ht="15">
       <c r="A37" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="C37" s="51" t="s">
         <v>117</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>118</v>
       </c>
       <c r="D37" s="181" t="s">
         <v>99</v>
       </c>
       <c r="E37" s="181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="181" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G37" s="181" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H37" s="181" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="181" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K37" s="185" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L37" s="186"/>
       <c r="M37" s="187" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N37" s="186"/>
       <c r="O37" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" s="181" t="s">
         <v>122</v>
-      </c>
-      <c r="P37" s="181" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
       <c r="A38" s="184"/>
       <c r="B38" s="184"/>
       <c r="C38" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="184"/>
       <c r="E38" s="182"/>
@@ -7196,19 +7186,19 @@
       <c r="I38" s="184"/>
       <c r="J38" s="183"/>
       <c r="K38" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="M38" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="N38" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="O38" s="54" t="s">
         <v>127</v>
-      </c>
-      <c r="O38" s="54" t="s">
-        <v>128</v>
       </c>
       <c r="P38" s="184"/>
     </row>
@@ -7217,10 +7207,10 @@
         <v>1</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D39" s="58" t="s">
         <v>100</v>
@@ -7231,7 +7221,7 @@
       <c r="H39" s="58"/>
       <c r="I39" s="58"/>
       <c r="J39" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K39" s="58"/>
       <c r="L39" s="58"/>
@@ -7245,10 +7235,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="58" t="s">
         <v>102</v>
@@ -7259,7 +7249,7 @@
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
       <c r="J40" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K40" s="56"/>
       <c r="L40" s="56"/>
@@ -7273,7 +7263,7 @@
         <v>3</v>
       </c>
       <c r="B41" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="45"/>
       <c r="D41" s="61" t="s">
@@ -7285,7 +7275,7 @@
       <c r="H41" s="61"/>
       <c r="I41" s="61"/>
       <c r="J41" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K41" s="56"/>
       <c r="L41" s="56"/>
@@ -7299,7 +7289,7 @@
         <v>4</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="64"/>
       <c r="D42" s="65" t="s">
@@ -7311,7 +7301,7 @@
       <c r="H42" s="65"/>
       <c r="I42" s="65"/>
       <c r="J42" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
@@ -7325,21 +7315,21 @@
         <v>5</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="64"/>
       <c r="D43" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E43" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F43" s="65"/>
       <c r="G43" s="82"/>
       <c r="H43" s="65"/>
       <c r="I43" s="65"/>
       <c r="J43" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K43" s="58"/>
       <c r="L43" s="58"/>
@@ -7353,11 +7343,11 @@
         <v>6</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E44" s="65"/>
       <c r="F44" s="65"/>
@@ -7365,7 +7355,7 @@
       <c r="H44" s="65"/>
       <c r="I44" s="65"/>
       <c r="J44" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K44" s="56"/>
       <c r="L44" s="56"/>
@@ -7379,11 +7369,11 @@
         <v>7</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45" s="65"/>
       <c r="F45" s="65"/>
@@ -7391,7 +7381,7 @@
       <c r="H45" s="65"/>
       <c r="I45" s="65"/>
       <c r="J45" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K45" s="56"/>
       <c r="L45" s="56"/>
@@ -7785,7 +7775,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7823,7 +7813,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -7851,7 +7841,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="119" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)","Request",IF(C8="応答電文(S→C)","Response","Error"&amp;C10))</f>
-        <v>BlancoApiPlainSamplePostError001</v>
+        <v>BlancoApiPlainSampleGetError001</v>
       </c>
       <c r="D6" s="118"/>
     </row>
@@ -7861,7 +7851,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="33"/>
       <c r="N7"/>
@@ -7872,55 +7862,55 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -7937,43 +7927,43 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="111" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B15" s="111"/>
       <c r="C15" s="151" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D15" s="151"/>
       <c r="E15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="111" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" s="111"/>
       <c r="C16" s="151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D16" s="151"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -7989,7 +7979,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="146"/>
       <c r="C19" s="146"/>
@@ -8003,7 +7993,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="141"/>
       <c r="D20" s="141"/>
@@ -8077,7 +8067,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="144"/>
       <c r="C25" s="144"/>
@@ -8092,7 +8082,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="164" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C26" s="164"/>
       <c r="D26" s="164"/>
@@ -8114,7 +8104,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="165" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" s="165"/>
       <c r="D27" s="165"/>
@@ -8184,7 +8174,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="144"/>
       <c r="C31" s="144"/>
@@ -8199,7 +8189,7 @@
         <v>68</v>
       </c>
       <c r="B32" s="164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C32" s="164"/>
       <c r="D32" s="164"/>
@@ -8292,7 +8282,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="48"/>
@@ -8312,55 +8302,55 @@
     </row>
     <row r="39" spans="1:17" ht="15">
       <c r="A39" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="C39" s="51" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>118</v>
       </c>
       <c r="D39" s="181" t="s">
         <v>99</v>
       </c>
       <c r="E39" s="181" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="181" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G39" s="181" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H39" s="188" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I39" s="188" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J39" s="176" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K39" s="185" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L39" s="186"/>
       <c r="M39" s="187" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N39" s="186"/>
       <c r="O39" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P39" s="181" t="s">
         <v>122</v>
-      </c>
-      <c r="P39" s="181" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
       <c r="A40" s="184"/>
       <c r="B40" s="184"/>
       <c r="C40" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="184"/>
       <c r="E40" s="182"/>
@@ -8370,19 +8360,19 @@
       <c r="I40" s="184"/>
       <c r="J40" s="183"/>
       <c r="K40" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="L40" s="53" t="s">
+      <c r="M40" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="M40" s="53" t="s">
+      <c r="N40" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="N40" s="53" t="s">
+      <c r="O40" s="54" t="s">
         <v>127</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>128</v>
       </c>
       <c r="P40" s="184"/>
     </row>
@@ -8391,10 +8381,10 @@
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>100</v>
@@ -8405,7 +8395,7 @@
       <c r="H41" s="58"/>
       <c r="I41" s="58"/>
       <c r="J41" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K41" s="58"/>
       <c r="L41" s="58"/>
@@ -8419,10 +8409,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>101</v>
@@ -8433,7 +8423,7 @@
       <c r="H42" s="58"/>
       <c r="I42" s="58"/>
       <c r="J42" s="24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K42" s="56"/>
       <c r="L42" s="56"/>
@@ -8932,7 +8922,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9274,7 +9264,7 @@
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -9292,22 +9282,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G4" s="124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9315,23 +9305,23 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9340,42 +9330,42 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
       <c r="G6" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G7" s="126"/>
       <c r="H7" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H8" s="11"/>
     </row>

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D158A6B-7B80-8449-A6F0-3D872AA7D80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F64AFF-70D0-8B45-9675-30E890E033E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
     <sheet name="get_input" sheetId="22" r:id="rId2"/>
     <sheet name="get_output" sheetId="28" r:id="rId3"/>
     <sheet name="get_error" sheetId="36" r:id="rId4"/>
-    <sheet name="readme" sheetId="17" r:id="rId5"/>
-    <sheet name="config" sheetId="3" r:id="rId6"/>
+    <sheet name="post_input" sheetId="37" r:id="rId5"/>
+    <sheet name="post_output" sheetId="38" r:id="rId6"/>
+    <sheet name="post_error" sheetId="39" r:id="rId7"/>
+    <sheet name="readme" sheetId="17" r:id="rId8"/>
+    <sheet name="config" sheetId="3" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="isImport">config!$E$5:$E$6</definedName>
@@ -58,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="240">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2455,7 +2458,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>POST</t>
+  </si>
+  <si>
     <t>GET</t>
+  </si>
+  <si>
+    <t>型(Kt)</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総称型(Kt)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ArrayList</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -3359,7 +3380,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3787,6 +3808,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5339,10 +5363,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R67"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5353,48 +5377,48 @@
     <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="10" width="22.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="43.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.1640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.83203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9.83203125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.83203125" style="1"/>
-    <col min="29" max="29" width="9.1640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="14" width="22.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:19">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:19">
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:19">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -5402,7 +5426,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:19">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5413,7 +5437,7 @@
       </c>
       <c r="D6" s="118"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:19">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -5422,9 +5446,9 @@
         <v>161</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5434,17 +5458,17 @@
       </c>
       <c r="D8" s="114"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:19">
       <c r="A9" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:19">
       <c r="A10" s="47" t="s">
         <v>152</v>
       </c>
@@ -5452,7 +5476,7 @@
       <c r="C10" s="110"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:19">
       <c r="A11" s="47" t="s">
         <v>153</v>
       </c>
@@ -5460,7 +5484,7 @@
       <c r="C11" s="110"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:19">
       <c r="A12" s="47" t="s">
         <v>154</v>
       </c>
@@ -5468,7 +5492,7 @@
       <c r="C12" s="110"/>
       <c r="D12" s="115"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
         <v>232</v>
       </c>
@@ -5479,7 +5503,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -5487,7 +5511,7 @@
       <c r="C14" s="46"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:19">
       <c r="A15" s="4" t="s">
         <v>97</v>
       </c>
@@ -5497,7 +5521,7 @@
       </c>
       <c r="D15" s="33"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:19">
       <c r="A16" s="111" t="s">
         <v>168</v>
       </c>
@@ -5510,7 +5534,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:22">
       <c r="A17" s="111" t="s">
         <v>171</v>
       </c>
@@ -5520,7 +5544,7 @@
       </c>
       <c r="D17" s="151"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
         <v>208</v>
       </c>
@@ -5530,7 +5554,7 @@
       </c>
       <c r="D18" s="151"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:22">
       <c r="A19" s="112" t="s">
         <v>173</v>
       </c>
@@ -5551,8 +5575,12 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
         <v>206</v>
       </c>
@@ -5573,11 +5601,15 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:22">
       <c r="A22" s="146" t="s">
         <v>186</v>
       </c>
@@ -5588,7 +5620,7 @@
       <c r="F22" s="146"/>
       <c r="G22" s="146"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:22">
       <c r="A23" s="105" t="s">
         <v>68</v>
       </c>
@@ -5608,10 +5640,14 @@
       <c r="M23" s="95"/>
       <c r="N23" s="95"/>
       <c r="O23" s="95"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="106"/>
       <c r="B24" s="157"/>
       <c r="C24" s="157"/>
@@ -5626,11 +5662,15 @@
       <c r="L24" s="102"/>
       <c r="M24" s="102"/>
       <c r="N24" s="102"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="107"/>
       <c r="B25" s="158"/>
       <c r="C25" s="158"/>
@@ -5645,11 +5685,15 @@
       <c r="L25" s="102"/>
       <c r="M25" s="102"/>
       <c r="N25" s="102"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="108"/>
       <c r="B26" s="159"/>
       <c r="C26" s="159"/>
@@ -5664,14 +5708,18 @@
       <c r="L26" s="102"/>
       <c r="M26" s="102"/>
       <c r="N26" s="102"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:22">
       <c r="C27"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:22">
       <c r="A28" s="143" t="s">
         <v>187</v>
       </c>
@@ -5682,7 +5730,7 @@
       <c r="F28" s="144"/>
       <c r="G28" s="145"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:22">
       <c r="A29" s="105" t="s">
         <v>68</v>
       </c>
@@ -5702,10 +5750,14 @@
       <c r="M29" s="95"/>
       <c r="N29" s="95"/>
       <c r="O29" s="95"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="106">
         <v>1</v>
       </c>
@@ -5724,11 +5776,15 @@
       <c r="L30" s="102"/>
       <c r="M30" s="102"/>
       <c r="N30" s="102"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="107"/>
       <c r="B31" s="166"/>
       <c r="C31" s="166"/>
@@ -5743,11 +5799,15 @@
       <c r="L31" s="102"/>
       <c r="M31" s="102"/>
       <c r="N31" s="102"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="108"/>
       <c r="B32" s="167"/>
       <c r="C32" s="167"/>
@@ -5762,11 +5822,15 @@
       <c r="L32" s="102"/>
       <c r="M32" s="102"/>
       <c r="N32" s="102"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -5783,8 +5847,12 @@
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" s="143" t="s">
         <v>188</v>
       </c>
@@ -5795,7 +5863,7 @@
       <c r="F34" s="144"/>
       <c r="G34" s="145"/>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:22">
       <c r="A35" s="105" t="s">
         <v>68</v>
       </c>
@@ -5815,10 +5883,14 @@
       <c r="M35" s="95"/>
       <c r="N35" s="95"/>
       <c r="O35" s="95"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="106"/>
       <c r="B36" s="157"/>
       <c r="C36" s="157"/>
@@ -5833,11 +5905,15 @@
       <c r="L36" s="102"/>
       <c r="M36" s="102"/>
       <c r="N36" s="102"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" s="107"/>
       <c r="B37" s="158"/>
       <c r="C37" s="158"/>
@@ -5852,11 +5928,15 @@
       <c r="L37" s="102"/>
       <c r="M37" s="102"/>
       <c r="N37" s="102"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" s="108"/>
       <c r="B38" s="159"/>
       <c r="C38" s="159"/>
@@ -5871,11 +5951,15 @@
       <c r="L38" s="102"/>
       <c r="M38" s="102"/>
       <c r="N38" s="102"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -5892,14 +5976,18 @@
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" s="6"/>
-      <c r="J40" s="1" t="s">
+      <c r="N40" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:22">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -5918,9 +6006,13 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" s="176" t="s">
         <v>68</v>
       </c>
@@ -5946,30 +6038,42 @@
         <v>113</v>
       </c>
       <c r="I42" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="181" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" s="189" t="s">
         <v>225</v>
       </c>
-      <c r="J42" s="176" t="s">
+      <c r="M42" s="176" t="s">
+        <v>225</v>
+      </c>
+      <c r="N42" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="K42" s="176" t="s">
+      <c r="O42" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="L42" s="179" t="s">
+      <c r="P42" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="M42" s="180"/>
-      <c r="N42" s="179" t="s">
+      <c r="Q42" s="180"/>
+      <c r="R42" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="O42" s="180"/>
-      <c r="P42" s="32" t="s">
+      <c r="S42" s="180"/>
+      <c r="T42" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="Q42" s="176" t="s">
+      <c r="U42" s="176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:22">
       <c r="A43" s="177"/>
       <c r="B43" s="177"/>
       <c r="C43" s="177"/>
@@ -5979,26 +6083,30 @@
       <c r="G43" s="177"/>
       <c r="H43" s="177"/>
       <c r="I43" s="177"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="183"/>
-      <c r="L43" s="27" t="s">
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="M43" s="27" t="s">
+      <c r="Q43" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="N43" s="27" t="s">
+      <c r="R43" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="O43" s="27" t="s">
+      <c r="S43" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="P43" s="27" t="s">
+      <c r="T43" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="177"/>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="U43" s="177"/>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -6017,25 +6125,31 @@
         <v>137</v>
       </c>
       <c r="H44" s="23"/>
-      <c r="I44" s="23" t="s">
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="J44" s="120" t="s">
+      <c r="M44" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="N44" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23">
+      <c r="O44" s="23"/>
+      <c r="P44" s="23">
         <v>0</v>
       </c>
-      <c r="M44" s="28">
+      <c r="Q44" s="28">
         <v>10</v>
       </c>
-      <c r="N44" s="23"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="R44" s="23"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" s="10">
         <f t="shared" ref="A45:A50" si="0">A44+1</f>
         <v>2</v>
@@ -6054,24 +6168,28 @@
       <c r="G45" s="76"/>
       <c r="H45" s="24"/>
       <c r="I45" s="24"/>
-      <c r="J45" s="120" t="s">
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="K45" s="24" t="s">
+      <c r="O45" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="L45" s="20"/>
-      <c r="M45" s="29"/>
-      <c r="N45" s="20">
+      <c r="P45" s="20"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="20">
         <v>0</v>
       </c>
-      <c r="O45" s="29">
+      <c r="S45" s="29">
         <v>100</v>
       </c>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="12"/>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="T45" s="29"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6090,18 +6208,22 @@
         <v>1</v>
       </c>
       <c r="I46" s="25"/>
-      <c r="J46" s="120" t="s">
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="K46" s="24"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="29"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="14"/>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="O46" s="24"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="14"/>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6119,19 +6241,27 @@
       <c r="F47" s="73"/>
       <c r="G47" s="78"/>
       <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="120" t="s">
+      <c r="I47" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="29"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="14"/>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="O47" s="24"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="14"/>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6150,18 +6280,22 @@
       <c r="G48" s="77"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="120"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="14" t="s">
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:21">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6178,16 +6312,20 @@
       <c r="G49" s="77"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="120"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="50" spans="1:17">
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="14"/>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6204,16 +6342,20 @@
       <c r="G50" s="77"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="120"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" spans="1:17">
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="14"/>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="10"/>
       <c r="B51" s="21"/>
       <c r="C51" s="13"/>
@@ -6223,16 +6365,20 @@
       <c r="G51" s="77"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="120"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="14"/>
-    </row>
-    <row r="52" spans="1:17">
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="14"/>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="10"/>
       <c r="B52" s="21"/>
       <c r="C52" s="13"/>
@@ -6242,16 +6388,20 @@
       <c r="G52" s="77"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17">
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="14"/>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="10"/>
       <c r="B53" s="21"/>
       <c r="C53" s="13"/>
@@ -6261,16 +6411,20 @@
       <c r="G53" s="77"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="29"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="1:17">
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="14"/>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="10"/>
       <c r="B54" s="21"/>
       <c r="C54" s="13"/>
@@ -6280,16 +6434,20 @@
       <c r="G54" s="77"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="1:17">
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="14"/>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="10"/>
       <c r="B55" s="21"/>
       <c r="C55" s="13"/>
@@ -6299,16 +6457,20 @@
       <c r="G55" s="77"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="1:17">
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="14"/>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="10"/>
       <c r="B56" s="21"/>
       <c r="C56" s="13"/>
@@ -6318,16 +6480,20 @@
       <c r="G56" s="77"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="14"/>
-    </row>
-    <row r="57" spans="1:17">
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="14"/>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="10"/>
       <c r="B57" s="21"/>
       <c r="C57" s="13"/>
@@ -6337,16 +6503,20 @@
       <c r="G57" s="77"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="1:17">
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="14"/>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="10"/>
       <c r="B58" s="21"/>
       <c r="C58" s="13"/>
@@ -6356,16 +6526,20 @@
       <c r="G58" s="77"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="14"/>
-    </row>
-    <row r="59" spans="1:17">
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="14"/>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="10"/>
       <c r="B59" s="21"/>
       <c r="C59" s="13"/>
@@ -6375,16 +6549,20 @@
       <c r="G59" s="77"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="14"/>
-    </row>
-    <row r="60" spans="1:17">
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="14"/>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="10"/>
       <c r="B60" s="21"/>
       <c r="C60" s="13"/>
@@ -6394,16 +6572,20 @@
       <c r="G60" s="77"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="120"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="14"/>
-    </row>
-    <row r="61" spans="1:17">
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="14"/>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" s="10"/>
       <c r="B61" s="21"/>
       <c r="C61" s="13"/>
@@ -6413,16 +6595,20 @@
       <c r="G61" s="77"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="120"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="14"/>
-    </row>
-    <row r="62" spans="1:17">
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="14"/>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="10"/>
       <c r="B62" s="21"/>
       <c r="C62" s="13"/>
@@ -6432,16 +6618,20 @@
       <c r="G62" s="77"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="120"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="29"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="14"/>
-    </row>
-    <row r="63" spans="1:17">
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="14"/>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" s="10"/>
       <c r="B63" s="21"/>
       <c r="C63" s="13"/>
@@ -6451,16 +6641,20 @@
       <c r="G63" s="77"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="120"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="14"/>
-    </row>
-    <row r="64" spans="1:17">
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="14"/>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="10"/>
       <c r="B64" s="21"/>
       <c r="C64" s="13"/>
@@ -6470,16 +6664,20 @@
       <c r="G64" s="77"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="120"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="14"/>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="14"/>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="10"/>
       <c r="B65" s="21"/>
       <c r="C65" s="13"/>
@@ -6489,16 +6687,20 @@
       <c r="G65" s="77"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="120"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="29"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="14"/>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="10"/>
       <c r="B66" s="21"/>
       <c r="C66" s="13"/>
@@ -6508,16 +6710,20 @@
       <c r="G66" s="77"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="120"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="24"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="14"/>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="120"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="14"/>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="15"/>
       <c r="B67" s="22"/>
       <c r="C67" s="16"/>
@@ -6527,23 +6733,27 @@
       <c r="G67" s="79"/>
       <c r="H67" s="26"/>
       <c r="I67" s="26"/>
-      <c r="J67" s="120"/>
+      <c r="J67" s="26"/>
       <c r="K67" s="26"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="17"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="36">
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="B35:G35"/>
-    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="O42:O43"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
@@ -6552,19 +6762,23 @@
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="A34:G34"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="K42:K43"/>
     <mergeCell ref="I42:I43"/>
-    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="J42:J43"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A22:G22"/>
-    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="U42:U43"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="N42:N43"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="F42:F43"/>
@@ -6579,10 +6793,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K44:K67" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44:O67" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J44:J67" xr:uid="{FBF4941F-B3C7-154E-A998-884BA063A37C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:N67" xr:uid="{FBF4941F-B3C7-154E-A998-884BA063A37C}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -6627,7 +6841,7 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6724,7 +6938,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" s="85"/>
     </row>
@@ -7775,7 +7989,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7872,7 +8086,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" s="85"/>
     </row>
@@ -8900,6 +9114,3759 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28DB289-4111-3A47-AC49-B08174AA4A15}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="14" width="22.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="117" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPlainSamplePostRequest</v>
+      </c>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="114"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="110" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="115"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="151"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="151"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="113"/>
+      <c r="C19" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="113"/>
+      <c r="C20" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="95"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="U23" s="101"/>
+      <c r="V23" s="101"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="106"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="107"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="108"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="159"/>
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="145"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="U29" s="101"/>
+      <c r="V29" s="101"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="106">
+        <v>1</v>
+      </c>
+      <c r="B30" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="107"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="108"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="95"/>
+      <c r="S35" s="95"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="106"/>
+      <c r="B36" s="157"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="107"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="108"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="6"/>
+      <c r="N40" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="5"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="I42" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="181" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="L42" s="189" t="s">
+        <v>225</v>
+      </c>
+      <c r="M42" s="176" t="s">
+        <v>225</v>
+      </c>
+      <c r="N42" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="O42" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="P42" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q42" s="180"/>
+      <c r="R42" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="180"/>
+      <c r="T42" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="U42" s="176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="177"/>
+      <c r="B43" s="177"/>
+      <c r="C43" s="177"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="177"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="183"/>
+      <c r="P43" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="R43" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="U43" s="177"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="7">
+        <v>1</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="23"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="N44" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="28">
+        <v>10</v>
+      </c>
+      <c r="R44" s="23"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="10">
+        <f t="shared" ref="A45:A50" si="0">A44+1</f>
+        <v>2</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="20">
+        <v>0</v>
+      </c>
+      <c r="S45" s="29">
+        <v>100</v>
+      </c>
+      <c r="T45" s="29"/>
+      <c r="U45" s="12"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="25"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O46" s="24"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="14"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="73"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="73"/>
+      <c r="I47" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J47" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="14"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="120"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="120"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="14"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="14"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="10"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="120"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="14"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="10"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="14"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="10"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="14"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="10"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="14"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="10"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="14"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="10"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="14"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="10"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="14"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="10"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="30"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="14"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="10"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="14"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="10"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="14"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="10"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="14"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="10"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="14"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="10"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="14"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="10"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="14"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="10"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="14"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="10"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="120"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="14"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="15"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="79"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="31"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="31"/>
+      <c r="T67" s="31"/>
+      <c r="U67" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:N67" xr:uid="{2DA0E2F9-CEA5-1D4F-AE50-95E1CB9320FD}">
+      <formula1>path</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44:O67" xr:uid="{A7248111-DAEF-5C48-9FF6-28E1969AA06B}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{4658C7EA-C894-FB4C-9A2C-FB1119DE0653}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{76A3C016-F848-B042-88C4-26414904C873}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{B57728D5-8619-874D-86CA-95034EF939CE}">
+          <x14:formula1>
+            <xm:f>config!$D$5:$D$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{DD0B1BEC-4505-2249-BCF0-CD1EEBB99E2F}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BECA26E6-3C6A-3C43-9296-9755E819FF95}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G44:G67</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A0348-1E29-C34A-B98B-DA56AFBF4788}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="1"/>
+    <col min="28" max="28" width="9.1640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="119" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPlainSamplePostResponse</v>
+      </c>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="85"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="151"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="106"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="107"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="108"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="C22"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="J23" s="102"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="106">
+        <v>1</v>
+      </c>
+      <c r="B25" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="107"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="108"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28" s="102"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="106"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="107"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="108"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="102"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="6"/>
+      <c r="J35" s="102"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="49"/>
+    </row>
+    <row r="37" spans="1:17" ht="15">
+      <c r="A37" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="181" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="181" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="185" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="186"/>
+      <c r="M37" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" s="186"/>
+      <c r="O37" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" s="181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15">
+      <c r="A38" s="184"/>
+      <c r="B38" s="184"/>
+      <c r="C38" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="O38" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="184"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="55">
+        <v>1</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="55">
+        <v>2</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="59"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="55">
+        <v>3</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="62"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="55">
+        <v>4</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="66"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="55">
+        <v>5</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="66"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="55">
+        <v>6</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="66"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="55">
+        <v>7</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="66"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="55"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="66"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="55"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="66"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="55"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="66"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="55"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="66"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="55"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="66"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="55"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="66"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="55"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="66"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="55"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="66"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="55"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="66"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="55"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="66"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="55"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="66"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="55"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="66"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="55"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="66"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="55"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="66"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="55"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="66"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="55"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="66"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="67"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39:J62" xr:uid="{CB623BC8-47D2-1743-853F-466D4E614CBF}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{A9FDEBBD-307E-904E-BA51-AF83D53EA142}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{C118345D-4569-7F4F-B3F7-98FADEDAEB8C}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{73C2F8D1-AF23-5446-9773-D4A72284DEDE}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79164437-7DD5-F345-9CAC-E96DE76B4B8A}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G39:G62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB66DC63-007C-D54D-BE6E-1016EBA00C89}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="1"/>
+    <col min="28" max="28" width="9.1640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="119" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)","Request",IF(C8="応答電文(S→C)","Response","Error"&amp;C10))</f>
+        <v>BlancoApiPlainSamplePostError001</v>
+      </c>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="85"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="151"/>
+      <c r="E15" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="151"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="106"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="107"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="108"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="C24"/>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="106">
+        <v>1</v>
+      </c>
+      <c r="B27" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="107"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="108"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" s="102"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
+      <c r="J31" s="102"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="106"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="107"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="108"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="102"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="102"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="102"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="6"/>
+      <c r="J37" s="102"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="49"/>
+    </row>
+    <row r="39" spans="1:17" ht="15">
+      <c r="A39" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G39" s="181" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39" s="188" t="s">
+        <v>225</v>
+      </c>
+      <c r="J39" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="K39" s="185" t="s">
+        <v>119</v>
+      </c>
+      <c r="L39" s="186"/>
+      <c r="M39" s="187" t="s">
+        <v>120</v>
+      </c>
+      <c r="N39" s="186"/>
+      <c r="O39" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P39" s="181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="15">
+      <c r="A40" s="184"/>
+      <c r="B40" s="184"/>
+      <c r="C40" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="184"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="184"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="M40" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="N40" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="O40" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P40" s="184"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="55">
+        <v>1</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="59"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="55">
+        <v>2</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="59"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="55"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="62"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="55"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="66"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="55"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="66"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="55"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="66"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="55"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="66"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="55"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="66"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="55"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="58"/>
+      <c r="L49" s="58"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="66"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="55"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="66"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="55"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="66"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="55"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="66"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="55"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="66"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="55"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="66"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="55"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="58"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="66"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="55"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="66"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="55"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="66"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="55"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="66"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="55"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="66"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="55"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="58"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="66"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="55"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
+      <c r="P61" s="66"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="55"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="56"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="56"/>
+      <c r="P62" s="66"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="55"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="82"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="66"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="67"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="83"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
+      <c r="O64" s="71"/>
+      <c r="P64" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{5153E67C-3569-F04C-93A4-3601574FAD6F}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17" xr:uid="{8FC66DDE-22D4-9948-93C4-9C6A10070736}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J41:J64" xr:uid="{0DBDEDBB-E306-0547-A3AE-EAF5CB0C3727}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8FD8E9D1-D5B4-D14C-A9F6-5418E672D3E4}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G41:G64</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{91246231-F0B1-0F46-AD69-A935BBD3D358}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -9233,7 +13200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F64AFF-70D0-8B45-9675-30E890E033E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E617B4-2B9F-424E-85A2-1B9C11C9219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="242">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2476,6 +2476,15 @@
   </si>
   <si>
     <t>ArrayList</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>io.micronaut.serde.annotation.Serdeable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>JsonAutoDetect
+@Serdeable</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3380,7 +3389,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3632,10 +3641,88 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3647,9 +3734,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3658,12 +3742,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3695,12 +3773,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3710,80 +3782,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3792,10 +3798,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3807,11 +3816,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4403,152 +4415,152 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="171" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="171"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="171" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="171"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="171" t="s">
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="171"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="171" t="s">
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="171"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="171" t="s">
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="171"/>
+      <c r="E11" s="130"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="151" t="s">
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="151"/>
+      <c r="E12" s="133"/>
       <c r="F12" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="150" t="s">
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="151"/>
+      <c r="E13" s="133"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="172" t="s">
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="134" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="151"/>
+      <c r="E14" s="133"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="90" t="s">
         <v>137</v>
       </c>
@@ -4568,15 +4580,15 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="149"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="172"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
@@ -4620,28 +4632,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="142"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="165"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -4652,12 +4664,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4668,12 +4680,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -4684,12 +4696,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="108"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -4702,28 +4714,28 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="166" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="168"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -4736,14 +4748,14 @@
       <c r="A33" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="165" t="s">
+      <c r="B33" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -4754,12 +4766,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="107"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -4770,12 +4782,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="108"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -4800,28 +4812,28 @@
       <c r="M36"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="166" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="168"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="164" t="s">
+      <c r="B38" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
@@ -4832,12 +4844,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="106"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="168"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="149"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -4848,12 +4860,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="107"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="169"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="151"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -4864,12 +4876,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="108"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="170"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -4895,15 +4907,15 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="146" t="s">
+      <c r="A43" s="169" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
+      <c r="B43" s="169"/>
+      <c r="C43" s="169"/>
+      <c r="D43" s="169"/>
+      <c r="E43" s="169"/>
+      <c r="F43" s="169"/>
+      <c r="G43" s="169"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="105" t="s">
@@ -5019,221 +5031,299 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="131" t="s">
+      <c r="A50" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="131" t="s">
+      <c r="B50" s="159"/>
+      <c r="C50" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="159"/>
       <c r="F50" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="138"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="139"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="156"/>
       <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="129"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="130"/>
+      <c r="A52" s="138"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="140"/>
       <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="129"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="130"/>
+      <c r="A53" s="138"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="140"/>
       <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="129"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="130"/>
+      <c r="A54" s="138"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="140"/>
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="129"/>
-      <c r="B55" s="130"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="130"/>
+      <c r="A55" s="138"/>
+      <c r="B55" s="140"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="140"/>
       <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="129"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="130"/>
+      <c r="A56" s="138"/>
+      <c r="B56" s="140"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="140"/>
       <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="129"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="130"/>
+      <c r="A57" s="138"/>
+      <c r="B57" s="140"/>
+      <c r="C57" s="138"/>
+      <c r="D57" s="139"/>
+      <c r="E57" s="140"/>
       <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="129"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="130"/>
+      <c r="A58" s="138"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="140"/>
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="129"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="130"/>
+      <c r="A59" s="138"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="140"/>
       <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="129"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="130"/>
+      <c r="A60" s="138"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="140"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="129"/>
-      <c r="B61" s="130"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="130"/>
+      <c r="A61" s="138"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="140"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="129"/>
-      <c r="B62" s="130"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="130"/>
+      <c r="A62" s="138"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
       <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="129"/>
-      <c r="B63" s="130"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="130"/>
+      <c r="A63" s="138"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="140"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="129"/>
-      <c r="B64" s="130"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="130"/>
+      <c r="A64" s="138"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="140"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="129"/>
-      <c r="B65" s="130"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="130"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="129"/>
-      <c r="B66" s="130"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="130"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="140"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="129"/>
-      <c r="B67" s="130"/>
-      <c r="C67" s="129"/>
-      <c r="D67" s="161"/>
-      <c r="E67" s="130"/>
+      <c r="A67" s="138"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="140"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="129"/>
-      <c r="B68" s="130"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="130"/>
+      <c r="A68" s="138"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="140"/>
       <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="129"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="161"/>
-      <c r="E69" s="130"/>
+      <c r="A69" s="138"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="140"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="129"/>
-      <c r="B70" s="130"/>
-      <c r="C70" s="129"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="130"/>
+      <c r="A70" s="138"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="140"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="129"/>
-      <c r="B71" s="130"/>
-      <c r="C71" s="129"/>
-      <c r="D71" s="161"/>
-      <c r="E71" s="130"/>
+      <c r="A71" s="138"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="139"/>
+      <c r="E71" s="140"/>
       <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="129"/>
-      <c r="B72" s="130"/>
-      <c r="C72" s="129"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="130"/>
+      <c r="A72" s="138"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="139"/>
+      <c r="E72" s="140"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="129"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="130"/>
+      <c r="A73" s="138"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="139"/>
+      <c r="E73" s="140"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="129"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="130"/>
+      <c r="A74" s="138"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="138"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="140"/>
       <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="155"/>
-      <c r="B75" s="156"/>
-      <c r="C75" s="155"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="156"/>
+      <c r="A75" s="141"/>
+      <c r="B75" s="143"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="143"/>
       <c r="F75" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -5250,84 +5340,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5526,10 +5538,10 @@
         <v>168</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="133"/>
       <c r="E16" s="1" t="s">
         <v>170</v>
       </c>
@@ -5539,20 +5551,20 @@
         <v>171</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="133"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="151"/>
+      <c r="D18" s="133"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="112" t="s">
@@ -5610,28 +5622,28 @@
       <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="142"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="165"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
@@ -5649,12 +5661,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="106"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
       <c r="J24" s="102"/>
@@ -5672,12 +5684,12 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="107"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -5695,12 +5707,12 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="108"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -5720,28 +5732,28 @@
       <c r="C27"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="145"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="168"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="164" t="s">
+      <c r="B29" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
@@ -5761,14 +5773,14 @@
       <c r="A30" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="165" t="s">
+      <c r="B30" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
@@ -5786,12 +5798,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="107"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -5809,12 +5821,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="108"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -5853,28 +5865,28 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="168"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="164" t="s">
+      <c r="B35" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
@@ -5892,12 +5904,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="106"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="168"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
@@ -5915,12 +5927,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="107"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="169"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -5938,12 +5950,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="108"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="170"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -6019,16 +6031,16 @@
       <c r="B42" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="181" t="s">
+      <c r="E42" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="181" t="s">
+      <c r="F42" s="180" t="s">
         <v>171</v>
       </c>
       <c r="G42" s="176" t="s">
@@ -6040,13 +6052,13 @@
       <c r="I42" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J42" s="181" t="s">
+      <c r="J42" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K42" s="181" t="s">
+      <c r="K42" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L42" s="189" t="s">
+      <c r="L42" s="179" t="s">
         <v>225</v>
       </c>
       <c r="M42" s="176" t="s">
@@ -6058,14 +6070,14 @@
       <c r="O42" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P42" s="179" t="s">
+      <c r="P42" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="179" t="s">
+      <c r="Q42" s="184"/>
+      <c r="R42" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="180"/>
+      <c r="S42" s="184"/>
       <c r="T42" s="32" t="s">
         <v>69</v>
       </c>
@@ -6074,21 +6086,21 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="177"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="183"/>
-      <c r="M43" s="177"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="183"/>
+      <c r="A43" s="178"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="178"/>
+      <c r="N43" s="178"/>
+      <c r="O43" s="177"/>
       <c r="P43" s="27" t="s">
         <v>74</v>
       </c>
@@ -6104,7 +6116,7 @@
       <c r="T43" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U43" s="177"/>
+      <c r="U43" s="178"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="7">
@@ -6748,26 +6760,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="A22:G22"/>
@@ -6784,6 +6776,26 @@
     <mergeCell ref="F42:F43"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B35:G35"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -6840,8 +6852,8 @@
   </sheetPr>
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6976,23 +6988,23 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" ht="27" customHeight="1">
       <c r="A14" s="111" t="s">
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="151" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="151"/>
+      <c r="C14" s="190" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="133"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -7018,28 +7030,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -7051,12 +7063,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -7068,12 +7080,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -7085,12 +7097,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -7106,29 +7118,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -7143,14 +7155,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -7161,13 +7173,17 @@
       <c r="Q25"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="107"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="A26" s="107">
+        <v>2</v>
+      </c>
+      <c r="B26" s="146" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -7179,12 +7195,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -7213,29 +7229,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -7248,12 +7264,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -7266,12 +7282,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -7283,12 +7299,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -7341,31 +7357,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="181" t="s">
+      <c r="E37" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="181" t="s">
+      <c r="F37" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="181" t="s">
+      <c r="G37" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="181" t="s">
+      <c r="H37" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="180" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -7382,23 +7398,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="181" t="s">
+      <c r="P37" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
+      <c r="A38" s="188"/>
+      <c r="B38" s="188"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="183"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -7414,7 +7430,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="184"/>
+      <c r="P38" s="188"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -7912,6 +7928,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J37:J38"/>
@@ -7928,19 +7957,6 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8150,10 +8166,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="151"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -8163,10 +8179,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="133"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -8192,28 +8208,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -8225,12 +8241,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -8242,12 +8258,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -8259,12 +8275,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -8280,29 +8296,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="168"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="164" t="s">
+      <c r="B26" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -8317,14 +8333,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -8336,12 +8352,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -8353,12 +8369,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -8387,29 +8403,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="168"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -8422,12 +8438,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -8440,12 +8456,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -8457,12 +8473,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="170"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -8515,31 +8531,31 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="181" t="s">
+      <c r="E39" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="181" t="s">
+      <c r="F39" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="188" t="s">
+      <c r="H39" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="188" t="s">
+      <c r="I39" s="189" t="s">
         <v>225</v>
       </c>
       <c r="J39" s="176" t="s">
@@ -8556,23 +8572,23 @@
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="181" t="s">
+      <c r="P39" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="184"/>
-      <c r="B40" s="184"/>
+      <c r="A40" s="188"/>
+      <c r="B40" s="188"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="183"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="177"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -8588,7 +8604,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="184"/>
+      <c r="P40" s="188"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -9044,19 +9060,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -9073,6 +9076,19 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9281,10 +9297,10 @@
         <v>168</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="133"/>
       <c r="E16" s="1" t="s">
         <v>170</v>
       </c>
@@ -9294,20 +9310,20 @@
         <v>171</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="133"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="151"/>
+      <c r="D18" s="133"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="112" t="s">
@@ -9365,28 +9381,28 @@
       <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="169"/>
+      <c r="D22" s="169"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="142"/>
+      <c r="C23" s="164"/>
+      <c r="D23" s="164"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="165"/>
       <c r="H23" s="95"/>
       <c r="I23" s="95"/>
       <c r="J23" s="95"/>
@@ -9404,12 +9420,12 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="106"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="157"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="102"/>
       <c r="I24" s="102"/>
       <c r="J24" s="102"/>
@@ -9427,12 +9443,12 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="107"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -9450,12 +9466,12 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="108"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -9475,28 +9491,28 @@
       <c r="C27"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="143" t="s">
+      <c r="A28" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="145"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="168"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="164" t="s">
+      <c r="B29" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="164"/>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="164"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
       <c r="H29" s="95"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
@@ -9516,14 +9532,14 @@
       <c r="A30" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="165" t="s">
+      <c r="B30" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="165"/>
-      <c r="G30" s="165"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
@@ -9541,12 +9557,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="107"/>
-      <c r="B31" s="166"/>
-      <c r="C31" s="166"/>
-      <c r="D31" s="166"/>
-      <c r="E31" s="166"/>
-      <c r="F31" s="166"/>
-      <c r="G31" s="166"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -9564,12 +9580,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="108"/>
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -9608,28 +9624,28 @@
       <c r="T33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="168"/>
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="164" t="s">
+      <c r="B35" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="164"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="164"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
       <c r="H35" s="95"/>
       <c r="I35" s="95"/>
       <c r="J35" s="95"/>
@@ -9647,12 +9663,12 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="106"/>
-      <c r="B36" s="157"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="168"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="149"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
@@ -9670,12 +9686,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="107"/>
-      <c r="B37" s="158"/>
-      <c r="C37" s="158"/>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="169"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="151"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -9693,12 +9709,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="108"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="170"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -9774,16 +9790,16 @@
       <c r="B42" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="181" t="s">
+      <c r="E42" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="181" t="s">
+      <c r="F42" s="180" t="s">
         <v>171</v>
       </c>
       <c r="G42" s="176" t="s">
@@ -9795,13 +9811,13 @@
       <c r="I42" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J42" s="181" t="s">
+      <c r="J42" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K42" s="181" t="s">
+      <c r="K42" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L42" s="189" t="s">
+      <c r="L42" s="179" t="s">
         <v>225</v>
       </c>
       <c r="M42" s="176" t="s">
@@ -9813,14 +9829,14 @@
       <c r="O42" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P42" s="179" t="s">
+      <c r="P42" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="179" t="s">
+      <c r="Q42" s="184"/>
+      <c r="R42" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="180"/>
+      <c r="S42" s="184"/>
       <c r="T42" s="32" t="s">
         <v>69</v>
       </c>
@@ -9829,21 +9845,21 @@
       </c>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="177"/>
-      <c r="B43" s="177"/>
-      <c r="C43" s="177"/>
-      <c r="D43" s="177"/>
-      <c r="E43" s="182"/>
-      <c r="F43" s="182"/>
-      <c r="G43" s="177"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="183"/>
-      <c r="M43" s="177"/>
-      <c r="N43" s="177"/>
-      <c r="O43" s="183"/>
+      <c r="A43" s="178"/>
+      <c r="B43" s="178"/>
+      <c r="C43" s="178"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="178"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="181"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="177"/>
+      <c r="M43" s="178"/>
+      <c r="N43" s="178"/>
+      <c r="O43" s="177"/>
       <c r="P43" s="27" t="s">
         <v>74</v>
       </c>
@@ -9859,7 +9875,7 @@
       <c r="T43" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U43" s="177"/>
+      <c r="U43" s="178"/>
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="7">
@@ -10501,11 +10517,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
     <mergeCell ref="U42:U43"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="H42:H43"/>
@@ -10513,30 +10548,11 @@
     <mergeCell ref="J42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="L42:L43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -10729,10 +10745,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -10742,10 +10758,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="133"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -10771,28 +10787,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -10804,12 +10820,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -10821,12 +10837,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -10838,12 +10854,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -10859,29 +10875,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -10896,14 +10912,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -10915,12 +10931,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -10932,12 +10948,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -10966,29 +10982,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -11001,12 +11017,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -11019,12 +11035,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -11036,12 +11052,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -11094,31 +11110,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="181" t="s">
+      <c r="E37" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="181" t="s">
+      <c r="F37" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="181" t="s">
+      <c r="G37" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="181" t="s">
+      <c r="H37" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="180" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -11135,23 +11151,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="181" t="s">
+      <c r="P37" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="184"/>
-      <c r="B38" s="184"/>
+      <c r="A38" s="188"/>
+      <c r="B38" s="188"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="184"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="183"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
+      <c r="I38" s="188"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -11167,7 +11183,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="184"/>
+      <c r="P38" s="188"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -11665,6 +11681,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="H37:H38"/>
@@ -11672,28 +11710,6 @@
     <mergeCell ref="J37:J38"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11741,7 +11757,7 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -11903,10 +11919,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="151"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -11916,10 +11932,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="133"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -11945,28 +11961,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -11978,12 +11994,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -11995,12 +12011,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -12012,12 +12028,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -12033,29 +12049,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="168"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="164" t="s">
+      <c r="B26" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -12070,14 +12086,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -12089,12 +12105,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -12106,12 +12122,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -12140,29 +12156,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="168"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -12175,12 +12191,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -12193,12 +12209,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -12210,12 +12226,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="170"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -12268,31 +12284,31 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="181" t="s">
+      <c r="E39" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="181" t="s">
+      <c r="F39" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="188" t="s">
+      <c r="H39" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="188" t="s">
+      <c r="I39" s="189" t="s">
         <v>225</v>
       </c>
       <c r="J39" s="176" t="s">
@@ -12309,23 +12325,23 @@
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="181" t="s">
+      <c r="P39" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="184"/>
-      <c r="B40" s="184"/>
+      <c r="A40" s="188"/>
+      <c r="B40" s="188"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="184"/>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="183"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="188"/>
+      <c r="J40" s="177"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -12341,7 +12357,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="184"/>
+      <c r="P40" s="188"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -12797,6 +12813,28 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
@@ -12804,28 +12842,6 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E617B4-2B9F-424E-85A2-1B9C11C9219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E89492-8B9A-7343-9C93-34C8CC6CB465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="1280" windowWidth="29440" windowHeight="21600" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="245">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2485,6 +2485,33 @@
   <si>
     <t>JsonAutoDetect
 @Serdeable</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Pathクエリ書式</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ショシキ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ processシートで指定されたロケーション+WebサービスID+追加パスの後ろに追加されます</t>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">シテイ </t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t xml:space="preserve">ウシロ </t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/hoge/{get_sample}/fuga/{field_2}/boge</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3807,6 +3834,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3821,9 +3851,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5375,10 +5402,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5389,48 +5416,48 @@
     <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
-    <col min="8" max="14" width="22.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.83203125" style="1"/>
-    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.83203125" style="1"/>
+    <col min="8" max="13" width="22.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="43.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.83203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="1"/>
+    <col min="32" max="32" width="9.1640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19">
+    <row r="1" spans="1:18" ht="19">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -5438,7 +5465,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5449,7 +5476,7 @@
       </c>
       <c r="D6" s="118"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -5458,9 +5485,9 @@
         <v>161</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="S7"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5470,7 +5497,7 @@
       </c>
       <c r="D8" s="114"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>151</v>
       </c>
@@ -5480,7 +5507,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10" s="47" t="s">
         <v>152</v>
       </c>
@@ -5488,7 +5515,7 @@
       <c r="C10" s="110"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11" s="47" t="s">
         <v>153</v>
       </c>
@@ -5496,7 +5523,7 @@
       <c r="C11" s="110"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12" s="47" t="s">
         <v>154</v>
       </c>
@@ -5504,7 +5531,7 @@
       <c r="C12" s="110"/>
       <c r="D12" s="115"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
         <v>232</v>
       </c>
@@ -5515,93 +5542,80 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="33"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="46" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="111" t="s">
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="111" t="s">
         <v>168</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" s="111" t="s">
-        <v>171</v>
       </c>
       <c r="B17" s="111"/>
       <c r="C17" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="133"/>
+      <c r="E17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="133"/>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="111" t="s">
+      <c r="D18" s="133"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="132" t="s">
+      <c r="B19" s="111"/>
+      <c r="C19" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="133"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="112" t="s">
+      <c r="D19" s="133"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="112" t="s">
         <v>173</v>
-      </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="112" t="s">
-        <v>206</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -5616,80 +5630,80 @@
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
-      <c r="S20"/>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="6"/>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="169" t="s">
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="105" t="s">
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B24" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="106"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="107"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="106"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -5700,19 +5714,18 @@
       <c r="O25" s="102"/>
       <c r="P25" s="102"/>
       <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
+      <c r="S25"/>
       <c r="T25"/>
       <c r="U25"/>
-      <c r="V25"/>
-    </row>
-    <row r="26" spans="1:22">
-      <c r="A26" s="108"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="107"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -5723,87 +5736,84 @@
       <c r="O26" s="102"/>
       <c r="P26" s="102"/>
       <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
+      <c r="S26"/>
       <c r="T26"/>
       <c r="U26"/>
-      <c r="V26"/>
-    </row>
-    <row r="27" spans="1:22">
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="166" t="s">
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="108"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="168"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="105" t="s">
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B30" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="106">
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B31" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="107"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -5814,19 +5824,18 @@
       <c r="O31" s="102"/>
       <c r="P31" s="102"/>
       <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
+      <c r="S31"/>
       <c r="T31"/>
       <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="108"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="107"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -5837,102 +5846,98 @@
       <c r="O32" s="102"/>
       <c r="P32" s="102"/>
       <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
+      <c r="S32"/>
       <c r="T32"/>
       <c r="U32"/>
-      <c r="V32"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="108"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
       <c r="S33"/>
       <c r="T33"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="166" t="s">
+      <c r="U33"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="168"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="105" t="s">
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="168"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="144" t="s">
+      <c r="B36" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="106"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="107"/>
-      <c r="B37" s="150"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="151"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="T36" s="101"/>
+      <c r="U36" s="101"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="106"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -5943,19 +5948,18 @@
       <c r="O37" s="102"/>
       <c r="P37" s="102"/>
       <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
+      <c r="S37"/>
       <c r="T37"/>
       <c r="U37"/>
-      <c r="V37"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="108"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="153"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="107"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="151"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -5966,360 +5970,341 @@
       <c r="O38" s="102"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
+      <c r="S38"/>
       <c r="T38"/>
       <c r="U38"/>
-      <c r="V38"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="108"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
       <c r="S39"/>
       <c r="T39"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="6"/>
-      <c r="N40" s="1" t="s">
+      <c r="U39"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="6"/>
+      <c r="M41" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:21">
+      <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="5"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="176" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="5"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="176" t="s">
+      <c r="B43" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C43" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D43" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="180" t="s">
+      <c r="E43" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="180" t="s">
+      <c r="F43" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G42" s="176" t="s">
+      <c r="G43" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="176" t="s">
+      <c r="H43" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="I42" s="176" t="s">
+      <c r="I43" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J42" s="180" t="s">
+      <c r="J43" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K42" s="180" t="s">
+      <c r="K43" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L42" s="179" t="s">
+      <c r="L43" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="M42" s="176" t="s">
-        <v>225</v>
-      </c>
-      <c r="N42" s="176" t="s">
+      <c r="M43" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="O42" s="176" t="s">
+      <c r="N43" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P42" s="183" t="s">
+      <c r="O43" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="184"/>
-      <c r="R42" s="183" t="s">
+      <c r="P43" s="184"/>
+      <c r="Q43" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="184"/>
-      <c r="T42" s="32" t="s">
+      <c r="R43" s="184"/>
+      <c r="S43" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="176" t="s">
+      <c r="T43" s="176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="178"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="177"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="177"/>
-      <c r="P43" s="27" t="s">
+    <row r="44" spans="1:21">
+      <c r="A44" s="178"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="181"/>
+      <c r="K44" s="181"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="178"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q43" s="27" t="s">
+      <c r="P44" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R43" s="27" t="s">
+      <c r="Q44" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="27" t="s">
+      <c r="R44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="27" t="s">
+      <c r="S44" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U43" s="178"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="7">
+      <c r="T44" s="178"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="7">
         <v>1</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B45" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="75" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23" t="s">
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M44" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="N44" s="120" t="s">
+      <c r="M45" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23">
+      <c r="N45" s="23"/>
+      <c r="O45" s="23">
         <v>0</v>
       </c>
-      <c r="Q44" s="28">
+      <c r="P45" s="28">
         <v>10</v>
       </c>
-      <c r="R44" s="23"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="10">
-        <f t="shared" ref="A45:A50" si="0">A44+1</f>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="9"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="10">
+        <f t="shared" ref="A46:A51" si="0">A45+1</f>
         <v>2</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B46" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D46" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O45" s="24" t="s">
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="20">
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="N46" s="24"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="20">
         <v>0</v>
       </c>
-      <c r="S45" s="29">
+      <c r="R46" s="29">
         <v>100</v>
       </c>
-      <c r="T45" s="29"/>
-      <c r="U45" s="12"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="10">
+      <c r="S46" s="29"/>
+      <c r="T46" s="12"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B47" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="25" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="25" t="b">
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="120" t="s">
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="O46" s="24"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="14"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="10">
+      <c r="N47" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O47" s="20"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="14"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B48" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O47" s="24"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="14"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="120"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+      <c r="E48" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="73"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="N48" s="24"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="14"/>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="F49" s="25"/>
       <c r="G49" s="77"/>
       <c r="H49" s="25"/>
@@ -6327,27 +6312,28 @@
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="120"/>
+      <c r="M49" s="120"/>
+      <c r="N49" s="24"/>
       <c r="O49" s="24"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="14"/>
-    </row>
-    <row r="50" spans="1:21">
+      <c r="P49" s="30"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -6357,21 +6343,27 @@
       <c r="J50" s="25"/>
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="20"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="29"/>
       <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="14"/>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="10"/>
-      <c r="B51" s="21"/>
+      <c r="T50" s="14"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="25"/>
+      <c r="D51" s="25" t="s">
+        <v>163</v>
+      </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="77"/>
@@ -6380,17 +6372,16 @@
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="20"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="29"/>
       <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="14"/>
-    </row>
-    <row r="52" spans="1:21">
+      <c r="T51" s="14"/>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="10"/>
       <c r="B52" s="21"/>
       <c r="C52" s="13"/>
@@ -6403,17 +6394,16 @@
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="120"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="14"/>
-    </row>
-    <row r="53" spans="1:21">
+      <c r="M52" s="120"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="14"/>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="10"/>
       <c r="B53" s="21"/>
       <c r="C53" s="13"/>
@@ -6426,17 +6416,16 @@
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="120"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="24"/>
       <c r="O53" s="24"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="14"/>
-    </row>
-    <row r="54" spans="1:21">
+      <c r="P53" s="30"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="14"/>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="10"/>
       <c r="B54" s="21"/>
       <c r="C54" s="13"/>
@@ -6449,17 +6438,16 @@
       <c r="J54" s="25"/>
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="20"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="29"/>
       <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
-      <c r="U54" s="14"/>
-    </row>
-    <row r="55" spans="1:21">
+      <c r="T54" s="14"/>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="10"/>
       <c r="B55" s="21"/>
       <c r="C55" s="13"/>
@@ -6472,17 +6460,16 @@
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="20"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="29"/>
       <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="14"/>
-    </row>
-    <row r="56" spans="1:21">
+      <c r="T55" s="14"/>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="10"/>
       <c r="B56" s="21"/>
       <c r="C56" s="13"/>
@@ -6495,17 +6482,16 @@
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="20"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="29"/>
       <c r="S56" s="29"/>
-      <c r="T56" s="29"/>
-      <c r="U56" s="14"/>
-    </row>
-    <row r="57" spans="1:21">
+      <c r="T56" s="14"/>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="10"/>
       <c r="B57" s="21"/>
       <c r="C57" s="13"/>
@@ -6518,17 +6504,16 @@
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="20"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="29"/>
       <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="14"/>
-    </row>
-    <row r="58" spans="1:21">
+      <c r="T57" s="14"/>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="10"/>
       <c r="B58" s="21"/>
       <c r="C58" s="13"/>
@@ -6541,17 +6526,16 @@
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="14"/>
-    </row>
-    <row r="59" spans="1:21">
+      <c r="M58" s="120"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="14"/>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="10"/>
       <c r="B59" s="21"/>
       <c r="C59" s="13"/>
@@ -6564,17 +6548,16 @@
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="120"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="24"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="14"/>
-    </row>
-    <row r="60" spans="1:21">
+      <c r="P59" s="30"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="14"/>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="10"/>
       <c r="B60" s="21"/>
       <c r="C60" s="13"/>
@@ -6587,17 +6570,16 @@
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="120"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="20"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="29"/>
       <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="14"/>
-    </row>
-    <row r="61" spans="1:21">
+      <c r="T60" s="14"/>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="10"/>
       <c r="B61" s="21"/>
       <c r="C61" s="13"/>
@@ -6610,17 +6592,16 @@
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="120"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="20"/>
+      <c r="M61" s="120"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="29"/>
       <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="14"/>
-    </row>
-    <row r="62" spans="1:21">
+      <c r="T61" s="14"/>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="10"/>
       <c r="B62" s="21"/>
       <c r="C62" s="13"/>
@@ -6633,17 +6614,16 @@
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="120"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="20"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="29"/>
       <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="14"/>
-    </row>
-    <row r="63" spans="1:21">
+      <c r="T62" s="14"/>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="10"/>
       <c r="B63" s="21"/>
       <c r="C63" s="13"/>
@@ -6656,17 +6636,16 @@
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="120"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="14"/>
-    </row>
-    <row r="64" spans="1:21">
+      <c r="M63" s="120"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="14"/>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="10"/>
       <c r="B64" s="21"/>
       <c r="C64" s="13"/>
@@ -6679,17 +6658,16 @@
       <c r="J64" s="25"/>
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="120"/>
+      <c r="M64" s="120"/>
+      <c r="N64" s="24"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="14"/>
-    </row>
-    <row r="65" spans="1:21">
+      <c r="P64" s="30"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="14"/>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="10"/>
       <c r="B65" s="21"/>
       <c r="C65" s="13"/>
@@ -6702,17 +6680,16 @@
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="120"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="20"/>
+      <c r="M65" s="120"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="29"/>
       <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="14"/>
-    </row>
-    <row r="66" spans="1:21">
+      <c r="T65" s="14"/>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="10"/>
       <c r="B66" s="21"/>
       <c r="C66" s="13"/>
@@ -6725,90 +6702,109 @@
       <c r="J66" s="25"/>
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="120"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="14"/>
-    </row>
-    <row r="67" spans="1:21">
-      <c r="A67" s="15"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="120"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="17"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="14"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="10"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="120"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="14"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="15"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B23:G23"/>
+  <mergeCells count="35">
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="N43:N44"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B36:G36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44:O67" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N45:N68" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:N67" xr:uid="{FBF4941F-B3C7-154E-A998-884BA063A37C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M45:M68" xr:uid="{FBF4941F-B3C7-154E-A998-884BA063A37C}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -6825,7 +6821,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G44:G67</xm:sqref>
+          <xm:sqref>G45:G68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
@@ -6852,7 +6848,7 @@
   </sheetPr>
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -7001,7 +6997,7 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="190" t="s">
+      <c r="C14" s="185" t="s">
         <v>241</v>
       </c>
       <c r="D14" s="133"/>
@@ -7387,14 +7383,14 @@
       <c r="J37" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="K37" s="185" t="s">
+      <c r="K37" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="186"/>
-      <c r="M37" s="187" t="s">
+      <c r="L37" s="187"/>
+      <c r="M37" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="186"/>
+      <c r="N37" s="187"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
@@ -7403,17 +7399,17 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="188"/>
-      <c r="B38" s="188"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="188"/>
+      <c r="D38" s="189"/>
       <c r="E38" s="181"/>
       <c r="F38" s="181"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
       <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
@@ -7430,7 +7426,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="188"/>
+      <c r="P38" s="189"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -8552,23 +8548,23 @@
       <c r="G39" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="189" t="s">
+      <c r="H39" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="189" t="s">
+      <c r="I39" s="190" t="s">
         <v>225</v>
       </c>
       <c r="J39" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="185" t="s">
+      <c r="K39" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="186"/>
-      <c r="M39" s="187" t="s">
+      <c r="L39" s="187"/>
+      <c r="M39" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="186"/>
+      <c r="N39" s="187"/>
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
@@ -8577,17 +8573,17 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="188"/>
-      <c r="B40" s="188"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="188"/>
+      <c r="D40" s="189"/>
       <c r="E40" s="181"/>
       <c r="F40" s="181"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
       <c r="J40" s="177"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
@@ -8604,7 +8600,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="188"/>
+      <c r="P40" s="189"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -9134,10 +9130,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9276,91 +9272,78 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="46"/>
+      <c r="C14" s="46" t="s">
+        <v>244</v>
+      </c>
       <c r="D14" s="33"/>
+      <c r="E14" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="46" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D15" s="33"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="111" t="s">
-        <v>168</v>
-      </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="111" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B17" s="111"/>
       <c r="C17" s="133" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D17" s="133"/>
+      <c r="E17" s="1" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="133" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="133"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="132" t="s">
+      <c r="B19" s="111"/>
+      <c r="C19" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="133"/>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" s="112" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
+      <c r="D19" s="133"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -9378,77 +9361,80 @@
       <c r="S20"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="6"/>
+      <c r="A21" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="169" t="s">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-    </row>
-    <row r="23" spans="1:22">
-      <c r="A23" s="105" t="s">
+      <c r="B23" s="169"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B24" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="95"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="106"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="107"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -9465,13 +9451,13 @@
       <c r="V25"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="108"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -9488,81 +9474,81 @@
       <c r="V26"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="C27"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="166" t="s">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="168"/>
-    </row>
-    <row r="29" spans="1:22">
-      <c r="A29" s="105" t="s">
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="144" t="s">
+      <c r="B30" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="106">
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="106">
         <v>1</v>
       </c>
-      <c r="B30" s="145" t="s">
+      <c r="B31" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="107"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -9579,13 +9565,13 @@
       <c r="V31"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="108"/>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -9602,96 +9588,96 @@
       <c r="V32"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
       <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="166" t="s">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="168"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="105" t="s">
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="168"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="144" t="s">
+      <c r="B36" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="U35" s="101"/>
-      <c r="V35" s="101"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="106"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
-      <c r="D36" s="148"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="102"/>
-      <c r="L36" s="102"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="107"/>
-      <c r="B37" s="150"/>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="151"/>
+      <c r="A37" s="106"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -9708,13 +9694,13 @@
       <c r="V37"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="108"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="153"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="151"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -9731,297 +9717,284 @@
       <c r="V38"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
       <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="6"/>
-      <c r="N40" s="1" t="s">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="6"/>
+      <c r="N41" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:22">
+      <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="5"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="176" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="176" t="s">
+      <c r="B43" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="182" t="s">
+      <c r="C43" s="182" t="s">
         <v>1</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D43" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="180" t="s">
+      <c r="E43" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F42" s="180" t="s">
+      <c r="F43" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G42" s="176" t="s">
+      <c r="G43" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="176" t="s">
+      <c r="H43" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="I42" s="176" t="s">
+      <c r="I43" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J42" s="180" t="s">
+      <c r="J43" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K42" s="180" t="s">
+      <c r="K43" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L42" s="179" t="s">
+      <c r="L43" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="M42" s="176" t="s">
+      <c r="M43" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="N42" s="176" t="s">
+      <c r="N43" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="O42" s="176" t="s">
+      <c r="O43" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P42" s="183" t="s">
+      <c r="P43" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="184"/>
-      <c r="R42" s="183" t="s">
+      <c r="Q43" s="184"/>
+      <c r="R43" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="S42" s="184"/>
-      <c r="T42" s="32" t="s">
+      <c r="S43" s="184"/>
+      <c r="T43" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U42" s="176" t="s">
+      <c r="U43" s="176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="178"/>
-      <c r="B43" s="178"/>
-      <c r="C43" s="178"/>
-      <c r="D43" s="178"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="178"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="181"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="177"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="178"/>
-      <c r="O43" s="177"/>
-      <c r="P43" s="27" t="s">
+    <row r="44" spans="1:22">
+      <c r="A44" s="178"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="181"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="178"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="181"/>
+      <c r="K44" s="181"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="178"/>
+      <c r="N44" s="178"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q43" s="27" t="s">
+      <c r="Q44" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R43" s="27" t="s">
+      <c r="R44" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S43" s="27" t="s">
+      <c r="S44" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="27" t="s">
+      <c r="T44" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U43" s="178"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="7">
+      <c r="U44" s="178"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="7">
         <v>1</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B45" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="75" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23" t="s">
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="M45" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="N44" s="120" t="s">
+      <c r="N45" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23">
+      <c r="O45" s="23"/>
+      <c r="P45" s="23">
         <v>0</v>
       </c>
-      <c r="Q44" s="28">
+      <c r="Q45" s="28">
         <v>10</v>
       </c>
-      <c r="R44" s="23"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="9"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="10">
-        <f t="shared" ref="A45:A50" si="0">A44+1</f>
-        <v>2</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="76"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O45" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="29"/>
-      <c r="R45" s="20">
-        <v>0</v>
-      </c>
-      <c r="S45" s="29">
-        <v>100</v>
-      </c>
-      <c r="T45" s="29"/>
-      <c r="U45" s="12"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="9"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="13"/>
-      <c r="D46" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="25"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
+        <f t="shared" ref="A46:A51" si="0">A45+1</f>
+        <v>2</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
       <c r="N46" s="120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O46" s="24"/>
       <c r="P46" s="20"/>
       <c r="Q46" s="29"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="29"/>
+      <c r="R46" s="20">
+        <v>0</v>
+      </c>
+      <c r="S46" s="29">
+        <v>100</v>
+      </c>
       <c r="T46" s="29"/>
-      <c r="U46" s="14"/>
+      <c r="U46" s="12"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="J47" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K47" s="73"/>
-      <c r="L47" s="73"/>
-      <c r="M47" s="73"/>
-      <c r="N47" s="120"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O47" s="24"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="29"/>
@@ -10033,50 +10006,54 @@
     <row r="48" spans="1:22">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
+      <c r="E48" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="73"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
       <c r="N48" s="120"/>
       <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="14"/>
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="F49" s="25"/>
       <c r="G49" s="77"/>
       <c r="H49" s="25"/>
@@ -10087,24 +10064,26 @@
       <c r="M49" s="25"/>
       <c r="N49" s="120"/>
       <c r="O49" s="24"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="14"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
@@ -10125,10 +10104,17 @@
       <c r="U50" s="14"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="10"/>
-      <c r="B51" s="21"/>
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="25"/>
+      <c r="D51" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
       <c r="G51" s="77"/>
@@ -10163,11 +10149,11 @@
       <c r="M52" s="25"/>
       <c r="N52" s="120"/>
       <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
       <c r="U52" s="14"/>
     </row>
     <row r="53" spans="1:21">
@@ -10186,11 +10172,11 @@
       <c r="M53" s="25"/>
       <c r="N53" s="120"/>
       <c r="O53" s="24"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="29"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21">
@@ -10301,11 +10287,11 @@
       <c r="M58" s="25"/>
       <c r="N58" s="120"/>
       <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
       <c r="U58" s="14"/>
     </row>
     <row r="59" spans="1:21">
@@ -10324,11 +10310,11 @@
       <c r="M59" s="25"/>
       <c r="N59" s="120"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
       <c r="U59" s="14"/>
     </row>
     <row r="60" spans="1:21">
@@ -10416,11 +10402,11 @@
       <c r="M63" s="25"/>
       <c r="N63" s="120"/>
       <c r="O63" s="24"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
       <c r="U63" s="14"/>
     </row>
     <row r="64" spans="1:21">
@@ -10439,11 +10425,11 @@
       <c r="M64" s="25"/>
       <c r="N64" s="120"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
       <c r="U64" s="14"/>
     </row>
     <row r="65" spans="1:21">
@@ -10485,84 +10471,107 @@
       <c r="M66" s="25"/>
       <c r="N66" s="120"/>
       <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
       <c r="U66" s="14"/>
     </row>
     <row r="67" spans="1:21">
-      <c r="A67" s="15"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
       <c r="N67" s="120"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="22"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="17"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="14"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="15"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B32:G32"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="B30:G30"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="U42:U43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N44:N67" xr:uid="{2DA0E2F9-CEA5-1D4F-AE50-95E1CB9320FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N45:N68" xr:uid="{2DA0E2F9-CEA5-1D4F-AE50-95E1CB9320FD}">
       <formula1>path</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O44:O67" xr:uid="{A7248111-DAEF-5C48-9FF6-28E1969AA06B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O45:O68" xr:uid="{A7248111-DAEF-5C48-9FF6-28E1969AA06B}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20" xr:uid="{4658C7EA-C894-FB4C-9A2C-FB1119DE0653}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21" xr:uid="{4658C7EA-C894-FB4C-9A2C-FB1119DE0653}">
       <formula1>isImport</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{76A3C016-F848-B042-88C4-26414904C873}">
@@ -10594,7 +10603,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G44:G67</xm:sqref>
+          <xm:sqref>G45:G68</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11140,14 +11149,14 @@
       <c r="J37" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="K37" s="185" t="s">
+      <c r="K37" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="186"/>
-      <c r="M37" s="187" t="s">
+      <c r="L37" s="187"/>
+      <c r="M37" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="186"/>
+      <c r="N37" s="187"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
@@ -11156,17 +11165,17 @@
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="188"/>
-      <c r="B38" s="188"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="188"/>
+      <c r="D38" s="189"/>
       <c r="E38" s="181"/>
       <c r="F38" s="181"/>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="188"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
       <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
@@ -11183,7 +11192,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="188"/>
+      <c r="P38" s="189"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -12305,23 +12314,23 @@
       <c r="G39" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="189" t="s">
+      <c r="H39" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="189" t="s">
+      <c r="I39" s="190" t="s">
         <v>225</v>
       </c>
       <c r="J39" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="185" t="s">
+      <c r="K39" s="186" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="186"/>
-      <c r="M39" s="187" t="s">
+      <c r="L39" s="187"/>
+      <c r="M39" s="188" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="186"/>
+      <c r="N39" s="187"/>
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
@@ -12330,17 +12339,17 @@
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="188"/>
-      <c r="B40" s="188"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="188"/>
+      <c r="D40" s="189"/>
       <c r="E40" s="181"/>
       <c r="F40" s="181"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
       <c r="J40" s="177"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
@@ -12357,7 +12366,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="188"/>
+      <c r="P40" s="189"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E89492-8B9A-7343-9C93-34C8CC6CB465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F8556-3C60-4F43-A679-560F8964B37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -20,11 +20,13 @@
     <sheet name="post_input" sheetId="37" r:id="rId5"/>
     <sheet name="post_output" sheetId="38" r:id="rId6"/>
     <sheet name="post_error" sheetId="39" r:id="rId7"/>
-    <sheet name="readme" sheetId="17" r:id="rId8"/>
-    <sheet name="config" sheetId="3" r:id="rId9"/>
+    <sheet name="put_input" sheetId="40" r:id="rId8"/>
+    <sheet name="put_output" sheetId="41" r:id="rId9"/>
+    <sheet name="readme" sheetId="17" r:id="rId10"/>
+    <sheet name="config" sheetId="3" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="isImport">config!$E$5:$E$6</definedName>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="246">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2513,6 +2515,9 @@
   <si>
     <t>/hoge/{get_sample}/fuga/{field_2}/boge</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PUT</t>
   </si>
 </sst>
 </file>
@@ -3668,88 +3673,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3761,6 +3688,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3769,6 +3699,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3800,6 +3736,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3809,22 +3751,73 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3834,8 +3827,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3846,8 +3851,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4442,152 +4447,152 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="162" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="130" t="s">
+      <c r="B6" s="174"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="130"/>
+      <c r="E6" s="171"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="162" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130" t="s">
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="171" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="130"/>
+      <c r="E7" s="171"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="171" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="130"/>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="162" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="171" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="130"/>
+      <c r="E9" s="171"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="171" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="130"/>
+      <c r="E11" s="171"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="133" t="s">
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="133"/>
+      <c r="E12" s="151"/>
       <c r="F12" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132" t="s">
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="150" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="133"/>
+      <c r="E13" s="151"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="134" t="s">
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="133"/>
+      <c r="E14" s="151"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="151"/>
       <c r="F15" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="151"/>
       <c r="F16" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="152" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="137"/>
       <c r="D18" s="90" t="s">
         <v>137</v>
       </c>
@@ -4607,15 +4612,15 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="170" t="s">
+      <c r="A20" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="172"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="149"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
@@ -4659,28 +4664,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -4691,12 +4696,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="157"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4707,12 +4712,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="158"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="158"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -4723,12 +4728,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="108"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="159"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -4741,28 +4746,28 @@
       <c r="C30"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="95"/>
@@ -4775,14 +4780,14 @@
       <c r="A33" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="145" t="s">
+      <c r="B33" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -4793,12 +4798,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="107"/>
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="166"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="166"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -4809,12 +4814,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="108"/>
-      <c r="B35" s="147"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
+      <c r="B35" s="167"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -4839,28 +4844,28 @@
       <c r="M36"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="166" t="s">
+      <c r="A37" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="168"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="145"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="144" t="s">
+      <c r="B38" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="164"/>
       <c r="H38" s="95"/>
       <c r="I38" s="95"/>
       <c r="J38" s="95"/>
@@ -4871,12 +4876,12 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="106"/>
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
-      <c r="D39" s="148"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
+      <c r="B39" s="157"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="157"/>
+      <c r="E39" s="157"/>
+      <c r="F39" s="157"/>
+      <c r="G39" s="168"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -4887,12 +4892,12 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="107"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="151"/>
+      <c r="B40" s="158"/>
+      <c r="C40" s="158"/>
+      <c r="D40" s="158"/>
+      <c r="E40" s="158"/>
+      <c r="F40" s="158"/>
+      <c r="G40" s="169"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -4903,12 +4908,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="108"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="153"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="170"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -4934,15 +4939,15 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="169" t="s">
+      <c r="A43" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="B43" s="169"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="169"/>
-      <c r="E43" s="169"/>
-      <c r="F43" s="169"/>
-      <c r="G43" s="169"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="146"/>
+      <c r="D43" s="146"/>
+      <c r="E43" s="146"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="146"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="105" t="s">
@@ -5058,231 +5063,289 @@
       <c r="F49" s="5"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="157" t="s">
+      <c r="A50" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="159"/>
-      <c r="C50" s="157" t="s">
+      <c r="B50" s="133"/>
+      <c r="C50" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="158"/>
-      <c r="E50" s="159"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="133"/>
       <c r="F50" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="154"/>
-      <c r="B51" s="156"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="155"/>
-      <c r="E51" s="156"/>
+      <c r="A51" s="138"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="160"/>
+      <c r="E51" s="139"/>
       <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="138"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="140"/>
+      <c r="A52" s="129"/>
+      <c r="B52" s="130"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="130"/>
       <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="138"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="140"/>
+      <c r="A53" s="129"/>
+      <c r="B53" s="130"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="161"/>
+      <c r="E53" s="130"/>
       <c r="F53" s="43"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="138"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="140"/>
+      <c r="A54" s="129"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="130"/>
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="138"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="139"/>
-      <c r="E55" s="140"/>
+      <c r="A55" s="129"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="130"/>
       <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="138"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="140"/>
+      <c r="A56" s="129"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="130"/>
       <c r="F56" s="43"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="138"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="138"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="140"/>
+      <c r="A57" s="129"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="130"/>
       <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="138"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="140"/>
+      <c r="A58" s="129"/>
+      <c r="B58" s="130"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="130"/>
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="138"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="140"/>
+      <c r="A59" s="129"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="130"/>
       <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="138"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="140"/>
+      <c r="A60" s="129"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="130"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="138"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="139"/>
-      <c r="E61" s="140"/>
+      <c r="A61" s="129"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="130"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="138"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="140"/>
+      <c r="A62" s="129"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="161"/>
+      <c r="E62" s="130"/>
       <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="138"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
+      <c r="A63" s="129"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="130"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="138"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="140"/>
+      <c r="A64" s="129"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="161"/>
+      <c r="E64" s="130"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="138"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
+      <c r="A65" s="129"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="161"/>
+      <c r="E65" s="130"/>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="138"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="139"/>
-      <c r="E66" s="140"/>
+      <c r="A66" s="129"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="130"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="138"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="140"/>
+      <c r="A67" s="129"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="161"/>
+      <c r="E67" s="130"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="138"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="140"/>
+      <c r="A68" s="129"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="161"/>
+      <c r="E68" s="130"/>
       <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="138"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="140"/>
+      <c r="A69" s="129"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="129"/>
+      <c r="D69" s="161"/>
+      <c r="E69" s="130"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="138"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="139"/>
-      <c r="E70" s="140"/>
+      <c r="A70" s="129"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="161"/>
+      <c r="E70" s="130"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="138"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="139"/>
-      <c r="E71" s="140"/>
+      <c r="A71" s="129"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="161"/>
+      <c r="E71" s="130"/>
       <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="138"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="139"/>
-      <c r="E72" s="140"/>
+      <c r="A72" s="129"/>
+      <c r="B72" s="130"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="161"/>
+      <c r="E72" s="130"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="138"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="139"/>
-      <c r="E73" s="140"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="130"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="138"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="139"/>
-      <c r="E74" s="140"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="130"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="130"/>
       <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="141"/>
-      <c r="B75" s="143"/>
-      <c r="C75" s="141"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="143"/>
+      <c r="A75" s="155"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="155"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="156"/>
       <c r="F75" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A18:C18"/>
@@ -5299,74 +5362,16 @@
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5394,6 +5399,490 @@
       </x14:dataValidations>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="C16" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="126"/>
+      <c r="H7" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5578,10 +6067,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -5591,20 +6080,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="150" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="151"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
@@ -5660,28 +6149,28 @@
       <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="165"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
@@ -5698,12 +6187,12 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="106"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -5720,12 +6209,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="107"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -5742,12 +6231,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="108"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -5766,28 +6255,28 @@
       <c r="C28"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
@@ -5806,14 +6295,14 @@
       <c r="A31" s="106">
         <v>1</v>
       </c>
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -5830,12 +6319,12 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="107"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -5852,12 +6341,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="108"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -5894,28 +6383,28 @@
       <c r="S34"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="168"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
     </row>
     <row r="36" spans="1:21">
       <c r="A36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
@@ -5932,12 +6421,12 @@
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="106"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="149"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="168"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -5954,12 +6443,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="107"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="169"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -5976,12 +6465,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="108"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="153"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="170"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -6054,16 +6543,16 @@
       <c r="B43" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="178" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="180" t="s">
+      <c r="E43" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="180" t="s">
+      <c r="F43" s="181" t="s">
         <v>171</v>
       </c>
       <c r="G43" s="176" t="s">
@@ -6075,13 +6564,13 @@
       <c r="I43" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="180" t="s">
+      <c r="J43" s="181" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="180" t="s">
+      <c r="K43" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="179" t="s">
+      <c r="L43" s="184" t="s">
         <v>225</v>
       </c>
       <c r="M43" s="176" t="s">
@@ -6090,14 +6579,14 @@
       <c r="N43" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="O43" s="183" t="s">
+      <c r="O43" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="P43" s="184"/>
-      <c r="Q43" s="183" t="s">
+      <c r="P43" s="180"/>
+      <c r="Q43" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="184"/>
+      <c r="R43" s="180"/>
       <c r="S43" s="32" t="s">
         <v>69</v>
       </c>
@@ -6106,20 +6595,20 @@
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="178"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="181"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="177"/>
-      <c r="M44" s="178"/>
-      <c r="N44" s="177"/>
+      <c r="A44" s="177"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="183"/>
       <c r="O44" s="27" t="s">
         <v>74</v>
       </c>
@@ -6135,7 +6624,7 @@
       <c r="S44" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T44" s="178"/>
+      <c r="T44" s="177"/>
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="7">
@@ -6757,6 +7246,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A23:G23"/>
@@ -6773,25 +7281,6 @@
     <mergeCell ref="F43:F44"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B36:G36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -6984,10 +7473,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -6997,10 +7486,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="189" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -7026,28 +7515,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -7059,12 +7548,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -7076,12 +7565,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -7093,12 +7582,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -7114,29 +7603,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -7151,14 +7640,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -7172,14 +7661,14 @@
       <c r="A26" s="107">
         <v>2</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="166" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -7191,12 +7680,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -7225,29 +7714,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -7260,12 +7749,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -7278,12 +7767,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="169"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -7295,12 +7784,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -7353,31 +7842,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="181" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="180" t="s">
+      <c r="D37" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="181" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -7394,23 +7883,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="180" t="s">
+      <c r="P37" s="181" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="189"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="185"/>
+      <c r="B38" s="185"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="177"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="183"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -7426,7 +7915,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="189"/>
+      <c r="P38" s="185"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -7924,19 +8413,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J37:J38"/>
@@ -7953,6 +8429,19 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8162,10 +8651,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -8175,10 +8664,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="151"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -8204,28 +8693,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -8237,12 +8726,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -8254,12 +8743,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -8271,12 +8760,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -8292,29 +8781,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -8329,14 +8818,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -8348,12 +8837,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -8365,12 +8854,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -8399,29 +8888,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -8434,12 +8923,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -8452,12 +8941,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -8469,12 +8958,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -8527,25 +9016,25 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="181" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="180" t="s">
+      <c r="G39" s="181" t="s">
         <v>136</v>
       </c>
       <c r="H39" s="190" t="s">
@@ -8568,23 +9057,23 @@
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="P39" s="181" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -8600,7 +9089,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="185"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -9056,6 +9545,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -9072,19 +9574,6 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -9132,7 +9621,7 @@
   </sheetPr>
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -9306,10 +9795,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="151"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -9319,20 +9808,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="150" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="151"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
@@ -9390,28 +9879,28 @@
       <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="169" t="s">
+      <c r="A23" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="165"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
@@ -9429,12 +9918,12 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="106"/>
-      <c r="B25" s="148"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -9452,12 +9941,12 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="107"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="150"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -9475,12 +9964,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="108"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -9500,28 +9989,28 @@
       <c r="C28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
@@ -9541,14 +10030,14 @@
       <c r="A31" s="106">
         <v>1</v>
       </c>
-      <c r="B31" s="145" t="s">
+      <c r="B31" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -9566,12 +10055,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="107"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -9589,12 +10078,12 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="108"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -9633,28 +10122,28 @@
       <c r="T34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="166" t="s">
+      <c r="A35" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="168"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
@@ -9672,12 +10161,12 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="106"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="149"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="168"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -9695,12 +10184,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="107"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="150"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="169"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -9718,12 +10207,12 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="108"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="153"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="170"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -9799,16 +10288,16 @@
       <c r="B43" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="182" t="s">
+      <c r="C43" s="178" t="s">
         <v>1</v>
       </c>
       <c r="D43" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="180" t="s">
+      <c r="E43" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="180" t="s">
+      <c r="F43" s="181" t="s">
         <v>171</v>
       </c>
       <c r="G43" s="176" t="s">
@@ -9820,13 +10309,13 @@
       <c r="I43" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="180" t="s">
+      <c r="J43" s="181" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="180" t="s">
+      <c r="K43" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="179" t="s">
+      <c r="L43" s="184" t="s">
         <v>225</v>
       </c>
       <c r="M43" s="176" t="s">
@@ -9838,14 +10327,14 @@
       <c r="O43" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P43" s="183" t="s">
+      <c r="P43" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="184"/>
-      <c r="R43" s="183" t="s">
+      <c r="Q43" s="180"/>
+      <c r="R43" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="184"/>
+      <c r="S43" s="180"/>
       <c r="T43" s="32" t="s">
         <v>69</v>
       </c>
@@ -9854,21 +10343,21 @@
       </c>
     </row>
     <row r="44" spans="1:22">
-      <c r="A44" s="178"/>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="181"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="177"/>
-      <c r="M44" s="178"/>
-      <c r="N44" s="178"/>
-      <c r="O44" s="177"/>
+      <c r="A44" s="177"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="183"/>
       <c r="P44" s="27" t="s">
         <v>74</v>
       </c>
@@ -9884,7 +10373,7 @@
       <c r="T44" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U44" s="178"/>
+      <c r="U44" s="177"/>
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="7">
@@ -10526,6 +11015,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -10538,30 +11051,6 @@
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -10619,7 +11108,7 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10754,10 +11243,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="151"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -10767,10 +11256,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -10796,28 +11285,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -10829,12 +11318,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -10846,12 +11335,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -10863,12 +11352,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -10884,29 +11373,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -10921,14 +11410,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -10940,12 +11429,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -10957,12 +11446,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -10991,29 +11480,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -11026,12 +11515,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -11044,12 +11533,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="169"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -11061,12 +11550,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="170"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -11119,31 +11608,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="181" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="180" t="s">
+      <c r="D37" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="181" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="181" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="181" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -11160,23 +11649,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="180" t="s">
+      <c r="P37" s="181" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="189"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="185"/>
+      <c r="B38" s="185"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="177"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="183"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -11192,7 +11681,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="189"/>
+      <c r="P38" s="185"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -11690,6 +12179,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -11702,23 +12208,6 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11928,10 +12417,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="151" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="151"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -11941,10 +12430,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="151" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="151"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -11970,28 +12459,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -12003,12 +12492,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -12020,12 +12509,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="158"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="158"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="158"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -12037,12 +12526,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -12058,29 +12547,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -12095,14 +12584,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -12114,12 +12603,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="166"/>
+      <c r="E28" s="166"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -12131,12 +12620,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -12165,29 +12654,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="145"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="C32" s="164"/>
+      <c r="D32" s="164"/>
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -12200,12 +12689,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="157"/>
+      <c r="C33" s="157"/>
+      <c r="D33" s="157"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="168"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -12218,12 +12707,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="158"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="169"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -12235,12 +12724,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="170"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -12293,25 +12782,25 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="181" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="181" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="180" t="s">
+      <c r="G39" s="181" t="s">
         <v>136</v>
       </c>
       <c r="H39" s="190" t="s">
@@ -12334,23 +12823,23 @@
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="P39" s="181" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
+      <c r="A40" s="185"/>
+      <c r="B40" s="185"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="183"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -12366,7 +12855,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="185"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -12822,6 +13311,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -12834,23 +13340,6 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12892,485 +13381,2643 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0DF1EF-2BB3-4A44-BE64-A9BC6F90CA89}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="35" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="35"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="14" width="22.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="43.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="9.83203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.83203125" style="1"/>
+    <col min="33" max="33" width="9.1640625" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="19">
+    <row r="1" spans="1:19" ht="19">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:19">
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="C16" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="C33" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="C34" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="C48" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="C56" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" s="35" t="s">
-        <v>88</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="117" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPlainSamplePutRequest</v>
+      </c>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="114"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="110" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="115"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="151"/>
+      <c r="E17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="151"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="111"/>
+      <c r="C19" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="151"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="113"/>
+      <c r="C20" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="141"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="95"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="101"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="106"/>
+      <c r="B25" s="157"/>
+      <c r="C25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="107"/>
+      <c r="B26" s="158"/>
+      <c r="C26" s="158"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="108"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="106">
+        <v>1</v>
+      </c>
+      <c r="B31" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="165"/>
+      <c r="D31" s="165"/>
+      <c r="E31" s="165"/>
+      <c r="F31" s="165"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="107"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="108"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="145"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="106"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="107"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="108"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="6"/>
+      <c r="N41" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="5"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="I43" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="J43" s="181" t="s">
+        <v>238</v>
+      </c>
+      <c r="K43" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="L43" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="M43" s="176" t="s">
+        <v>225</v>
+      </c>
+      <c r="N43" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="O43" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="P43" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q43" s="180"/>
+      <c r="R43" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="180"/>
+      <c r="T43" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="U43" s="176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="177"/>
+      <c r="B44" s="177"/>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="182"/>
+      <c r="K44" s="182"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="183"/>
+      <c r="P44" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q44" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="R44" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="T44" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="U44" s="177"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="7">
+        <v>1</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M45" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="N45" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="28">
+        <v>10</v>
+      </c>
+      <c r="R45" s="23"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="10">
+        <f t="shared" ref="A46:A51" si="0">A45+1</f>
+        <v>2</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="O46" s="24"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="20">
+        <v>0</v>
+      </c>
+      <c r="S46" s="29">
+        <v>100</v>
+      </c>
+      <c r="T46" s="29"/>
+      <c r="U46" s="12"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="25"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O47" s="24"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="14"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F48" s="73"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O48" s="24"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="14"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="25"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O50" s="24"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="14"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O51" s="24"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="14"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="10"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="120"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="14"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="10"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="120"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="30"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="30"/>
+      <c r="T53" s="30"/>
+      <c r="U53" s="14"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="10"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="14"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="10"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="14"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="10"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="14"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="10"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="14"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="10"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="14"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="10"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="14"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="10"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="14"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="10"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="120"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="14"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="10"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="14"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="10"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="120"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="14"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="10"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="120"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="14"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="10"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="120"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="14"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="10"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="120"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="14"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="10"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="14"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="15"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="120"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="31"/>
+      <c r="T68" s="31"/>
+      <c r="U68" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait"/>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{D0C5B0D4-5469-6144-B5D6-F01B114C5829}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21" xr:uid="{05C8570F-5C8D-D042-A4D5-6D669C8E7927}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O45:O68" xr:uid="{70B56FB3-0B4F-984A-ACAD-A75D69916C72}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N45:N68" xr:uid="{EA4DA1A2-9652-4749-AC1A-5FC9AD1A8C7A}">
+      <formula1>path</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{30C4E272-9731-894E-A94E-15E89FC79F49}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G45:G68</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{77FCF7A3-3536-BC4B-8BA9-4349B93D5937}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{C1DF2CC5-0D74-E445-8E5B-02C9AEA02E95}">
+          <x14:formula1>
+            <xm:f>config!$D$5:$D$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C12</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA7B847-3DD6-9843-8999-61A16E08E769}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B25" sqref="B25:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="1"/>
+    <col min="28" max="28" width="9.1640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:15" ht="19">
       <c r="A1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="38" t="s">
+    <row r="2" spans="1:15">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="119" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPlainSamplePutResponse</v>
+      </c>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="39" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="74" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="85"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="151"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="106"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="107"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="108"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="C22"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="J23" s="102"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="106">
+        <v>1</v>
+      </c>
+      <c r="B25" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="107"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="108"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28" s="102"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="106"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="107"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="108"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="102"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="6"/>
+      <c r="J35" s="102"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="49"/>
+    </row>
+    <row r="37" spans="1:17" ht="15">
+      <c r="A37" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="181" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="181" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="187"/>
+      <c r="M37" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" s="187"/>
+      <c r="O37" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" s="181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15">
+      <c r="A38" s="185"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="185"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="O38" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="185"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="55">
+        <v>1</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="55">
+        <v>2</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="59"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="55">
+        <v>3</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="62"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="55">
+        <v>4</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="66"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="55">
         <v>5</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="41" t="s">
+      <c r="B43" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="66"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="55">
         <v>6</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="3"/>
+      <c r="B44" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="66"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="55">
+        <v>7</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="66"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="55"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="66"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="55"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="66"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="55"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="66"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="55"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="66"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="55"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="66"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="55"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="66"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="55"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="66"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="55"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="66"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="55"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="66"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="55"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="66"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="55"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="66"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="55"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="66"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="55"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="66"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="55"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="66"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="55"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="66"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="55"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="66"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="67"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="72"/>
     </row>
   </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{0A93F592-B918-CB4C-814C-47230432EC84}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{54CEC7B2-F1C2-994B-8911-A1FD187F51D1}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39:J62" xr:uid="{8D246DCA-CFB9-2545-B4B6-5EB809714FFB}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C4B80BE-407E-D04E-9A8F-905C4312E93C}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G39:G62</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{9A5CF1E8-776B-A548-9BBB-9E52CD5BA360}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9F8556-3C60-4F43-A679-560F8964B37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A8C02-C945-A945-9304-31AFADAA4796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,11 +22,13 @@
     <sheet name="post_error" sheetId="39" r:id="rId7"/>
     <sheet name="put_input" sheetId="40" r:id="rId8"/>
     <sheet name="put_output" sheetId="41" r:id="rId9"/>
-    <sheet name="readme" sheetId="17" r:id="rId10"/>
-    <sheet name="config" sheetId="3" r:id="rId11"/>
+    <sheet name="delete_input" sheetId="42" r:id="rId10"/>
+    <sheet name="delete_output" sheetId="43" r:id="rId11"/>
+    <sheet name="readme" sheetId="17" r:id="rId12"/>
+    <sheet name="config" sheetId="3" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="isImport">config!$E$5:$E$6</definedName>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="250">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2518,6 +2520,33 @@
   </si>
   <si>
     <t>PUT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>配列クエリに[]をつけない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>/* 配列クエリパラメータの表現方式を param=hoge&amp;param=fuga とする。 */</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ハイレツ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">ヒョウゲン </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ホウシキヲ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配列クエリに[]をつけない</t>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -5403,498 +5432,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAA73B8-AEAF-C346-897B-DEA169A99966}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="35" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="19">
-      <c r="A1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="C16" s="35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="C18" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="C29" s="35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="C31" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="C33" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="C34" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="C36" s="35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="C38" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="C41" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="C42" s="35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="C43" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="C45" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
-      <c r="C46" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="C48" s="35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="C49" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="C51" s="35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" s="35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="35" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="B55" s="35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="C56" s="35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="24" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="19">
-      <c r="A1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="E1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="124" t="s">
-        <v>202</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G5" s="125" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="126"/>
-      <c r="H7" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="D10" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
-  <headerFooter>
-    <oddHeader>&amp;R&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:U68"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -5961,7 +5506,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="117" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
-        <v>BlancoApiPlainSampleGetRequest</v>
+        <v>BlancoApiPlainSampleDeleteRequest</v>
       </c>
       <c r="D6" s="118"/>
     </row>
@@ -5992,7 +5537,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -6058,7 +5603,7 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="33"/>
     </row>
@@ -6146,75 +5691,78 @@
       <c r="R21"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="6"/>
+      <c r="A22" s="112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="105" t="s">
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B25" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="106"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="107"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -6230,13 +5778,13 @@
       <c r="U26"/>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="108"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -6252,79 +5800,79 @@
       <c r="U27"/>
     </row>
     <row r="28" spans="1:21">
-      <c r="C28"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="143" t="s">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="105" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B31" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="T30" s="101"/>
-      <c r="U30" s="101"/>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="106">
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B31" s="165" t="s">
+      <c r="B32" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="107"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -6340,13 +5888,13 @@
       <c r="U32"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="108"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -6362,93 +5910,93 @@
       <c r="U33"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
       <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="143" t="s">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="105" t="s">
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="164" t="s">
+      <c r="B37" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="106"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="107"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="169"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="168"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -6464,13 +6012,13 @@
       <c r="U38"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="108"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="170"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="169"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -6486,292 +6034,277 @@
       <c r="U39"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
       <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="6"/>
-      <c r="M41" s="1" t="s">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="6"/>
+      <c r="M42" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:21">
+      <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="5"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="176" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="178" t="s">
+      <c r="C44" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="181" t="s">
+      <c r="E44" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="181" t="s">
+      <c r="F44" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="176" t="s">
+      <c r="G44" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="176" t="s">
+      <c r="H44" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="176" t="s">
+      <c r="I44" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="181" t="s">
+      <c r="J44" s="181" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="181" t="s">
+      <c r="K44" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="184" t="s">
+      <c r="L44" s="184" t="s">
         <v>225</v>
       </c>
-      <c r="M43" s="176" t="s">
+      <c r="M44" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="N43" s="176" t="s">
+      <c r="N44" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="O43" s="179" t="s">
+      <c r="O44" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="P43" s="180"/>
-      <c r="Q43" s="179" t="s">
+      <c r="P44" s="180"/>
+      <c r="Q44" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="180"/>
-      <c r="S43" s="32" t="s">
+      <c r="R44" s="180"/>
+      <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="T43" s="176" t="s">
+      <c r="T44" s="176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="177"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
-      <c r="L44" s="183"/>
-      <c r="M44" s="177"/>
-      <c r="N44" s="183"/>
-      <c r="O44" s="27" t="s">
+    <row r="45" spans="1:21">
+      <c r="A45" s="177"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="183"/>
+      <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="P44" s="27" t="s">
+      <c r="P45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q45" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="R44" s="27" t="s">
+      <c r="R45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T44" s="177"/>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="7">
+      <c r="T45" s="177"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="7">
         <v>1</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D46" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="75" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23" t="s">
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M45" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23">
-        <v>0</v>
-      </c>
-      <c r="P45" s="28">
-        <v>10</v>
-      </c>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="9"/>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" s="10">
-        <f t="shared" ref="A46:A51" si="0">A45+1</f>
-        <v>2</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
       <c r="M46" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="N46" s="24"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="20">
+      <c r="N46" s="23"/>
+      <c r="O46" s="23">
         <v>0</v>
       </c>
-      <c r="R46" s="29">
-        <v>100</v>
-      </c>
-      <c r="S46" s="29"/>
-      <c r="T46" s="12"/>
+      <c r="P46" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="9"/>
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="77" t="s">
+        <f t="shared" ref="A47:A52" si="0">A46+1</f>
+        <v>2</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="H47" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
       <c r="M47" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="N47" s="24" t="s">
-        <v>137</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N47" s="24"/>
       <c r="O47" s="20"/>
       <c r="P47" s="29"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="29"/>
+      <c r="Q47" s="20">
+        <v>0</v>
+      </c>
+      <c r="R47" s="29">
+        <v>100</v>
+      </c>
       <c r="S47" s="29"/>
-      <c r="T47" s="14"/>
+      <c r="T47" s="12"/>
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
+        <v>105</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="N48" s="24"/>
+      <c r="N48" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="O48" s="20"/>
       <c r="P48" s="29"/>
       <c r="Q48" s="20"/>
@@ -6782,49 +6315,55 @@
     <row r="49" spans="1:20">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="120"/>
+      <c r="E49" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="O49" s="20"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="14"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="F50" s="25"/>
       <c r="G50" s="77"/>
       <c r="H50" s="25"/>
@@ -6834,24 +6373,26 @@
       <c r="L50" s="25"/>
       <c r="M50" s="120"/>
       <c r="N50" s="24"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="14"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="25" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -6871,10 +6412,17 @@
       <c r="T51" s="14"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="10"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="77"/>
@@ -6907,11 +6455,11 @@
       <c r="L53" s="25"/>
       <c r="M53" s="120"/>
       <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
       <c r="T53" s="14"/>
     </row>
     <row r="54" spans="1:20">
@@ -6929,11 +6477,11 @@
       <c r="L54" s="25"/>
       <c r="M54" s="120"/>
       <c r="N54" s="24"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="29"/>
-      <c r="S54" s="29"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
       <c r="T54" s="14"/>
     </row>
     <row r="55" spans="1:20">
@@ -7039,11 +6587,11 @@
       <c r="L59" s="25"/>
       <c r="M59" s="120"/>
       <c r="N59" s="24"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
       <c r="T59" s="14"/>
     </row>
     <row r="60" spans="1:20">
@@ -7061,11 +6609,11 @@
       <c r="L60" s="25"/>
       <c r="M60" s="120"/>
       <c r="N60" s="24"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
       <c r="T60" s="14"/>
     </row>
     <row r="61" spans="1:20">
@@ -7149,11 +6697,11 @@
       <c r="L64" s="25"/>
       <c r="M64" s="120"/>
       <c r="N64" s="24"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
       <c r="T64" s="14"/>
     </row>
     <row r="65" spans="1:20">
@@ -7171,11 +6719,11 @@
       <c r="L65" s="25"/>
       <c r="M65" s="120"/>
       <c r="N65" s="24"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="29"/>
-      <c r="S65" s="29"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
       <c r="T65" s="14"/>
     </row>
     <row r="66" spans="1:20">
@@ -7215,85 +6763,3212 @@
       <c r="L67" s="25"/>
       <c r="M67" s="120"/>
       <c r="N67" s="24"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
       <c r="T67" s="14"/>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" s="15"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
       <c r="M68" s="120"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="17"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="14"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="15"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B40:G40"/>
     <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="T44:T45"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M46:M69" xr:uid="{0F41110A-BE35-6541-AA44-1B43FB3DC930}">
+      <formula1>path</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46:N69" xr:uid="{0EC1D89D-9F70-A04F-9686-9B6F563CCF19}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22" xr:uid="{61B9C78E-9202-B247-B0B5-4BCED01CD7FF}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{0C87BFF8-8708-8E45-833F-1F38E42786BC}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{95AAEDAC-317D-F146-8F2D-4A7C55D0D7DE}">
+          <x14:formula1>
+            <xm:f>config!$D$5:$D$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{F3098132-D6B3-BD47-9A8E-751C00115B6D}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{91FBF888-A759-8946-BEFE-6A1EAB1423A9}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G46:G69</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FE8F86-BE59-5E48-9D66-8468DBA1A860}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="1" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="43.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.33203125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" style="1"/>
+    <col min="28" max="28" width="9.1640625" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="119" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPlainSampleDeleteResponse</v>
+      </c>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="85"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" customHeight="1">
+      <c r="A14" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="189" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="151"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="113"/>
+      <c r="C15" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="106"/>
+      <c r="B19" s="157"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="107"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="108"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="C22"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="145"/>
+      <c r="J23" s="102"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="164"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="106">
+        <v>1</v>
+      </c>
+      <c r="B25" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="165"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="107">
+        <v>2</v>
+      </c>
+      <c r="B26" s="166" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="108"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28" s="102"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="145"/>
+      <c r="J29" s="102"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="164"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="106"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="107"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="158"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="108"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="102"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="6"/>
+      <c r="J35" s="102"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="48"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="49"/>
+    </row>
+    <row r="37" spans="1:17" ht="15">
+      <c r="A37" s="181" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G37" s="181" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="181" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" s="181" t="s">
+        <v>230</v>
+      </c>
+      <c r="J37" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="K37" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="187"/>
+      <c r="M37" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" s="187"/>
+      <c r="O37" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="P37" s="181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15">
+      <c r="A38" s="185"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="185"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="L38" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="N38" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="O38" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="P38" s="185"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="55">
+        <v>1</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="55">
+        <v>2</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="56"/>
+      <c r="P40" s="59"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="55">
+        <v>3</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="62"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="55">
+        <v>4</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="66"/>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="55">
+        <v>5</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="66"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="55">
+        <v>6</v>
+      </c>
+      <c r="B44" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="66"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="55">
+        <v>7</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="64"/>
+      <c r="D45" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="66"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="55"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="66"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="55"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
+      <c r="P47" s="66"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="55"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="66"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="55"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="82"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="66"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="55"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="66"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="55"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="66"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="55"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="56"/>
+      <c r="L52" s="56"/>
+      <c r="M52" s="56"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="66"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="55"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="82"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="58"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="58"/>
+      <c r="P53" s="66"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="55"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="82"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="56"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="56"/>
+      <c r="P54" s="66"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="55"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="56"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="56"/>
+      <c r="P55" s="66"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="55"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="56"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="56"/>
+      <c r="P56" s="66"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="55"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="56"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="66"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="55"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="66"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="55"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="82"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="56"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="56"/>
+      <c r="P59" s="66"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="55"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="82"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="56"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="66"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="55"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="58"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="66"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="67"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="70"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="70"/>
+      <c r="I62" s="70"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
+      <c r="O62" s="71"/>
+      <c r="P62" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39:J62" xr:uid="{D651EAE3-EB00-3D4C-8EEA-642031E743E4}">
+      <formula1>isNullable</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{80387F0F-90DF-BA47-9A8C-86FF5E80D34D}">
+      <formula1>isImport</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{02DEF6A3-0024-504D-BD45-F01ABDE32FB4}">
+      <formula1>Validate実装パターン</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{6DACCFCF-35E3-CF4C-BDB9-ED2AAD9FE3F9}">
+          <x14:formula1>
+            <xm:f>config!$C$5:$C$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>C9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95A6B471-E0BB-9640-8F40-66A2BBD68522}">
+          <x14:formula1>
+            <xm:f>config!$B$5:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G39:G62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="C16" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="C29" s="35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="C31" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="C33" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="C34" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="C36" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="C38" s="35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="C40" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="C41" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="C42" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="C43" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="C45" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="C46" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="B50" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="C52" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" s="35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="24" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="E1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="124" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="126"/>
+      <c r="H7" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="C8" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="D10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.11811023622047245"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N ページ&amp;R&amp;D&amp;  &amp;T</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:U69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="13" width="22.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="43.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="6.1640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.1640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="18.83203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="9.83203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="1"/>
+    <col min="32" max="32" width="9.1640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="19">
+      <c r="A1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="117" t="str">
+        <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
+        <v>BlancoApiPlainSampleGetRequest</v>
+      </c>
+      <c r="D6" s="118"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="R7"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="110" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="114"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="115"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="46" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="111" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="151"/>
+      <c r="E17" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="151" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" s="151"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="111"/>
+      <c r="C19" s="150" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="151"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="112" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="113"/>
+      <c r="C20" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="112" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="90"/>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="146" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="106"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="107"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="108"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="143" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="164" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="106">
+        <v>1</v>
+      </c>
+      <c r="B32" s="165" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="107"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="108"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="143" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="164" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="T37" s="101"/>
+      <c r="U37" s="101"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="106"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="107"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="108"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="6"/>
+      <c r="M42" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="176" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="181" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G44" s="176" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="176" t="s">
+        <v>113</v>
+      </c>
+      <c r="I44" s="176" t="s">
+        <v>237</v>
+      </c>
+      <c r="J44" s="181" t="s">
+        <v>238</v>
+      </c>
+      <c r="K44" s="181" t="s">
+        <v>208</v>
+      </c>
+      <c r="L44" s="184" t="s">
+        <v>225</v>
+      </c>
+      <c r="M44" s="176" t="s">
+        <v>222</v>
+      </c>
+      <c r="N44" s="176" t="s">
+        <v>190</v>
+      </c>
+      <c r="O44" s="179" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="179" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="180"/>
+      <c r="S44" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="T44" s="176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="177"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="183"/>
+      <c r="O45" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="S45" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="T45" s="177"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="7">
+        <v>1</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M46" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23">
+        <v>0</v>
+      </c>
+      <c r="P46" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="9"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="10">
+        <f t="shared" ref="A47:A52" si="0">A46+1</f>
+        <v>2</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="N47" s="24"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="20">
+        <v>0</v>
+      </c>
+      <c r="R47" s="29">
+        <v>100</v>
+      </c>
+      <c r="S47" s="29"/>
+      <c r="T47" s="12"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O48" s="20"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="14"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O49" s="20"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="14"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="25"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="120"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="14"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="120"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="14"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" s="10"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="120"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="14"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" s="10"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="14"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" s="10"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="14"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" s="10"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="14"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" s="10"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="14"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" s="10"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="14"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" s="10"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="14"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" s="10"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="14"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" s="10"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="120"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="14"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" s="10"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="14"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" s="10"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="120"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="14"/>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64" s="10"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="120"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="14"/>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65" s="10"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="120"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="14"/>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66" s="10"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="120"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="14"/>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67" s="10"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="120"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="14"/>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68" s="10"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="120"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="14"/>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69" s="15"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="120"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="31"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="T43:T44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
     <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22" xr:uid="{CFFA7773-4692-1A4F-AFD8-DE5759D4A959}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N45:N68" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46:N69" xr:uid="{155C00D3-4072-D445-8D9E-81416AE5A4E4}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M45:M68" xr:uid="{FBF4941F-B3C7-154E-A998-884BA063A37C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M46:M69" xr:uid="{FBF4941F-B3C7-154E-A998-884BA063A37C}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -7310,7 +9985,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G45:G68</xm:sqref>
+          <xm:sqref>G46:G69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
@@ -7338,7 +10013,7 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9621,8 +12296,8 @@
   </sheetPr>
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10519,7 +13194,9 @@
       <c r="K48" s="73"/>
       <c r="L48" s="73"/>
       <c r="M48" s="73"/>
-      <c r="N48" s="120"/>
+      <c r="N48" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O48" s="24"/>
       <c r="P48" s="20"/>
       <c r="Q48" s="29"/>
@@ -13385,10 +16062,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -13642,77 +16319,79 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="6"/>
+      <c r="A22" s="112" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="105" t="s">
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B25" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="106"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="107"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -13729,13 +16408,13 @@
       <c r="V26"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="108"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -13752,81 +16431,81 @@
       <c r="V27"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="C28"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="143" t="s">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="105" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B31" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="106">
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B31" s="165" t="s">
+      <c r="B32" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="107"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -13843,13 +16522,13 @@
       <c r="V32"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="108"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -13866,96 +16545,96 @@
       <c r="V33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
       <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="143" t="s">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="105" t="s">
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="164" t="s">
+      <c r="B37" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="106"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="107"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="169"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="168"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -13972,13 +16651,13 @@
       <c r="V38"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="108"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="170"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="169"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -13995,296 +16674,281 @@
       <c r="V39"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
       <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="6"/>
-      <c r="N41" s="1" t="s">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="6"/>
+      <c r="N42" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:22">
+      <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="5"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="176" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="178" t="s">
+      <c r="C44" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="181" t="s">
+      <c r="E44" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="181" t="s">
+      <c r="F44" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="176" t="s">
+      <c r="G44" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="176" t="s">
+      <c r="H44" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="176" t="s">
+      <c r="I44" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="181" t="s">
+      <c r="J44" s="181" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="181" t="s">
+      <c r="K44" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="184" t="s">
+      <c r="L44" s="184" t="s">
         <v>225</v>
       </c>
-      <c r="M43" s="176" t="s">
+      <c r="M44" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="N43" s="176" t="s">
+      <c r="N44" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="O43" s="176" t="s">
+      <c r="O44" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P43" s="179" t="s">
+      <c r="P44" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="179" t="s">
+      <c r="Q44" s="180"/>
+      <c r="R44" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="180"/>
-      <c r="T43" s="32" t="s">
+      <c r="S44" s="180"/>
+      <c r="T44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U43" s="176" t="s">
+      <c r="U44" s="176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="177"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
-      <c r="L44" s="183"/>
-      <c r="M44" s="177"/>
-      <c r="N44" s="177"/>
-      <c r="O44" s="183"/>
-      <c r="P44" s="27" t="s">
+    <row r="45" spans="1:22">
+      <c r="A45" s="177"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="177"/>
+      <c r="O45" s="183"/>
+      <c r="P45" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R44" s="27" t="s">
+      <c r="R45" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T44" s="27" t="s">
+      <c r="T45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U44" s="177"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="7">
+      <c r="U45" s="177"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="7">
         <v>1</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D46" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="75" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23" t="s">
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="M46" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="N45" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="28">
-        <v>10</v>
-      </c>
-      <c r="R45" s="23"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="10">
-        <f t="shared" ref="A46:A51" si="0">A45+1</f>
-        <v>2</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
       <c r="N46" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="O46" s="24"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="20">
+      <c r="O46" s="23"/>
+      <c r="P46" s="23">
         <v>0</v>
       </c>
-      <c r="S46" s="29">
-        <v>100</v>
-      </c>
-      <c r="T46" s="29"/>
-      <c r="U46" s="12"/>
+      <c r="Q46" s="28">
+        <v>10</v>
+      </c>
+      <c r="R46" s="23"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="9"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
+        <f t="shared" ref="A47:A52" si="0">A46+1</f>
+        <v>2</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
       <c r="N47" s="120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="29"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="29"/>
+      <c r="R47" s="20">
+        <v>0</v>
+      </c>
+      <c r="S47" s="29">
+        <v>100</v>
+      </c>
       <c r="T47" s="29"/>
-      <c r="U47" s="14"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
       <c r="N48" s="120" t="s">
         <v>201</v>
       </c>
@@ -14299,52 +16963,58 @@
     <row r="49" spans="1:21">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+      <c r="E49" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
       <c r="N49" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="O49" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="14"/>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="F50" s="25"/>
       <c r="G50" s="77"/>
       <c r="H50" s="25"/>
@@ -14357,24 +17027,26 @@
         <v>201</v>
       </c>
       <c r="O50" s="24"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="14"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="25" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -14397,10 +17069,17 @@
       <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="10"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="77"/>
@@ -14410,7 +17089,9 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25"/>
-      <c r="N52" s="120"/>
+      <c r="N52" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O52" s="24"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="29"/>
@@ -14435,11 +17116,11 @@
       <c r="M53" s="25"/>
       <c r="N53" s="120"/>
       <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21">
@@ -14458,11 +17139,11 @@
       <c r="M54" s="25"/>
       <c r="N54" s="120"/>
       <c r="O54" s="24"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
       <c r="U54" s="14"/>
     </row>
     <row r="55" spans="1:21">
@@ -14573,11 +17254,11 @@
       <c r="M59" s="25"/>
       <c r="N59" s="120"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
       <c r="U59" s="14"/>
     </row>
     <row r="60" spans="1:21">
@@ -14596,11 +17277,11 @@
       <c r="M60" s="25"/>
       <c r="N60" s="120"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
       <c r="U60" s="14"/>
     </row>
     <row r="61" spans="1:21">
@@ -14688,11 +17369,11 @@
       <c r="M64" s="25"/>
       <c r="N64" s="120"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
       <c r="U64" s="14"/>
     </row>
     <row r="65" spans="1:21">
@@ -14711,11 +17392,11 @@
       <c r="M65" s="25"/>
       <c r="N65" s="120"/>
       <c r="O65" s="24"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
       <c r="U65" s="14"/>
     </row>
     <row r="66" spans="1:21">
@@ -14757,87 +17438,110 @@
       <c r="M67" s="25"/>
       <c r="N67" s="120"/>
       <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
       <c r="U67" s="14"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="15"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
       <c r="N68" s="120"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="17"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="14"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="15"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B33:G33"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{D0C5B0D4-5469-6144-B5D6-F01B114C5829}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21" xr:uid="{05C8570F-5C8D-D042-A4D5-6D669C8E7927}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22" xr:uid="{05C8570F-5C8D-D042-A4D5-6D669C8E7927}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O45:O68" xr:uid="{70B56FB3-0B4F-984A-ACAD-A75D69916C72}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O46:O69" xr:uid="{70B56FB3-0B4F-984A-ACAD-A75D69916C72}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N45:N68" xr:uid="{EA4DA1A2-9652-4749-AC1A-5FC9AD1A8C7A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46:N69" xr:uid="{EA4DA1A2-9652-4749-AC1A-5FC9AD1A8C7A}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -14854,7 +17558,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G45:G68</xm:sqref>
+          <xm:sqref>G46:G69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{77FCF7A3-3536-BC4B-8BA9-4349B93D5937}">
           <x14:formula1>
@@ -15970,11 +18674,6 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -15982,6 +18681,11 @@
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0A8C02-C945-A945-9304-31AFADAA4796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDDEE2-C2F7-8541-8CE4-7FA8778B5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="252">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2547,6 +2547,23 @@
   <si>
     <t>配列クエリに[]をつけない</t>
     <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>電文がOption</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>/* ペイロード電文が省略可能 */</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">デンブｎ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ショウリャク </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">カノウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -12294,10 +12311,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12551,77 +12568,80 @@
       <c r="S21"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="6"/>
+      <c r="A22" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="146" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="105" t="s">
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B25" s="140" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="101"/>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="106"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="157"/>
-      <c r="D25" s="157"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="107"/>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="157"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="157"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -12638,13 +12658,13 @@
       <c r="V26"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="108"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="158"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -12661,81 +12681,81 @@
       <c r="V27"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="C28"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="143" t="s">
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="143" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
-    </row>
-    <row r="30" spans="1:22">
-      <c r="A30" s="105" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="145"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B31" s="164" t="s">
         <v>178</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="95"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="U30" s="101"/>
-      <c r="V30" s="101"/>
-    </row>
-    <row r="31" spans="1:22">
-      <c r="A31" s="106">
+      <c r="C31" s="164"/>
+      <c r="D31" s="164"/>
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B31" s="165" t="s">
+      <c r="B32" s="165" t="s">
         <v>179</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="107"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -12752,13 +12772,13 @@
       <c r="V32"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="108"/>
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -12775,96 +12795,96 @@
       <c r="V33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
       <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="143" t="s">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="145"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="105" t="s">
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="145"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="164" t="s">
+      <c r="B37" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="164"/>
-      <c r="D36" s="164"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="164"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
-      <c r="R36" s="95"/>
-      <c r="S36" s="95"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="101"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="106"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="164"/>
+      <c r="G37" s="164"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="95"/>
+      <c r="O37" s="95"/>
+      <c r="P37" s="95"/>
+      <c r="Q37" s="95"/>
+      <c r="R37" s="95"/>
+      <c r="S37" s="95"/>
+      <c r="U37" s="101"/>
+      <c r="V37" s="101"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="107"/>
-      <c r="B38" s="158"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="158"/>
-      <c r="G38" s="169"/>
+      <c r="A38" s="106"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="G38" s="168"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -12881,13 +12901,13 @@
       <c r="V38"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="108"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="170"/>
+      <c r="A39" s="107"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="158"/>
+      <c r="F39" s="158"/>
+      <c r="G39" s="169"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -12904,296 +12924,281 @@
       <c r="V39"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
+      <c r="A40" s="108"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="102"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
       <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="6"/>
-      <c r="N41" s="1" t="s">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="6"/>
+      <c r="N42" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="4" t="s">
+    <row r="43" spans="1:22">
+      <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="5"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="176" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="109"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="5"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="176" t="s">
+      <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="178" t="s">
+      <c r="C44" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="181" t="s">
+      <c r="E44" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F43" s="181" t="s">
+      <c r="F44" s="181" t="s">
         <v>171</v>
       </c>
-      <c r="G43" s="176" t="s">
+      <c r="G44" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="176" t="s">
+      <c r="H44" s="176" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="176" t="s">
+      <c r="I44" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J43" s="181" t="s">
+      <c r="J44" s="181" t="s">
         <v>238</v>
       </c>
-      <c r="K43" s="181" t="s">
+      <c r="K44" s="181" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="184" t="s">
+      <c r="L44" s="184" t="s">
         <v>225</v>
       </c>
-      <c r="M43" s="176" t="s">
+      <c r="M44" s="176" t="s">
         <v>225</v>
       </c>
-      <c r="N43" s="176" t="s">
+      <c r="N44" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="O43" s="176" t="s">
+      <c r="O44" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P43" s="179" t="s">
+      <c r="P44" s="179" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="180"/>
-      <c r="R43" s="179" t="s">
+      <c r="Q44" s="180"/>
+      <c r="R44" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="S43" s="180"/>
-      <c r="T43" s="32" t="s">
+      <c r="S44" s="180"/>
+      <c r="T44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U43" s="176" t="s">
+      <c r="U44" s="176" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="177"/>
-      <c r="B44" s="177"/>
-      <c r="C44" s="177"/>
-      <c r="D44" s="177"/>
-      <c r="E44" s="182"/>
-      <c r="F44" s="182"/>
-      <c r="G44" s="177"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="177"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="182"/>
-      <c r="L44" s="183"/>
-      <c r="M44" s="177"/>
-      <c r="N44" s="177"/>
-      <c r="O44" s="183"/>
-      <c r="P44" s="27" t="s">
+    <row r="45" spans="1:22">
+      <c r="A45" s="177"/>
+      <c r="B45" s="177"/>
+      <c r="C45" s="177"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="182"/>
+      <c r="K45" s="182"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="177"/>
+      <c r="N45" s="177"/>
+      <c r="O45" s="183"/>
+      <c r="P45" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q44" s="27" t="s">
+      <c r="Q45" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R44" s="27" t="s">
+      <c r="R45" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S45" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T44" s="27" t="s">
+      <c r="T45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U44" s="177"/>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="7">
+      <c r="U45" s="177"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="7">
         <v>1</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B46" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D46" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="75" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23" t="s">
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M45" s="23" t="s">
+      <c r="M46" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="N45" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="28">
-        <v>10</v>
-      </c>
-      <c r="R45" s="23"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="9"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="10">
-        <f t="shared" ref="A46:A51" si="0">A45+1</f>
-        <v>2</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
       <c r="N46" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="O46" s="24"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="20">
+      <c r="O46" s="23"/>
+      <c r="P46" s="23">
         <v>0</v>
       </c>
-      <c r="S46" s="29">
-        <v>100</v>
-      </c>
-      <c r="T46" s="29"/>
-      <c r="U46" s="12"/>
+      <c r="Q46" s="28">
+        <v>10</v>
+      </c>
+      <c r="R46" s="23"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="9"/>
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" s="25"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
+        <f t="shared" ref="A47:A52" si="0">A46+1</f>
+        <v>2</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
       <c r="N47" s="120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O47" s="24"/>
       <c r="P47" s="20"/>
       <c r="Q47" s="29"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="29"/>
+      <c r="R47" s="20">
+        <v>0</v>
+      </c>
+      <c r="S47" s="29">
+        <v>100</v>
+      </c>
       <c r="T47" s="29"/>
-      <c r="U47" s="14"/>
+      <c r="U47" s="12"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="73" t="s">
+      <c r="E48" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="73"/>
-      <c r="I48" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="J48" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
       <c r="N48" s="120" t="s">
         <v>201</v>
       </c>
@@ -13208,50 +13213,56 @@
     <row r="49" spans="1:21">
       <c r="A49" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F49" s="25"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="120"/>
+      <c r="E49" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="73"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="73"/>
+      <c r="I49" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J49" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="14" t="s">
-        <v>164</v>
-      </c>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="14"/>
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E50" s="25"/>
+        <v>108</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="F50" s="25"/>
       <c r="G50" s="77"/>
       <c r="H50" s="25"/>
@@ -13262,24 +13273,26 @@
       <c r="M50" s="25"/>
       <c r="N50" s="120"/>
       <c r="O50" s="24"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="14"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="30"/>
+      <c r="T50" s="30"/>
+      <c r="U50" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="25" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="E51" s="25"/>
       <c r="F51" s="25"/>
@@ -13300,10 +13313,17 @@
       <c r="U51" s="14"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="10"/>
-      <c r="B52" s="21"/>
+      <c r="A52" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="25"/>
+      <c r="D52" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="77"/>
@@ -13338,11 +13358,11 @@
       <c r="M53" s="25"/>
       <c r="N53" s="120"/>
       <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21">
@@ -13361,11 +13381,11 @@
       <c r="M54" s="25"/>
       <c r="N54" s="120"/>
       <c r="O54" s="24"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="29"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="30"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="30"/>
+      <c r="T54" s="30"/>
       <c r="U54" s="14"/>
     </row>
     <row r="55" spans="1:21">
@@ -13476,11 +13496,11 @@
       <c r="M59" s="25"/>
       <c r="N59" s="120"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
       <c r="U59" s="14"/>
     </row>
     <row r="60" spans="1:21">
@@ -13499,11 +13519,11 @@
       <c r="M60" s="25"/>
       <c r="N60" s="120"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
       <c r="U60" s="14"/>
     </row>
     <row r="61" spans="1:21">
@@ -13591,11 +13611,11 @@
       <c r="M64" s="25"/>
       <c r="N64" s="120"/>
       <c r="O64" s="24"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
       <c r="U64" s="14"/>
     </row>
     <row r="65" spans="1:21">
@@ -13614,11 +13634,11 @@
       <c r="M65" s="25"/>
       <c r="N65" s="120"/>
       <c r="O65" s="24"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
       <c r="U65" s="14"/>
     </row>
     <row r="66" spans="1:21">
@@ -13660,84 +13680,107 @@
       <c r="M67" s="25"/>
       <c r="N67" s="120"/>
       <c r="O67" s="24"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
       <c r="U67" s="14"/>
     </row>
     <row r="68" spans="1:21">
-      <c r="A68" s="15"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="77"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
       <c r="N68" s="120"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="22"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="17"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="14"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="15"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="79"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="120"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="31"/>
+      <c r="T69" s="31"/>
+      <c r="U69" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="N43:N44"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="B33:G33"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N45:N68" xr:uid="{2DA0E2F9-CEA5-1D4F-AE50-95E1CB9320FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46:N69" xr:uid="{2DA0E2F9-CEA5-1D4F-AE50-95E1CB9320FD}">
       <formula1>path</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O45:O68" xr:uid="{A7248111-DAEF-5C48-9FF6-28E1969AA06B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O46:O69" xr:uid="{A7248111-DAEF-5C48-9FF6-28E1969AA06B}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C21" xr:uid="{4658C7EA-C894-FB4C-9A2C-FB1119DE0653}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22" xr:uid="{4658C7EA-C894-FB4C-9A2C-FB1119DE0653}">
       <formula1>isImport</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{76A3C016-F848-B042-88C4-26414904C873}">
@@ -13769,7 +13812,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G45:G68</xm:sqref>
+          <xm:sqref>G46:G69</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16064,7 +16107,7 @@
   </sheetPr>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEDDEE2-C2F7-8541-8CE4-7FA8778B5863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E93BDBC-E7C1-F54B-80C4-77C140C42331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="255">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2563,6 +2563,33 @@
     <rPh sb="13" eb="15">
       <t xml:space="preserve">カノウ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文処理定義・共通インタフェイス</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">デンブンショリテイギ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">キョウツウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ この処理のManagementクラスが実装すべき共通インタフェイス</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ショリ </t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t xml:space="preserve">ジッソウ </t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t xml:space="preserve">キョウツウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.IManagement</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3467,7 +3494,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3719,10 +3746,88 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3734,9 +3839,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3745,12 +3847,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3782,12 +3878,6 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3797,73 +3887,22 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3873,20 +3912,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3897,10 +3924,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4447,10 +4477,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4493,152 +4523,152 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="171" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="171"/>
+      <c r="E6" s="130"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="171" t="s">
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="171"/>
+      <c r="E7" s="130"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="171" t="s">
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="171"/>
+      <c r="E8" s="130"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="171" t="s">
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="171"/>
+      <c r="E9" s="130"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="171" t="s">
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="171"/>
+      <c r="E11" s="130"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="134" t="s">
+      <c r="A12" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="151" t="s">
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="151"/>
+      <c r="E12" s="133"/>
       <c r="F12" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="134" t="s">
+      <c r="A13" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="150" t="s">
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="151"/>
+      <c r="E13" s="133"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="172" t="s">
+      <c r="B14" s="131"/>
+      <c r="C14" s="131"/>
+      <c r="D14" s="134" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="151"/>
+      <c r="E14" s="133"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
       <c r="F15" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
+      <c r="E16" s="133"/>
       <c r="F16" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="136"/>
-      <c r="C18" s="137"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="162"/>
       <c r="D18" s="90" t="s">
         <v>137</v>
       </c>
@@ -4658,15 +4688,15 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="147" t="s">
+      <c r="A20" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="148"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="149"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="172"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
@@ -4710,28 +4740,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="169" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="140" t="s">
+      <c r="B26" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="142"/>
+      <c r="C26" s="164"/>
+      <c r="D26" s="164"/>
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="165"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -4742,12 +4772,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="148"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4758,12 +4788,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="158"/>
-      <c r="C28" s="158"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="158"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -4774,12 +4804,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="108"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="159"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -4789,67 +4819,70 @@
       <c r="O29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="C30"/>
+      <c r="A30" s="191"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="143" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="A31" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="105" t="s">
+      <c r="A32" s="169" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="169"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="106">
+      <c r="B33" s="163" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="164"/>
+      <c r="F33" s="164"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="106">
         <v>1</v>
       </c>
-      <c r="B33" s="165" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="107"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
+      <c r="B34" s="145" t="s">
+        <v>254</v>
+      </c>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -4859,13 +4892,13 @@
       <c r="O34"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="108"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -4875,75 +4908,67 @@
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="102"/>
       <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="143" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="145"/>
+      <c r="C37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="105" t="s">
+      <c r="A38" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="168"/>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="164" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="164"/>
-      <c r="D38" s="164"/>
-      <c r="E38" s="164"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="164"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="106"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="157"/>
-      <c r="E39" s="157"/>
-      <c r="F39" s="157"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
+      <c r="B39" s="144" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="95"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="107"/>
-      <c r="B40" s="158"/>
-      <c r="C40" s="158"/>
-      <c r="D40" s="158"/>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="169"/>
+      <c r="A40" s="106">
+        <v>1</v>
+      </c>
+      <c r="B40" s="145" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -4953,13 +4978,13 @@
       <c r="O40"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="108"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="170"/>
+      <c r="A41" s="107"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -4969,13 +4994,13 @@
       <c r="O41"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="121"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="122"/>
-      <c r="D42" s="122"/>
-      <c r="E42" s="122"/>
-      <c r="F42" s="122"/>
-      <c r="G42" s="123"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
       <c r="H42" s="102"/>
       <c r="I42" s="102"/>
       <c r="J42" s="102"/>
@@ -4985,74 +5010,59 @@
       <c r="O42"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="105" t="s">
+      <c r="A44" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="168"/>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="105" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="106">
-        <v>1</v>
-      </c>
-      <c r="B45" s="120" t="s">
-        <v>204</v>
-      </c>
-      <c r="C45" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="D45" s="120"/>
-      <c r="E45" s="120"/>
-      <c r="F45" s="120"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="102"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
+      <c r="B45" s="144" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="101"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="107">
-        <v>2</v>
-      </c>
-      <c r="B46" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120"/>
-      <c r="G46" s="120"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
+      <c r="D46" s="148"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="148"/>
+      <c r="G46" s="149"/>
       <c r="H46" s="102"/>
       <c r="I46" s="102"/>
       <c r="J46" s="102"/>
@@ -5062,19 +5072,13 @@
       <c r="O46"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="108">
-        <v>3</v>
-      </c>
-      <c r="B47" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="C47" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="120"/>
-      <c r="E47" s="120"/>
-      <c r="F47" s="120"/>
-      <c r="G47" s="120"/>
+      <c r="A47" s="107"/>
+      <c r="B47" s="150"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="151"/>
       <c r="H47" s="102"/>
       <c r="I47" s="102"/>
       <c r="J47" s="102"/>
@@ -5084,246 +5088,460 @@
       <c r="O47"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
       <c r="M48"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4" t="s">
+      <c r="N48"/>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="121"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="169" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="169"/>
+      <c r="E50" s="169"/>
+      <c r="F50" s="169"/>
+      <c r="G50" s="169"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
+      <c r="L51" s="95"/>
+      <c r="N51" s="101"/>
+      <c r="O51" s="101"/>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="106">
+        <v>1</v>
+      </c>
+      <c r="B52" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="120" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="107">
+        <v>2</v>
+      </c>
+      <c r="B53" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="120"/>
+      <c r="E53" s="120"/>
+      <c r="F53" s="120"/>
+      <c r="G53" s="120"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="108">
+        <v>3</v>
+      </c>
+      <c r="B54" s="120" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="102"/>
+      <c r="I54" s="102"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="131" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="131" t="s">
+      <c r="B57" s="159"/>
+      <c r="C57" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="27" t="s">
+      <c r="D57" s="158"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="138"/>
-      <c r="B51" s="139"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="43"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="129"/>
-      <c r="B52" s="130"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="161"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="43"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="129"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="43"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="129"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="129"/>
-      <c r="B55" s="130"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="43"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="129"/>
-      <c r="B56" s="130"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="43"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="129"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="43"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="129"/>
-      <c r="B58" s="130"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="130"/>
+    <row r="58" spans="1:15">
+      <c r="A58" s="154"/>
+      <c r="B58" s="156"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="156"/>
       <c r="F58" s="43"/>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="129"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="130"/>
+    <row r="59" spans="1:15">
+      <c r="A59" s="138"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="138"/>
+      <c r="D59" s="139"/>
+      <c r="E59" s="140"/>
       <c r="F59" s="43"/>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="129"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="130"/>
+    <row r="60" spans="1:15">
+      <c r="A60" s="138"/>
+      <c r="B60" s="140"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="140"/>
       <c r="F60" s="43"/>
     </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="129"/>
-      <c r="B61" s="130"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="130"/>
+    <row r="61" spans="1:15">
+      <c r="A61" s="138"/>
+      <c r="B61" s="140"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="140"/>
       <c r="F61" s="43"/>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="129"/>
-      <c r="B62" s="130"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="130"/>
+    <row r="62" spans="1:15">
+      <c r="A62" s="138"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="140"/>
       <c r="F62" s="43"/>
     </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="129"/>
-      <c r="B63" s="130"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="130"/>
+    <row r="63" spans="1:15">
+      <c r="A63" s="138"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="140"/>
       <c r="F63" s="43"/>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="129"/>
-      <c r="B64" s="130"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="161"/>
-      <c r="E64" s="130"/>
+    <row r="64" spans="1:15">
+      <c r="A64" s="138"/>
+      <c r="B64" s="140"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="140"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="129"/>
-      <c r="B65" s="130"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="130"/>
+      <c r="A65" s="138"/>
+      <c r="B65" s="140"/>
+      <c r="C65" s="138"/>
+      <c r="D65" s="139"/>
+      <c r="E65" s="140"/>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="129"/>
-      <c r="B66" s="130"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="130"/>
+      <c r="A66" s="138"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="139"/>
+      <c r="E66" s="140"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="129"/>
-      <c r="B67" s="130"/>
-      <c r="C67" s="129"/>
-      <c r="D67" s="161"/>
-      <c r="E67" s="130"/>
+      <c r="A67" s="138"/>
+      <c r="B67" s="140"/>
+      <c r="C67" s="138"/>
+      <c r="D67" s="139"/>
+      <c r="E67" s="140"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="129"/>
-      <c r="B68" s="130"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="130"/>
+      <c r="A68" s="138"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="140"/>
       <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="129"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="161"/>
-      <c r="E69" s="130"/>
+      <c r="A69" s="138"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="139"/>
+      <c r="E69" s="140"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="129"/>
-      <c r="B70" s="130"/>
-      <c r="C70" s="129"/>
-      <c r="D70" s="161"/>
-      <c r="E70" s="130"/>
+      <c r="A70" s="138"/>
+      <c r="B70" s="140"/>
+      <c r="C70" s="138"/>
+      <c r="D70" s="139"/>
+      <c r="E70" s="140"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="129"/>
-      <c r="B71" s="130"/>
-      <c r="C71" s="129"/>
-      <c r="D71" s="161"/>
-      <c r="E71" s="130"/>
+      <c r="A71" s="138"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="138"/>
+      <c r="D71" s="139"/>
+      <c r="E71" s="140"/>
       <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="129"/>
-      <c r="B72" s="130"/>
-      <c r="C72" s="129"/>
-      <c r="D72" s="161"/>
-      <c r="E72" s="130"/>
+      <c r="A72" s="138"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="138"/>
+      <c r="D72" s="139"/>
+      <c r="E72" s="140"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="129"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="161"/>
-      <c r="E73" s="130"/>
+      <c r="A73" s="138"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="139"/>
+      <c r="E73" s="140"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="129"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="129"/>
-      <c r="D74" s="161"/>
-      <c r="E74" s="130"/>
+      <c r="A74" s="138"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="138"/>
+      <c r="D74" s="139"/>
+      <c r="E74" s="140"/>
       <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="155"/>
-      <c r="B75" s="156"/>
-      <c r="C75" s="155"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="44"/>
+      <c r="A75" s="138"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="138"/>
+      <c r="D75" s="139"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="43"/>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="138"/>
+      <c r="B76" s="140"/>
+      <c r="C76" s="138"/>
+      <c r="D76" s="139"/>
+      <c r="E76" s="140"/>
+      <c r="F76" s="43"/>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="138"/>
+      <c r="B77" s="140"/>
+      <c r="C77" s="138"/>
+      <c r="D77" s="139"/>
+      <c r="E77" s="140"/>
+      <c r="F77" s="43"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="138"/>
+      <c r="B78" s="140"/>
+      <c r="C78" s="138"/>
+      <c r="D78" s="139"/>
+      <c r="E78" s="140"/>
+      <c r="F78" s="43"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="138"/>
+      <c r="B79" s="140"/>
+      <c r="C79" s="138"/>
+      <c r="D79" s="139"/>
+      <c r="E79" s="140"/>
+      <c r="F79" s="43"/>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="138"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="138"/>
+      <c r="D80" s="139"/>
+      <c r="E80" s="140"/>
+      <c r="F80" s="43"/>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="138"/>
+      <c r="B81" s="140"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="139"/>
+      <c r="E81" s="140"/>
+      <c r="F81" s="43"/>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="141"/>
+      <c r="B82" s="143"/>
+      <c r="C82" s="141"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="143"/>
+      <c r="F82" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="99">
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -5340,91 +5558,13 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18" xr:uid="{AA005DBF-E840-AD43-AC91-CD6CE016CB50}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45:C47" xr:uid="{5359E819-3DA9-9F40-8153-6EB281F58DC2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52:C54" xr:uid="{5359E819-3DA9-9F40-8153-6EB281F58DC2}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -5629,10 +5769,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -5642,20 +5782,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="151"/>
+      <c r="D18" s="133"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="151"/>
+      <c r="D19" s="133"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
@@ -5736,28 +5876,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="165"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -5774,12 +5914,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="106"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -5796,12 +5936,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="107"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -5818,12 +5958,12 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="108"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -5842,28 +5982,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -5882,14 +6022,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -5906,12 +6046,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="107"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -5928,12 +6068,12 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="108"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -5970,28 +6110,28 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="168"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="164" t="s">
+      <c r="B37" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -6008,12 +6148,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="106"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="168"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -6030,12 +6170,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="107"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="169"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -6052,12 +6192,12 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="108"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="170"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -6130,16 +6270,16 @@
       <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="181" t="s">
+      <c r="E44" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="180" t="s">
         <v>171</v>
       </c>
       <c r="G44" s="176" t="s">
@@ -6151,13 +6291,13 @@
       <c r="I44" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="181" t="s">
+      <c r="J44" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="181" t="s">
+      <c r="K44" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="184" t="s">
+      <c r="L44" s="179" t="s">
         <v>225</v>
       </c>
       <c r="M44" s="176" t="s">
@@ -6166,14 +6306,14 @@
       <c r="N44" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="O44" s="179" t="s">
+      <c r="O44" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="179" t="s">
+      <c r="P44" s="184"/>
+      <c r="Q44" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="180"/>
+      <c r="R44" s="184"/>
       <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
@@ -6182,20 +6322,20 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="183"/>
-      <c r="M45" s="177"/>
-      <c r="N45" s="183"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="177"/>
       <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
@@ -6211,7 +6351,7 @@
       <c r="S45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="177"/>
+      <c r="T45" s="178"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="7">
@@ -6833,12 +6973,23 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
@@ -6851,23 +7002,12 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -7060,10 +7200,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -7073,10 +7213,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="185" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="133"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -7102,28 +7242,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -7135,12 +7275,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -7152,12 +7292,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -7169,12 +7309,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -7190,29 +7330,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -7227,14 +7367,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -7248,14 +7388,14 @@
       <c r="A26" s="107">
         <v>2</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="146" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -7267,12 +7407,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -7301,29 +7441,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -7336,12 +7476,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -7354,12 +7494,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -7371,12 +7511,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -7429,31 +7569,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="181" t="s">
+      <c r="E37" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="181" t="s">
+      <c r="F37" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="181" t="s">
+      <c r="G37" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="181" t="s">
+      <c r="H37" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="180" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -7470,23 +7610,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="181" t="s">
+      <c r="P37" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="185"/>
-      <c r="B38" s="185"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="183"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -7502,7 +7642,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="185"/>
+      <c r="P38" s="189"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -8000,6 +8140,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -8012,23 +8169,6 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8734,10 +8874,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -8747,20 +8887,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="151"/>
+      <c r="D18" s="133"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="151"/>
+      <c r="D19" s="133"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
@@ -8839,28 +8979,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="165"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -8877,12 +9017,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="106"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -8899,12 +9039,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="107"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -8921,12 +9061,12 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="108"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -8945,28 +9085,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -8985,14 +9125,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -9009,12 +9149,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="107"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -9031,12 +9171,12 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="108"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -9073,28 +9213,28 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="168"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="164" t="s">
+      <c r="B37" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -9111,12 +9251,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="106"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="168"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -9133,12 +9273,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="107"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="169"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -9155,12 +9295,12 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="108"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="170"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -9233,16 +9373,16 @@
       <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="181" t="s">
+      <c r="E44" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="180" t="s">
         <v>171</v>
       </c>
       <c r="G44" s="176" t="s">
@@ -9254,13 +9394,13 @@
       <c r="I44" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="181" t="s">
+      <c r="J44" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="181" t="s">
+      <c r="K44" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="184" t="s">
+      <c r="L44" s="179" t="s">
         <v>225</v>
       </c>
       <c r="M44" s="176" t="s">
@@ -9269,14 +9409,14 @@
       <c r="N44" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="O44" s="179" t="s">
+      <c r="O44" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="180"/>
-      <c r="Q44" s="179" t="s">
+      <c r="P44" s="184"/>
+      <c r="Q44" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="180"/>
+      <c r="R44" s="184"/>
       <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
@@ -9285,20 +9425,20 @@
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="183"/>
-      <c r="M45" s="177"/>
-      <c r="N45" s="183"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="177"/>
       <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
@@ -9314,7 +9454,7 @@
       <c r="S45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="177"/>
+      <c r="T45" s="178"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="7">
@@ -9938,25 +10078,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A24:G24"/>
@@ -9973,6 +10094,25 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B37:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -10165,10 +10305,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -10178,10 +10318,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="189" t="s">
+      <c r="C14" s="185" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="133"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -10207,28 +10347,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -10240,12 +10380,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -10257,12 +10397,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -10274,12 +10414,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -10295,29 +10435,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -10332,14 +10472,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -10353,14 +10493,14 @@
       <c r="A26" s="107">
         <v>2</v>
       </c>
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="146" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -10372,12 +10512,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -10406,29 +10546,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -10441,12 +10581,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -10459,12 +10599,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -10476,12 +10616,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -10534,31 +10674,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="181" t="s">
+      <c r="E37" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="181" t="s">
+      <c r="F37" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="181" t="s">
+      <c r="G37" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="181" t="s">
+      <c r="H37" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="180" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -10575,23 +10715,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="181" t="s">
+      <c r="P37" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="185"/>
-      <c r="B38" s="185"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="183"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -10607,7 +10747,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="185"/>
+      <c r="P38" s="189"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -11105,6 +11245,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J37:J38"/>
@@ -11121,19 +11274,6 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11343,10 +11483,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="151"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -11356,10 +11496,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="133"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -11385,28 +11525,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -11418,12 +11558,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -11435,12 +11575,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -11452,12 +11592,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -11473,29 +11613,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="168"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="164" t="s">
+      <c r="B26" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -11510,14 +11650,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -11529,12 +11669,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -11546,12 +11686,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -11580,29 +11720,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="168"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -11615,12 +11755,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -11633,12 +11773,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -11650,12 +11790,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="170"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -11708,25 +11848,25 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="181" t="s">
+      <c r="E39" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="181" t="s">
+      <c r="F39" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="180" t="s">
         <v>136</v>
       </c>
       <c r="H39" s="190" t="s">
@@ -11749,23 +11889,23 @@
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="181" t="s">
+      <c r="P39" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="185"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="183"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="177"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -11781,7 +11921,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="185"/>
+      <c r="P40" s="189"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -12237,19 +12377,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -12266,6 +12393,19 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12313,7 +12453,7 @@
   </sheetPr>
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -12487,10 +12627,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -12500,20 +12640,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="151"/>
+      <c r="D18" s="133"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="151"/>
+      <c r="D19" s="133"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
@@ -12597,28 +12737,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="165"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -12636,12 +12776,12 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="106"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -12659,12 +12799,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="107"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -12682,12 +12822,12 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="108"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -12707,28 +12847,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -12748,14 +12888,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -12773,12 +12913,12 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="107"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -12796,12 +12936,12 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="108"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -12840,28 +12980,28 @@
       <c r="T35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="168"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="164" t="s">
+      <c r="B37" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -12879,12 +13019,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="106"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="168"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -12902,12 +13042,12 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="107"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="169"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -12925,12 +13065,12 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="108"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="170"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -13006,16 +13146,16 @@
       <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="181" t="s">
+      <c r="E44" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="180" t="s">
         <v>171</v>
       </c>
       <c r="G44" s="176" t="s">
@@ -13027,13 +13167,13 @@
       <c r="I44" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="181" t="s">
+      <c r="J44" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="181" t="s">
+      <c r="K44" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="184" t="s">
+      <c r="L44" s="179" t="s">
         <v>225</v>
       </c>
       <c r="M44" s="176" t="s">
@@ -13045,14 +13185,14 @@
       <c r="O44" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P44" s="179" t="s">
+      <c r="P44" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="179" t="s">
+      <c r="Q44" s="184"/>
+      <c r="R44" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="180"/>
+      <c r="S44" s="184"/>
       <c r="T44" s="32" t="s">
         <v>69</v>
       </c>
@@ -13061,21 +13201,21 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="183"/>
-      <c r="M45" s="177"/>
-      <c r="N45" s="177"/>
-      <c r="O45" s="183"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="178"/>
+      <c r="O45" s="177"/>
       <c r="P45" s="27" t="s">
         <v>74</v>
       </c>
@@ -13091,7 +13231,7 @@
       <c r="T45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U45" s="177"/>
+      <c r="U45" s="178"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="7">
@@ -13735,6 +13875,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
     <mergeCell ref="U44:U45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
@@ -13747,30 +13911,6 @@
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="R44:S44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -13963,10 +14103,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -13976,10 +14116,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="133"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -14005,28 +14145,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -14038,12 +14178,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -14055,12 +14195,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -14072,12 +14212,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -14093,29 +14233,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -14130,14 +14270,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -14149,12 +14289,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -14166,12 +14306,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -14200,29 +14340,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -14235,12 +14375,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -14253,12 +14393,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -14270,12 +14410,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -14328,31 +14468,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="181" t="s">
+      <c r="E37" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="181" t="s">
+      <c r="F37" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="181" t="s">
+      <c r="G37" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="181" t="s">
+      <c r="H37" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="180" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -14369,23 +14509,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="181" t="s">
+      <c r="P37" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="185"/>
-      <c r="B38" s="185"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="183"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -14401,7 +14541,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="185"/>
+      <c r="P38" s="189"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -14899,23 +15039,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -14928,6 +15051,23 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -15137,10 +15277,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="151"/>
+      <c r="D15" s="133"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -15150,10 +15290,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="151"/>
+      <c r="D16" s="133"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -15179,28 +15319,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
+      <c r="B19" s="169"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="169"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="164"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -15212,12 +15352,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -15229,12 +15369,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="158"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="158"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="158"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -15246,12 +15386,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -15267,29 +15407,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="145"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="168"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="164" t="s">
+      <c r="B26" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="164"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -15304,14 +15444,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="165"/>
-      <c r="D27" s="165"/>
-      <c r="E27" s="165"/>
-      <c r="F27" s="165"/>
-      <c r="G27" s="165"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -15323,12 +15463,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -15340,12 +15480,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -15374,29 +15514,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="145"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="168"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="164" t="s">
+      <c r="B32" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="164"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -15409,12 +15549,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="168"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="149"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -15427,12 +15567,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="169"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -15444,12 +15584,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="170"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="153"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -15502,25 +15642,25 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="181" t="s">
+      <c r="B39" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="181" t="s">
+      <c r="E39" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="181" t="s">
+      <c r="F39" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="181" t="s">
+      <c r="G39" s="180" t="s">
         <v>136</v>
       </c>
       <c r="H39" s="190" t="s">
@@ -15543,23 +15683,23 @@
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="181" t="s">
+      <c r="P39" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="185"/>
-      <c r="B40" s="185"/>
+      <c r="A40" s="189"/>
+      <c r="B40" s="189"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="185"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="183"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="181"/>
+      <c r="F40" s="181"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="177"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -15575,7 +15715,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="185"/>
+      <c r="P40" s="189"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -16031,23 +16171,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -16060,6 +16183,23 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -16281,10 +16421,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="151" t="s">
+      <c r="C17" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="151"/>
+      <c r="D17" s="133"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -16294,20 +16434,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="151"/>
+      <c r="D18" s="133"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="150" t="s">
+      <c r="C19" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="151"/>
+      <c r="D19" s="133"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
@@ -16390,28 +16530,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="146" t="s">
+      <c r="A24" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="B24" s="169"/>
+      <c r="C24" s="169"/>
+      <c r="D24" s="169"/>
+      <c r="E24" s="169"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="169"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="142"/>
+      <c r="C25" s="164"/>
+      <c r="D25" s="164"/>
+      <c r="E25" s="164"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="165"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -16429,12 +16569,12 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="106"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -16452,12 +16592,12 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="107"/>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="158"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -16475,12 +16615,12 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="108"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="159"/>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159"/>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -16500,28 +16640,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="145"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="168"/>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="164" t="s">
+      <c r="B31" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="164"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="164"/>
-      <c r="F31" s="164"/>
-      <c r="G31" s="164"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -16541,14 +16681,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -16566,12 +16706,12 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="107"/>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -16589,12 +16729,12 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="108"/>
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -16633,28 +16773,28 @@
       <c r="T35"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="145"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="168"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="164" t="s">
+      <c r="B37" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="164"/>
-      <c r="D37" s="164"/>
-      <c r="E37" s="164"/>
-      <c r="F37" s="164"/>
-      <c r="G37" s="164"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -16672,12 +16812,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="106"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="168"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -16695,12 +16835,12 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="107"/>
-      <c r="B39" s="158"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="169"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -16718,12 +16858,12 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="108"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="170"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -16799,16 +16939,16 @@
       <c r="B44" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="182" t="s">
         <v>1</v>
       </c>
       <c r="D44" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="181" t="s">
+      <c r="E44" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="181" t="s">
+      <c r="F44" s="180" t="s">
         <v>171</v>
       </c>
       <c r="G44" s="176" t="s">
@@ -16820,13 +16960,13 @@
       <c r="I44" s="176" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="181" t="s">
+      <c r="J44" s="180" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="181" t="s">
+      <c r="K44" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="184" t="s">
+      <c r="L44" s="179" t="s">
         <v>225</v>
       </c>
       <c r="M44" s="176" t="s">
@@ -16838,14 +16978,14 @@
       <c r="O44" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="P44" s="179" t="s">
+      <c r="P44" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="179" t="s">
+      <c r="Q44" s="184"/>
+      <c r="R44" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="180"/>
+      <c r="S44" s="184"/>
       <c r="T44" s="32" t="s">
         <v>69</v>
       </c>
@@ -16854,21 +16994,21 @@
       </c>
     </row>
     <row r="45" spans="1:22">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
-      <c r="C45" s="177"/>
-      <c r="D45" s="177"/>
-      <c r="E45" s="182"/>
-      <c r="F45" s="182"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="177"/>
-      <c r="J45" s="182"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="183"/>
-      <c r="M45" s="177"/>
-      <c r="N45" s="177"/>
-      <c r="O45" s="183"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="178"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="177"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="178"/>
+      <c r="O45" s="177"/>
       <c r="P45" s="27" t="s">
         <v>74</v>
       </c>
@@ -16884,7 +17024,7 @@
       <c r="T45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U45" s="177"/>
+      <c r="U45" s="178"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="7">
@@ -17536,6 +17676,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
     <mergeCell ref="U44:U45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
@@ -17548,30 +17712,6 @@
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="R44:S44"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -17764,10 +17904,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="151"/>
+      <c r="D13" s="133"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -17777,10 +17917,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="133"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -17806,28 +17946,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="169" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="163" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="142"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -17839,12 +17979,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="157"/>
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -17856,12 +17996,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="158"/>
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -17873,12 +18013,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -17894,29 +18034,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="145"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="164" t="s">
+      <c r="B24" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -17931,14 +18071,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="165" t="s">
+      <c r="B25" s="145" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="165"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -17950,12 +18090,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -17967,12 +18107,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -18001,29 +18141,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="145"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="168"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="164" t="s">
+      <c r="B30" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-      <c r="G30" s="164"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -18036,12 +18176,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="157"/>
-      <c r="D31" s="157"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -18054,12 +18194,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="158"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -18071,12 +18211,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="170"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -18129,31 +18269,31 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="181" t="s">
+      <c r="A37" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="180" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="181" t="s">
+      <c r="E37" s="180" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="181" t="s">
+      <c r="F37" s="180" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="181" t="s">
+      <c r="G37" s="180" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="181" t="s">
+      <c r="H37" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="181" t="s">
+      <c r="I37" s="180" t="s">
         <v>230</v>
       </c>
       <c r="J37" s="176" t="s">
@@ -18170,23 +18310,23 @@
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="181" t="s">
+      <c r="P37" s="180" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="185"/>
-      <c r="B38" s="185"/>
+      <c r="A38" s="189"/>
+      <c r="B38" s="189"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="182"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="183"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -18202,7 +18342,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="185"/>
+      <c r="P38" s="189"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -18700,23 +18840,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -18729,6 +18852,23 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E93BDBC-E7C1-F54B-80C4-77C140C42331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510ED3B9-B476-BE43-9ADE-84C866458238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="258">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2590,6 +2590,24 @@
   </si>
   <si>
     <t>blanco.restgenerator.IManagement</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SamplePostTelegram</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.samples</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電文定義・継承</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンブンショリ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2754,7 +2772,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -3486,6 +3504,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3494,7 +3536,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3746,19 +3788,136 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3773,136 +3932,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3912,8 +3945,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3924,15 +3969,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4479,7 +4526,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -4523,152 +4570,152 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="130" t="s">
+      <c r="B6" s="175"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="E6" s="130"/>
+      <c r="E6" s="172"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130" t="s">
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="172" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="130"/>
+      <c r="E7" s="172"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130" t="s">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="172" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="130"/>
+      <c r="E8" s="172"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="166" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="130"/>
+      <c r="E9" s="172"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="166" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="172" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="130"/>
+      <c r="E11" s="172"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="142" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="133" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="133"/>
+      <c r="E12" s="155"/>
       <c r="F12" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132" t="s">
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="154" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="133"/>
+      <c r="E13" s="155"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="134" t="s">
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="E14" s="133"/>
+      <c r="E14" s="155"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="142" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="155"/>
       <c r="F15" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="142" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="154"/>
+      <c r="E16" s="155"/>
       <c r="F16" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="158"/>
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="145"/>
       <c r="D18" s="90" t="s">
         <v>137</v>
       </c>
@@ -4688,15 +4735,15 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="170" t="s">
+      <c r="A20" s="151" t="s">
         <v>182</v>
       </c>
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="172"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="153"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
@@ -4740,28 +4787,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="130" t="s">
         <v>183</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
+      <c r="B25" s="130"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="164"/>
-      <c r="D26" s="164"/>
-      <c r="E26" s="164"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="165"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="133"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -4772,12 +4819,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4788,12 +4835,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -4804,12 +4851,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="108"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="163"/>
+      <c r="D29" s="163"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="163"/>
+      <c r="G29" s="163"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -4819,13 +4866,13 @@
       <c r="O29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="191"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="191"/>
-      <c r="G30" s="191"/>
+      <c r="A30" s="129"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
       <c r="H30" s="102"/>
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
@@ -4841,28 +4888,28 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="169" t="s">
+      <c r="A32" s="130" t="s">
         <v>252</v>
       </c>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="130"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="164"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="165"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
       <c r="H33" s="95"/>
       <c r="I33" s="95"/>
       <c r="J33" s="95"/>
@@ -4875,14 +4922,14 @@
       <c r="A34" s="106">
         <v>1</v>
       </c>
-      <c r="B34" s="145" t="s">
+      <c r="B34" s="134" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -4893,12 +4940,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="107"/>
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -4909,12 +4956,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="108"/>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
+      <c r="B36" s="136"/>
+      <c r="C36" s="136"/>
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
@@ -4927,28 +4974,28 @@
       <c r="C37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="166" t="s">
+      <c r="A38" s="148" t="s">
         <v>184</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="168"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="150"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="144" t="s">
+      <c r="B39" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
       <c r="H39" s="95"/>
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
@@ -4961,14 +5008,14 @@
       <c r="A40" s="106">
         <v>1</v>
       </c>
-      <c r="B40" s="145" t="s">
+      <c r="B40" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
+      <c r="C40" s="134"/>
+      <c r="D40" s="134"/>
+      <c r="E40" s="134"/>
+      <c r="F40" s="134"/>
+      <c r="G40" s="134"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -4979,12 +5026,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="107"/>
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -4995,12 +5042,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="108"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="147"/>
-      <c r="D42" s="147"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
+      <c r="B42" s="136"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
       <c r="H42" s="102"/>
       <c r="I42" s="102"/>
       <c r="J42" s="102"/>
@@ -5025,28 +5072,28 @@
       <c r="M43"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="166" t="s">
+      <c r="A44" s="148" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="168"/>
+      <c r="B44" s="149"/>
+      <c r="C44" s="149"/>
+      <c r="D44" s="149"/>
+      <c r="E44" s="149"/>
+      <c r="F44" s="149"/>
+      <c r="G44" s="150"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="144" t="s">
+      <c r="B45" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
       <c r="H45" s="95"/>
       <c r="I45" s="95"/>
       <c r="J45" s="95"/>
@@ -5057,12 +5104,12 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="106"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="149"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="161"/>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="169"/>
       <c r="H46" s="102"/>
       <c r="I46" s="102"/>
       <c r="J46" s="102"/>
@@ -5073,12 +5120,12 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="107"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="150"/>
-      <c r="F47" s="150"/>
-      <c r="G47" s="151"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="170"/>
       <c r="H47" s="102"/>
       <c r="I47" s="102"/>
       <c r="J47" s="102"/>
@@ -5089,12 +5136,12 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="108"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="153"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="163"/>
+      <c r="F48" s="163"/>
+      <c r="G48" s="171"/>
       <c r="H48" s="102"/>
       <c r="I48" s="102"/>
       <c r="J48" s="102"/>
@@ -5120,15 +5167,15 @@
       <c r="O49"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="169" t="s">
+      <c r="A50" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="169"/>
-      <c r="E50" s="169"/>
-      <c r="F50" s="169"/>
-      <c r="G50" s="169"/>
+      <c r="B50" s="130"/>
+      <c r="C50" s="130"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
+      <c r="G50" s="130"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="105" t="s">
@@ -5244,236 +5291,289 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="157" t="s">
+      <c r="A57" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="159"/>
-      <c r="C57" s="157" t="s">
+      <c r="B57" s="141"/>
+      <c r="C57" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="158"/>
-      <c r="E57" s="159"/>
+      <c r="D57" s="140"/>
+      <c r="E57" s="141"/>
       <c r="F57" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="154"/>
-      <c r="B58" s="156"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="155"/>
-      <c r="E58" s="156"/>
+      <c r="A58" s="146"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="147"/>
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="138"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="138"/>
-      <c r="D59" s="139"/>
-      <c r="E59" s="140"/>
+      <c r="A59" s="137"/>
+      <c r="B59" s="138"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="138"/>
       <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="138"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="140"/>
+      <c r="A60" s="137"/>
+      <c r="B60" s="138"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="138"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="138"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="139"/>
-      <c r="E61" s="140"/>
+      <c r="A61" s="137"/>
+      <c r="B61" s="138"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="138"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="138"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="140"/>
+      <c r="A62" s="137"/>
+      <c r="B62" s="138"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="138"/>
       <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="138"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="140"/>
+      <c r="A63" s="137"/>
+      <c r="B63" s="138"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="138"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="138"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="140"/>
+      <c r="A64" s="137"/>
+      <c r="B64" s="138"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="138"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="138"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="138"/>
-      <c r="D65" s="139"/>
-      <c r="E65" s="140"/>
+      <c r="A65" s="137"/>
+      <c r="B65" s="138"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="138"/>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="138"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="138"/>
-      <c r="D66" s="139"/>
-      <c r="E66" s="140"/>
+      <c r="A66" s="137"/>
+      <c r="B66" s="138"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="138"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="138"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="138"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="140"/>
+      <c r="A67" s="137"/>
+      <c r="B67" s="138"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="138"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="138"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="140"/>
+      <c r="A68" s="137"/>
+      <c r="B68" s="138"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="138"/>
       <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="138"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="140"/>
+      <c r="A69" s="137"/>
+      <c r="B69" s="138"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="138"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="138"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="138"/>
-      <c r="D70" s="139"/>
-      <c r="E70" s="140"/>
+      <c r="A70" s="137"/>
+      <c r="B70" s="138"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="138"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="138"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="138"/>
-      <c r="D71" s="139"/>
-      <c r="E71" s="140"/>
+      <c r="A71" s="137"/>
+      <c r="B71" s="138"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="138"/>
       <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="138"/>
-      <c r="B72" s="140"/>
-      <c r="C72" s="138"/>
-      <c r="D72" s="139"/>
-      <c r="E72" s="140"/>
+      <c r="A72" s="137"/>
+      <c r="B72" s="138"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="138"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="138"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="139"/>
-      <c r="E73" s="140"/>
+      <c r="A73" s="137"/>
+      <c r="B73" s="138"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="165"/>
+      <c r="E73" s="138"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="138"/>
-      <c r="B74" s="140"/>
-      <c r="C74" s="138"/>
-      <c r="D74" s="139"/>
-      <c r="E74" s="140"/>
+      <c r="A74" s="137"/>
+      <c r="B74" s="138"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="165"/>
+      <c r="E74" s="138"/>
       <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="138"/>
-      <c r="B75" s="140"/>
-      <c r="C75" s="138"/>
-      <c r="D75" s="139"/>
-      <c r="E75" s="140"/>
+      <c r="A75" s="137"/>
+      <c r="B75" s="138"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="165"/>
+      <c r="E75" s="138"/>
       <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="138"/>
-      <c r="B76" s="140"/>
-      <c r="C76" s="138"/>
-      <c r="D76" s="139"/>
-      <c r="E76" s="140"/>
+      <c r="A76" s="137"/>
+      <c r="B76" s="138"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="165"/>
+      <c r="E76" s="138"/>
       <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="138"/>
-      <c r="B77" s="140"/>
-      <c r="C77" s="138"/>
-      <c r="D77" s="139"/>
-      <c r="E77" s="140"/>
+      <c r="A77" s="137"/>
+      <c r="B77" s="138"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="165"/>
+      <c r="E77" s="138"/>
       <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="138"/>
-      <c r="B78" s="140"/>
-      <c r="C78" s="138"/>
-      <c r="D78" s="139"/>
-      <c r="E78" s="140"/>
+      <c r="A78" s="137"/>
+      <c r="B78" s="138"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="165"/>
+      <c r="E78" s="138"/>
       <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="138"/>
-      <c r="B79" s="140"/>
-      <c r="C79" s="138"/>
-      <c r="D79" s="139"/>
-      <c r="E79" s="140"/>
+      <c r="A79" s="137"/>
+      <c r="B79" s="138"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="165"/>
+      <c r="E79" s="138"/>
       <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="138"/>
-      <c r="B80" s="140"/>
-      <c r="C80" s="138"/>
-      <c r="D80" s="139"/>
-      <c r="E80" s="140"/>
+      <c r="A80" s="137"/>
+      <c r="B80" s="138"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="138"/>
       <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="138"/>
-      <c r="B81" s="140"/>
-      <c r="C81" s="138"/>
-      <c r="D81" s="139"/>
-      <c r="E81" s="140"/>
+      <c r="A81" s="137"/>
+      <c r="B81" s="138"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="165"/>
+      <c r="E81" s="138"/>
       <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="141"/>
-      <c r="B82" s="143"/>
-      <c r="C82" s="141"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="143"/>
+      <c r="A82" s="159"/>
+      <c r="B82" s="160"/>
+      <c r="C82" s="159"/>
+      <c r="D82" s="167"/>
+      <c r="E82" s="160"/>
       <c r="F82" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
     <mergeCell ref="C57:E57"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A18:C18"/>
@@ -5490,74 +5590,21 @@
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5769,10 +5816,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -5782,20 +5829,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="155"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="154" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="155"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
@@ -5876,28 +5923,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -5914,12 +5961,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="106"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -5936,12 +5983,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="107"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -5958,12 +6005,12 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="108"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -5982,28 +6029,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -6022,14 +6069,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -6046,12 +6093,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="107"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -6068,12 +6115,12 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="108"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -6110,28 +6157,28 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="166" t="s">
+      <c r="A36" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="168"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="150"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -6148,12 +6195,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="106"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="169"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -6170,12 +6217,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="107"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="170"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -6192,12 +6239,12 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="108"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="153"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="171"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -6264,60 +6311,60 @@
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="176" t="s">
+      <c r="A44" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="180" t="s">
+      <c r="E44" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="180" t="s">
+      <c r="F44" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G44" s="176" t="s">
+      <c r="G44" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="176" t="s">
+      <c r="H44" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="176" t="s">
+      <c r="I44" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="180" t="s">
+      <c r="J44" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="180" t="s">
+      <c r="K44" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="179" t="s">
+      <c r="L44" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="M44" s="176" t="s">
+      <c r="M44" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="N44" s="176" t="s">
+      <c r="N44" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="O44" s="183" t="s">
+      <c r="O44" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="184"/>
-      <c r="Q44" s="183" t="s">
+      <c r="P44" s="181"/>
+      <c r="Q44" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="184"/>
+      <c r="R44" s="181"/>
       <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="T44" s="176" t="s">
+      <c r="T44" s="177" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6326,16 +6373,16 @@
       <c r="B45" s="178"/>
       <c r="C45" s="178"/>
       <c r="D45" s="178"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
       <c r="G45" s="178"/>
       <c r="H45" s="178"/>
       <c r="I45" s="178"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="177"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="184"/>
       <c r="M45" s="178"/>
-      <c r="N45" s="177"/>
+      <c r="N45" s="184"/>
       <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
@@ -6973,11 +7020,24 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
     <mergeCell ref="L44:L45"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="B44:B45"/>
@@ -6990,24 +7050,11 @@
     <mergeCell ref="I44:I45"/>
     <mergeCell ref="J44:J45"/>
     <mergeCell ref="K44:K45"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="T44:T45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -7200,10 +7247,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -7213,10 +7260,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -7242,28 +7289,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -7275,12 +7322,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -7292,12 +7339,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -7309,12 +7356,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -7330,29 +7377,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="150"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -7367,14 +7414,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -7388,14 +7435,14 @@
       <c r="A26" s="107">
         <v>2</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -7407,12 +7454,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -7441,29 +7488,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="150"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -7476,12 +7523,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -7494,12 +7541,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="170"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -7511,12 +7558,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="171"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -7569,64 +7616,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="182" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="180" t="s">
+      <c r="D37" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="J37" s="176" t="s">
+      <c r="J37" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="K37" s="186" t="s">
+      <c r="K37" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188" t="s">
+      <c r="L37" s="188"/>
+      <c r="M37" s="189" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="187"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="180" t="s">
+      <c r="P37" s="182" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="189"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="177"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -7642,7 +7689,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="189"/>
+      <c r="P38" s="186"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -8140,23 +8187,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -8169,6 +8199,23 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8874,10 +8921,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -8887,20 +8934,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="155"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="154" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="155"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
@@ -8979,28 +9026,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="165"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="132"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -9017,12 +9064,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="106"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -9039,12 +9086,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="107"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="162"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="162"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -9061,12 +9108,12 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="108"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
+      <c r="B28" s="163"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -9085,28 +9132,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -9125,14 +9172,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="145" t="s">
+      <c r="B32" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -9149,12 +9196,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="107"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="135"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="135"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -9171,12 +9218,12 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="108"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
+      <c r="B34" s="136"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -9213,28 +9260,28 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="166" t="s">
+      <c r="A36" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="168"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="150"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -9251,12 +9298,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="106"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
+      <c r="B38" s="161"/>
+      <c r="C38" s="161"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="161"/>
+      <c r="G38" s="169"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -9273,12 +9320,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="107"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="162"/>
+      <c r="D39" s="162"/>
+      <c r="E39" s="162"/>
+      <c r="F39" s="162"/>
+      <c r="G39" s="170"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -9295,12 +9342,12 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="108"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="153"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="163"/>
+      <c r="G40" s="171"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -9367,60 +9414,60 @@
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="176" t="s">
+      <c r="A44" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="176" t="s">
+      <c r="B44" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="180" t="s">
+      <c r="E44" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="180" t="s">
+      <c r="F44" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G44" s="176" t="s">
+      <c r="G44" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="176" t="s">
+      <c r="H44" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="176" t="s">
+      <c r="I44" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="180" t="s">
+      <c r="J44" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="180" t="s">
+      <c r="K44" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="179" t="s">
+      <c r="L44" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="M44" s="176" t="s">
+      <c r="M44" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="N44" s="176" t="s">
+      <c r="N44" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="O44" s="183" t="s">
+      <c r="O44" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="184"/>
-      <c r="Q44" s="183" t="s">
+      <c r="P44" s="181"/>
+      <c r="Q44" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="184"/>
+      <c r="R44" s="181"/>
       <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="T44" s="176" t="s">
+      <c r="T44" s="177" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9429,16 +9476,16 @@
       <c r="B45" s="178"/>
       <c r="C45" s="178"/>
       <c r="D45" s="178"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
+      <c r="E45" s="183"/>
+      <c r="F45" s="183"/>
       <c r="G45" s="178"/>
       <c r="H45" s="178"/>
       <c r="I45" s="178"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="177"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="184"/>
       <c r="M45" s="178"/>
-      <c r="N45" s="177"/>
+      <c r="N45" s="184"/>
       <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
@@ -10078,6 +10125,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A24:G24"/>
@@ -10094,25 +10160,6 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B37:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -10305,10 +10352,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -10318,10 +10365,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="185" t="s">
+      <c r="C14" s="190" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -10347,28 +10394,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -10380,12 +10427,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -10397,12 +10444,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -10414,12 +10461,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -10435,29 +10482,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="150"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -10472,14 +10519,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -10493,14 +10540,14 @@
       <c r="A26" s="107">
         <v>2</v>
       </c>
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="135" t="s">
         <v>240</v>
       </c>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -10512,12 +10559,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -10546,29 +10593,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="150"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -10581,12 +10628,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -10599,12 +10646,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="170"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -10616,12 +10663,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="171"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -10674,64 +10721,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="182" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="180" t="s">
+      <c r="D37" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="J37" s="176" t="s">
+      <c r="J37" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="K37" s="186" t="s">
+      <c r="K37" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188" t="s">
+      <c r="L37" s="188"/>
+      <c r="M37" s="189" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="187"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="180" t="s">
+      <c r="P37" s="182" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="189"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="177"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -10747,7 +10794,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="189"/>
+      <c r="P38" s="186"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -11245,19 +11292,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="J37:J38"/>
@@ -11274,6 +11308,19 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -11483,10 +11530,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -11496,10 +11543,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="155"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -11525,28 +11572,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -11558,12 +11605,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -11575,12 +11622,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -11592,12 +11639,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -11613,29 +11660,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="150"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -11650,14 +11697,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -11669,12 +11716,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -11686,12 +11733,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -11720,29 +11767,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="150"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -11755,12 +11802,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="169"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -11773,12 +11820,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="170"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -11790,12 +11837,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="171"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -11848,64 +11895,64 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="182" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="180" t="s">
+      <c r="G39" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="190" t="s">
+      <c r="H39" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="190" t="s">
+      <c r="I39" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="J39" s="176" t="s">
+      <c r="J39" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="186" t="s">
+      <c r="K39" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="187"/>
-      <c r="M39" s="188" t="s">
+      <c r="L39" s="188"/>
+      <c r="M39" s="189" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="187"/>
+      <c r="N39" s="188"/>
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="P39" s="182" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -11921,7 +11968,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="186"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -12377,6 +12424,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -12393,19 +12453,6 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12451,10 +12498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A24" sqref="A24:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12627,10 +12674,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -12640,20 +12687,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="155"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="154" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="155"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
@@ -12737,165 +12784,130 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="169" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="A24" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="153"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="163" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="165"/>
+      <c r="A25" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="192" t="s">
+        <v>255</v>
+      </c>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
       <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="106"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
+      <c r="A26" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="193" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="107"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
+      <c r="A27" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="108"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
+      <c r="C28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="C29"/>
+      <c r="A29" s="130" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="A30" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="144" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="106">
-        <v>1</v>
-      </c>
-      <c r="B32" s="145" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -12912,13 +12924,13 @@
       <c r="V32"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="107"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -12935,96 +12947,81 @@
       <c r="V33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="108"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
+      <c r="C34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="A35" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="150"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="166" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
+      <c r="A36" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="168" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
       <c r="G36" s="168"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="144" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
+      <c r="A37" s="106">
+        <v>1</v>
+      </c>
+      <c r="B37" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="106"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -13041,13 +13038,13 @@
       <c r="V38"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="107"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -13064,430 +13061,379 @@
       <c r="V39"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="108"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
       <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
+      <c r="A41" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="150"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="6"/>
-      <c r="N42" s="1" t="s">
+      <c r="A42" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="106"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="102"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="107"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="108"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="6"/>
+      <c r="N47" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="4" t="s">
+    <row r="48" spans="1:22">
+      <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="5"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="176" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="176" t="s">
+      <c r="B49" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C49" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D49" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="180" t="s">
+      <c r="E49" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="180" t="s">
+      <c r="F49" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G44" s="176" t="s">
+      <c r="G49" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="176" t="s">
+      <c r="H49" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="176" t="s">
+      <c r="I49" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="180" t="s">
+      <c r="J49" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="180" t="s">
+      <c r="K49" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="179" t="s">
+      <c r="L49" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="M44" s="176" t="s">
+      <c r="M49" s="177" t="s">
         <v>225</v>
       </c>
-      <c r="N44" s="176" t="s">
+      <c r="N49" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="O44" s="176" t="s">
+      <c r="O49" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="P44" s="183" t="s">
+      <c r="P49" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="Q44" s="184"/>
-      <c r="R44" s="183" t="s">
+      <c r="Q49" s="181"/>
+      <c r="R49" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="184"/>
-      <c r="T44" s="32" t="s">
+      <c r="S49" s="181"/>
+      <c r="T49" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U44" s="176" t="s">
+      <c r="U49" s="177" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="178"/>
-      <c r="O45" s="177"/>
-      <c r="P45" s="27" t="s">
+    <row r="50" spans="1:21">
+      <c r="A50" s="178"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="184"/>
+      <c r="M50" s="178"/>
+      <c r="N50" s="178"/>
+      <c r="O50" s="184"/>
+      <c r="P50" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q50" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="27" t="s">
+      <c r="R50" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S45" s="27" t="s">
+      <c r="S50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T45" s="27" t="s">
+      <c r="T50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U45" s="178"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="7">
+      <c r="U50" s="178"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="7">
         <v>1</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D51" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="75" t="s">
+      <c r="E51" s="23"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23" t="s">
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="M51" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="N46" s="120" t="s">
+      <c r="N51" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23">
+      <c r="O51" s="23"/>
+      <c r="P51" s="23">
         <v>0</v>
       </c>
-      <c r="Q46" s="28">
+      <c r="Q51" s="28">
         <v>10</v>
       </c>
-      <c r="R46" s="23"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="9"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="10">
-        <f t="shared" ref="A47:A52" si="0">A46+1</f>
-        <v>2</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="O47" s="24"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="20">
-        <v>0</v>
-      </c>
-      <c r="S47" s="29">
-        <v>100</v>
-      </c>
-      <c r="T47" s="29"/>
-      <c r="U47" s="12"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="14"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O49" s="24"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="14"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="14"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="9"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="120"/>
+        <f t="shared" ref="A52:A57" si="0">A51+1</f>
+        <v>2</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="120" t="s">
+        <v>198</v>
+      </c>
       <c r="O52" s="24"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="29"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="29"/>
+      <c r="R52" s="20">
+        <v>0</v>
+      </c>
+      <c r="S52" s="29">
+        <v>100</v>
+      </c>
       <c r="T52" s="29"/>
-      <c r="U52" s="14"/>
+      <c r="U52" s="12"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="10"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="D53" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="F53" s="25"/>
       <c r="G53" s="77"/>
       <c r="H53" s="25"/>
@@ -13496,7 +13442,9 @@
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
-      <c r="N53" s="120"/>
+      <c r="N53" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O53" s="24"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="29"/>
@@ -13506,34 +13454,58 @@
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="10"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="120"/>
+      <c r="D54" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="73"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
       <c r="U54" s="14"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="10"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="D55" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="F55" s="25"/>
       <c r="G55" s="77"/>
       <c r="H55" s="25"/>
@@ -13544,18 +13516,27 @@
       <c r="M55" s="25"/>
       <c r="N55" s="120"/>
       <c r="O55" s="24"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="14"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="10"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="25"/>
+      <c r="D56" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="77"/>
@@ -13575,10 +13556,17 @@
       <c r="U56" s="14"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="10"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="25"/>
+      <c r="D57" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="77"/>
@@ -13636,11 +13624,11 @@
       <c r="M59" s="25"/>
       <c r="N59" s="120"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
       <c r="U59" s="14"/>
     </row>
     <row r="60" spans="1:21">
@@ -13659,11 +13647,11 @@
       <c r="M60" s="25"/>
       <c r="N60" s="120"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
       <c r="U60" s="14"/>
     </row>
     <row r="61" spans="1:21">
@@ -13843,81 +13831,197 @@
       <c r="M68" s="25"/>
       <c r="N68" s="120"/>
       <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
       <c r="U68" s="14"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="15"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
       <c r="N69" s="120"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="17"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="14"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="10"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="120"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="14"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="10"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="14"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="10"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="120"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="14"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="10"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="14"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="15"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="120"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B33:G33"/>
+  <mergeCells count="37">
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B38:G38"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46:N69" xr:uid="{2DA0E2F9-CEA5-1D4F-AE50-95E1CB9320FD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N51:N74" xr:uid="{2DA0E2F9-CEA5-1D4F-AE50-95E1CB9320FD}">
       <formula1>path</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O46:O69" xr:uid="{A7248111-DAEF-5C48-9FF6-28E1969AA06B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O51:O74" xr:uid="{A7248111-DAEF-5C48-9FF6-28E1969AA06B}">
       <formula1>isNullable</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22" xr:uid="{4658C7EA-C894-FB4C-9A2C-FB1119DE0653}">
@@ -13952,7 +14056,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G46:G69</xm:sqref>
+          <xm:sqref>G51:G74</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14103,10 +14207,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -14116,10 +14220,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -14145,28 +14249,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -14178,12 +14282,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -14195,12 +14299,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -14212,12 +14316,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -14233,29 +14337,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="150"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -14270,14 +14374,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -14289,12 +14393,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -14306,12 +14410,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -14340,29 +14444,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="150"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -14375,12 +14479,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -14393,12 +14497,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="170"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -14410,12 +14514,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="171"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -14468,64 +14572,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="182" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="180" t="s">
+      <c r="D37" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="J37" s="176" t="s">
+      <c r="J37" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="K37" s="186" t="s">
+      <c r="K37" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188" t="s">
+      <c r="L37" s="188"/>
+      <c r="M37" s="189" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="187"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="180" t="s">
+      <c r="P37" s="182" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="189"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="177"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -14541,7 +14645,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="189"/>
+      <c r="P38" s="186"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -15039,6 +15143,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -15051,23 +15172,6 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -15277,10 +15381,10 @@
         <v>168</v>
       </c>
       <c r="B15" s="111"/>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="155"/>
       <c r="E15" s="1" t="s">
         <v>170</v>
       </c>
@@ -15290,10 +15394,10 @@
         <v>171</v>
       </c>
       <c r="B16" s="111"/>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="133"/>
+      <c r="D16" s="155"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
@@ -15319,28 +15423,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="169" t="s">
+      <c r="A19" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="133"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -15352,12 +15456,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -15369,12 +15473,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="150"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -15386,12 +15490,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -15407,29 +15511,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="166" t="s">
+      <c r="A25" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="168"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="150"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="144" t="s">
+      <c r="B26" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -15444,14 +15548,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -15463,12 +15567,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -15480,12 +15584,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="136"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -15514,29 +15618,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="166" t="s">
+      <c r="A31" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="150"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -15549,12 +15653,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="148"/>
-      <c r="C33" s="148"/>
-      <c r="D33" s="148"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="169"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -15567,12 +15671,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="151"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="170"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -15584,12 +15688,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="153"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="163"/>
+      <c r="G35" s="171"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -15642,64 +15746,64 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="180" t="s">
+      <c r="B39" s="182" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="180" t="s">
+      <c r="D39" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="180" t="s">
+      <c r="E39" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="180" t="s">
+      <c r="F39" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G39" s="180" t="s">
+      <c r="G39" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="190" t="s">
+      <c r="H39" s="191" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="190" t="s">
+      <c r="I39" s="191" t="s">
         <v>225</v>
       </c>
-      <c r="J39" s="176" t="s">
+      <c r="J39" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="K39" s="186" t="s">
+      <c r="K39" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="187"/>
-      <c r="M39" s="188" t="s">
+      <c r="L39" s="188"/>
+      <c r="M39" s="189" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="187"/>
+      <c r="N39" s="188"/>
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="180" t="s">
+      <c r="P39" s="182" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="189"/>
-      <c r="B40" s="189"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="189"/>
-      <c r="E40" s="181"/>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="177"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="186"/>
+      <c r="J40" s="184"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -15715,7 +15819,7 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="189"/>
+      <c r="P40" s="186"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
@@ -16171,6 +16275,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -16183,23 +16304,6 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -16245,10 +16349,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -16421,10 +16525,10 @@
         <v>168</v>
       </c>
       <c r="B17" s="111"/>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="133"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="1" t="s">
         <v>170</v>
       </c>
@@ -16434,20 +16538,20 @@
         <v>171</v>
       </c>
       <c r="B18" s="111"/>
-      <c r="C18" s="133" t="s">
+      <c r="C18" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D18" s="133"/>
+      <c r="D18" s="155"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="154" t="s">
         <v>210</v>
       </c>
-      <c r="D19" s="133"/>
+      <c r="D19" s="155"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
@@ -16530,165 +16634,126 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="169" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="A24" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="153"/>
     </row>
     <row r="25" spans="1:22">
-      <c r="A25" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="163" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="164"/>
-      <c r="E25" s="164"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="165"/>
+      <c r="A25" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="192"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="94"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
       <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="95"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
     </row>
     <row r="26" spans="1:22">
-      <c r="A26" s="106"/>
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="148"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
+      <c r="A26" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="103"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" spans="1:22">
-      <c r="A27" s="107"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
+      <c r="A27" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="103"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="99"/>
     </row>
     <row r="28" spans="1:22">
-      <c r="A28" s="108"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
+      <c r="C28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="C29"/>
+      <c r="A29" s="130" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
     </row>
     <row r="30" spans="1:22">
-      <c r="A30" s="166" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="168"/>
+      <c r="A30" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="U30" s="101"/>
+      <c r="V30" s="101"/>
     </row>
     <row r="31" spans="1:22">
-      <c r="A31" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="144" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="U31" s="101"/>
-      <c r="V31" s="101"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="161"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="106">
-        <v>1</v>
-      </c>
-      <c r="B32" s="145" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
+      <c r="A32" s="107"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="162"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -16705,13 +16770,13 @@
       <c r="V32"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="107"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="163"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -16728,96 +16793,81 @@
       <c r="V33"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="108"/>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
+      <c r="C34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
+      <c r="A35" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="150"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="166" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
+      <c r="A36" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="168" t="s">
+        <v>178</v>
+      </c>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
       <c r="G36" s="168"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="95"/>
+      <c r="S36" s="95"/>
+      <c r="U36" s="101"/>
+      <c r="V36" s="101"/>
     </row>
     <row r="37" spans="1:22">
-      <c r="A37" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="144" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="95"/>
-      <c r="O37" s="95"/>
-      <c r="P37" s="95"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="95"/>
-      <c r="S37" s="95"/>
-      <c r="U37" s="101"/>
-      <c r="V37" s="101"/>
+      <c r="A37" s="106">
+        <v>1</v>
+      </c>
+      <c r="B37" s="134" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="102"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
     </row>
     <row r="38" spans="1:22">
-      <c r="A38" s="106"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="149"/>
+      <c r="A38" s="107"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="135"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -16834,13 +16884,13 @@
       <c r="V38"/>
     </row>
     <row r="39" spans="1:22">
-      <c r="A39" s="107"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="151"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -16857,438 +16907,379 @@
       <c r="V39"/>
     </row>
     <row r="40" spans="1:22">
-      <c r="A40" s="108"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="102"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="102"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="102"/>
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
       <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
+      <c r="A41" s="148" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="150"/>
     </row>
     <row r="42" spans="1:22">
-      <c r="A42" s="6"/>
-      <c r="N42" s="1" t="s">
+      <c r="A42" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="168" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="95"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="U42" s="101"/>
+      <c r="V42" s="101"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="106"/>
+      <c r="B43" s="161"/>
+      <c r="C43" s="161"/>
+      <c r="D43" s="161"/>
+      <c r="E43" s="161"/>
+      <c r="F43" s="161"/>
+      <c r="G43" s="169"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="N43" s="102"/>
+      <c r="O43" s="102"/>
+      <c r="P43" s="102"/>
+      <c r="Q43" s="102"/>
+      <c r="R43" s="102"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="107"/>
+      <c r="B44" s="162"/>
+      <c r="C44" s="162"/>
+      <c r="D44" s="162"/>
+      <c r="E44" s="162"/>
+      <c r="F44" s="162"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="102"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="108"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="163"/>
+      <c r="F45" s="163"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="N45" s="102"/>
+      <c r="O45" s="102"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="102"/>
+      <c r="R45" s="102"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="6"/>
+      <c r="N47" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="4" t="s">
+    <row r="48" spans="1:22">
+      <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="109"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="5"/>
-    </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="176" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="5"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="176" t="s">
+      <c r="B49" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C49" s="179" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D49" s="177" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="180" t="s">
+      <c r="E49" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="180" t="s">
+      <c r="F49" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G44" s="176" t="s">
+      <c r="G49" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="176" t="s">
+      <c r="H49" s="177" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="176" t="s">
+      <c r="I49" s="177" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="180" t="s">
+      <c r="J49" s="182" t="s">
         <v>238</v>
       </c>
-      <c r="K44" s="180" t="s">
+      <c r="K49" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="L44" s="179" t="s">
+      <c r="L49" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="M44" s="176" t="s">
+      <c r="M49" s="177" t="s">
         <v>225</v>
       </c>
-      <c r="N44" s="176" t="s">
+      <c r="N49" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="O44" s="176" t="s">
+      <c r="O49" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="P44" s="183" t="s">
+      <c r="P49" s="180" t="s">
         <v>70</v>
       </c>
-      <c r="Q44" s="184"/>
-      <c r="R44" s="183" t="s">
+      <c r="Q49" s="181"/>
+      <c r="R49" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="S44" s="184"/>
-      <c r="T44" s="32" t="s">
+      <c r="S49" s="181"/>
+      <c r="T49" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U44" s="176" t="s">
+      <c r="U49" s="177" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="181"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="177"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="178"/>
-      <c r="O45" s="177"/>
-      <c r="P45" s="27" t="s">
+    <row r="50" spans="1:21">
+      <c r="A50" s="178"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="183"/>
+      <c r="F50" s="183"/>
+      <c r="G50" s="178"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="184"/>
+      <c r="M50" s="178"/>
+      <c r="N50" s="178"/>
+      <c r="O50" s="184"/>
+      <c r="P50" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="Q45" s="27" t="s">
+      <c r="Q50" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="27" t="s">
+      <c r="R50" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S45" s="27" t="s">
+      <c r="S50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="T45" s="27" t="s">
+      <c r="T50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U45" s="178"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="7">
+      <c r="U50" s="178"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="7">
         <v>1</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B51" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D51" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="23"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="75" t="s">
+      <c r="E51" s="23"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23" t="s">
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="M46" s="23" t="s">
+      <c r="M51" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="N46" s="120" t="s">
+      <c r="N51" s="120" t="s">
         <v>198</v>
       </c>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23">
+      <c r="O51" s="23"/>
+      <c r="P51" s="23">
         <v>0</v>
       </c>
-      <c r="Q46" s="28">
+      <c r="Q51" s="28">
         <v>10</v>
       </c>
-      <c r="R46" s="23"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="9"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="10">
-        <f t="shared" ref="A47:A52" si="0">A46+1</f>
-        <v>2</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="120" t="s">
-        <v>198</v>
-      </c>
-      <c r="O47" s="24"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="29"/>
-      <c r="R47" s="20">
-        <v>0</v>
-      </c>
-      <c r="S47" s="29">
-        <v>100</v>
-      </c>
-      <c r="T47" s="29"/>
-      <c r="U47" s="12"/>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B48" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O48" s="24"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="14"/>
-    </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="13"/>
-      <c r="D49" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E49" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="73"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="K49" s="73"/>
-      <c r="L49" s="73"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O49" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="14"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B50" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F50" s="25"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
-      <c r="A51" s="10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B51" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="120" t="s">
-        <v>201</v>
-      </c>
-      <c r="O51" s="24"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="14"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="9"/>
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
+        <f t="shared" ref="A52:A57" si="0">A51+1</f>
+        <v>2</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="76" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
       <c r="N52" s="120" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O52" s="24"/>
       <c r="P52" s="20"/>
       <c r="Q52" s="29"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="29"/>
+      <c r="R52" s="20">
+        <v>0</v>
+      </c>
+      <c r="S52" s="29">
+        <v>100</v>
+      </c>
       <c r="T52" s="29"/>
-      <c r="U52" s="14"/>
+      <c r="U52" s="12"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="10"/>
-      <c r="B53" s="21"/>
+      <c r="A53" s="10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="D53" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="F53" s="25"/>
       <c r="G53" s="77"/>
       <c r="H53" s="25"/>
@@ -17297,7 +17288,9 @@
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
-      <c r="N53" s="120"/>
+      <c r="N53" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O53" s="24"/>
       <c r="P53" s="20"/>
       <c r="Q53" s="29"/>
@@ -17307,34 +17300,60 @@
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="10"/>
-      <c r="B54" s="21"/>
+      <c r="A54" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="120"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
+      <c r="D54" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="73"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="120" t="s">
+        <v>201</v>
+      </c>
+      <c r="O54" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
       <c r="U54" s="14"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="10"/>
-      <c r="B55" s="21"/>
+      <c r="A55" s="10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>95</v>
+      </c>
       <c r="C55" s="13"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="D55" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="F55" s="25"/>
       <c r="G55" s="77"/>
       <c r="H55" s="25"/>
@@ -17343,20 +17362,31 @@
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
-      <c r="N55" s="120"/>
+      <c r="N55" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O55" s="24"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="29"/>
-      <c r="U55" s="14"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="30"/>
+      <c r="T55" s="30"/>
+      <c r="U55" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="10"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="25"/>
+      <c r="D56" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="77"/>
@@ -17366,7 +17396,9 @@
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="120"/>
+      <c r="N56" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O56" s="24"/>
       <c r="P56" s="20"/>
       <c r="Q56" s="29"/>
@@ -17376,10 +17408,17 @@
       <c r="U56" s="14"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="10"/>
-      <c r="B57" s="21"/>
+      <c r="A57" s="10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>112</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="25"/>
+      <c r="D57" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="77"/>
@@ -17389,7 +17428,9 @@
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
-      <c r="N57" s="120"/>
+      <c r="N57" s="120" t="s">
+        <v>201</v>
+      </c>
       <c r="O57" s="24"/>
       <c r="P57" s="20"/>
       <c r="Q57" s="29"/>
@@ -17437,11 +17478,11 @@
       <c r="M59" s="25"/>
       <c r="N59" s="120"/>
       <c r="O59" s="24"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
       <c r="U59" s="14"/>
     </row>
     <row r="60" spans="1:21">
@@ -17460,11 +17501,11 @@
       <c r="M60" s="25"/>
       <c r="N60" s="120"/>
       <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
       <c r="U60" s="14"/>
     </row>
     <row r="61" spans="1:21">
@@ -17644,74 +17685,190 @@
       <c r="M68" s="25"/>
       <c r="N68" s="120"/>
       <c r="O68" s="24"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="24"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
       <c r="U68" s="14"/>
     </row>
     <row r="69" spans="1:21">
-      <c r="A69" s="15"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
       <c r="N69" s="120"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="17"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="14"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="10"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="120"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="14"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="10"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="120"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="14"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="10"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="120"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="14"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="10"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="120"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="30"/>
+      <c r="R73" s="24"/>
+      <c r="S73" s="30"/>
+      <c r="T73" s="30"/>
+      <c r="U73" s="14"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="15"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="120"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="31"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="31"/>
+      <c r="T74" s="31"/>
+      <c r="U74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B33:G33"/>
+  <mergeCells count="37">
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="B38:G38"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O45"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -17721,10 +17878,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20:C22" xr:uid="{05C8570F-5C8D-D042-A4D5-6D669C8E7927}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O46:O69" xr:uid="{70B56FB3-0B4F-984A-ACAD-A75D69916C72}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O51:O74" xr:uid="{70B56FB3-0B4F-984A-ACAD-A75D69916C72}">
       <formula1>isNullable</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46:N69" xr:uid="{EA4DA1A2-9652-4749-AC1A-5FC9AD1A8C7A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N51:N74" xr:uid="{EA4DA1A2-9652-4749-AC1A-5FC9AD1A8C7A}">
       <formula1>path</formula1>
     </dataValidation>
   </dataValidations>
@@ -17741,7 +17898,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G46:G69</xm:sqref>
+          <xm:sqref>G51:G74</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{77FCF7A3-3536-BC4B-8BA9-4349B93D5937}">
           <x14:formula1>
@@ -17904,10 +18061,10 @@
         <v>168</v>
       </c>
       <c r="B13" s="111"/>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="155" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="155"/>
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
@@ -17917,10 +18074,10 @@
         <v>171</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="155"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
@@ -17946,28 +18103,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="130" t="s">
         <v>186</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="163" t="s">
+      <c r="B18" s="131" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -17979,12 +18136,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -17996,12 +18153,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="150"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="162"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -18013,12 +18170,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="163"/>
+      <c r="D21" s="163"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="163"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -18034,29 +18191,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="148" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="150"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -18071,14 +18228,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="145" t="s">
+      <c r="B25" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -18090,12 +18247,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
+      <c r="B26" s="135"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -18107,12 +18264,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="147"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="136"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -18141,29 +18298,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="166" t="s">
+      <c r="A29" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="150"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="144" t="s">
+      <c r="B30" s="168" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -18176,12 +18333,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="149"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="161"/>
+      <c r="F31" s="161"/>
+      <c r="G31" s="169"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -18194,12 +18351,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="151"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="162"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="162"/>
+      <c r="G32" s="170"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -18211,12 +18368,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="163"/>
+      <c r="F33" s="163"/>
+      <c r="G33" s="171"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -18269,64 +18426,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="180" t="s">
+      <c r="A37" s="182" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="180" t="s">
+      <c r="B37" s="182" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="180" t="s">
+      <c r="D37" s="182" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="180" t="s">
+      <c r="E37" s="182" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="180" t="s">
+      <c r="F37" s="182" t="s">
         <v>171</v>
       </c>
-      <c r="G37" s="180" t="s">
+      <c r="G37" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="180" t="s">
+      <c r="H37" s="182" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="180" t="s">
+      <c r="I37" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="J37" s="176" t="s">
+      <c r="J37" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="K37" s="186" t="s">
+      <c r="K37" s="187" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="187"/>
-      <c r="M37" s="188" t="s">
+      <c r="L37" s="188"/>
+      <c r="M37" s="189" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="187"/>
+      <c r="N37" s="188"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="180" t="s">
+      <c r="P37" s="182" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="189"/>
-      <c r="B38" s="189"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="181"/>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="177"/>
+      <c r="D38" s="186"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="186"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="186"/>
+      <c r="J38" s="184"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -18342,7 +18499,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="189"/>
+      <c r="P38" s="186"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -18840,6 +18997,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -18852,23 +19026,6 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">

--- a/meta/plainApi/BlancoApiPlainSample.xlsx
+++ b/meta/plainApi/BlancoApiPlainSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoRestGeneratorKt/meta/plainApi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510ED3B9-B476-BE43-9ADE-84C866458238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC7C8AC-B75F-9845-B850-9A2307008072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12760" yWindow="4400" windowWidth="29440" windowHeight="20500" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="260">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -1972,10 +1972,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ObjectSample</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>配置ディレクトリ</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ハイチ </t>
@@ -2607,6 +2603,30 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>総称型</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ソウショウガタ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※ 当面の間 kotlin のみ対応</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トウメｎ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">アイダ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">タイオウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3791,133 +3811,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3932,10 +3843,136 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3945,20 +3982,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3969,17 +3994,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4570,157 +4590,157 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="174" t="s">
+      <c r="A6" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="175"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="172" t="s">
-        <v>234</v>
-      </c>
-      <c r="E6" s="172"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="134" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="134"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="172" t="s">
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="172"/>
+      <c r="E7" s="134"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="172" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="172"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="134" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="134"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="133" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="172" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="172"/>
+      <c r="E9" s="134"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="172"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="172" t="s">
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="172"/>
+      <c r="E11" s="134"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="135" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="155" t="s">
+      <c r="E12" s="137"/>
+      <c r="F12" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E12" s="155"/>
-      <c r="F12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="135" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="154" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="155"/>
+      <c r="B13" s="135"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="136" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="137"/>
     </row>
     <row r="14" spans="1:6" ht="55" customHeight="1">
-      <c r="A14" s="142" t="s">
-        <v>208</v>
-      </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="173" t="s">
-        <v>233</v>
-      </c>
-      <c r="E14" s="155"/>
+      <c r="A14" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="135"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="138" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="137"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="135"/>
+      <c r="C15" s="135"/>
+      <c r="D15" s="136"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="1" t="s">
+      <c r="B16" s="135"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="142" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="154"/>
-      <c r="E16" s="155"/>
-      <c r="F16" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="177" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="157"/>
-      <c r="C17" s="158"/>
+      <c r="B17" s="178"/>
+      <c r="C17" s="179"/>
       <c r="D17" s="104"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="143" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
+      <c r="A18" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
       <c r="D18" s="90" t="s">
         <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18"/>
       <c r="G18"/>
@@ -4735,19 +4755,19 @@
       <c r="B19" s="6"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="151" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="153"/>
+      <c r="A20" s="174" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="176"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B21" s="100"/>
       <c r="C21" s="92"/>
@@ -4774,7 +4794,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="103"/>
       <c r="C23" s="89"/>
@@ -4787,28 +4807,28 @@
       <c r="C24"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="130" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
+      <c r="A25" s="173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="173"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="173"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="133"/>
+      <c r="B26" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="169"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
@@ -4819,12 +4839,12 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="106"/>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4835,12 +4855,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="107"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -4851,12 +4871,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="108"/>
-      <c r="B29" s="163"/>
-      <c r="C29" s="163"/>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -4883,33 +4903,33 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="130" t="s">
-        <v>252</v>
-      </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
+      <c r="A32" s="173" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" s="173"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="173"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="133"/>
+      <c r="B33" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="169"/>
       <c r="H33" s="95"/>
       <c r="I33" s="95"/>
       <c r="J33" s="95"/>
@@ -4922,14 +4942,14 @@
       <c r="A34" s="106">
         <v>1</v>
       </c>
-      <c r="B34" s="134" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
+      <c r="B34" s="149" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -4940,12 +4960,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="107"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
+      <c r="B35" s="150"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="102"/>
@@ -4956,12 +4976,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="108"/>
-      <c r="B36" s="136"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="136"/>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
       <c r="H36" s="102"/>
       <c r="I36" s="102"/>
       <c r="J36" s="102"/>
@@ -4974,28 +4994,28 @@
       <c r="C37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="148" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="149"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="150"/>
+      <c r="A38" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="172"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
+      <c r="B39" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="148"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
       <c r="H39" s="95"/>
       <c r="I39" s="95"/>
       <c r="J39" s="95"/>
@@ -5008,14 +5028,14 @@
       <c r="A40" s="106">
         <v>1</v>
       </c>
-      <c r="B40" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
+      <c r="B40" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -5026,12 +5046,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="107"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
-      <c r="D41" s="135"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="135"/>
-      <c r="G41" s="135"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
       <c r="J41" s="102"/>
@@ -5042,12 +5062,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="108"/>
-      <c r="B42" s="136"/>
-      <c r="C42" s="136"/>
-      <c r="D42" s="136"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
       <c r="H42" s="102"/>
       <c r="I42" s="102"/>
       <c r="J42" s="102"/>
@@ -5072,28 +5092,28 @@
       <c r="M43"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="148" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" s="149"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="150"/>
+      <c r="A44" s="170" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="172"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
+      <c r="B45" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="148"/>
       <c r="H45" s="95"/>
       <c r="I45" s="95"/>
       <c r="J45" s="95"/>
@@ -5104,12 +5124,12 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="106"/>
-      <c r="B46" s="161"/>
-      <c r="C46" s="161"/>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="169"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="153"/>
       <c r="H46" s="102"/>
       <c r="I46" s="102"/>
       <c r="J46" s="102"/>
@@ -5120,12 +5140,12 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="107"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="162"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="170"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="155"/>
       <c r="H47" s="102"/>
       <c r="I47" s="102"/>
       <c r="J47" s="102"/>
@@ -5136,12 +5156,12 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="108"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="171"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="157"/>
       <c r="H48" s="102"/>
       <c r="I48" s="102"/>
       <c r="J48" s="102"/>
@@ -5167,25 +5187,25 @@
       <c r="O49"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="130" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="130"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
+      <c r="A50" s="173" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="173"/>
+      <c r="C50" s="173"/>
+      <c r="D50" s="173"/>
+      <c r="E50" s="173"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="105" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="105" t="s">
         <v>196</v>
-      </c>
-      <c r="C51" s="105" t="s">
-        <v>197</v>
       </c>
       <c r="D51" s="105"/>
       <c r="E51" s="105"/>
@@ -5204,10 +5224,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D52" s="120"/>
       <c r="E52" s="120"/>
@@ -5226,10 +5246,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C53" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D53" s="120"/>
       <c r="E53" s="120"/>
@@ -5248,10 +5268,10 @@
         <v>3</v>
       </c>
       <c r="B54" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="120" t="s">
         <v>200</v>
-      </c>
-      <c r="C54" s="120" t="s">
-        <v>201</v>
       </c>
       <c r="D54" s="120"/>
       <c r="E54" s="120"/>
@@ -5291,221 +5311,304 @@
       <c r="F56" s="5"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="139" t="s">
+      <c r="A57" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="141"/>
-      <c r="C57" s="139" t="s">
+      <c r="B57" s="163"/>
+      <c r="C57" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="140"/>
-      <c r="E57" s="141"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="163"/>
       <c r="F57" s="27" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="146"/>
-      <c r="B58" s="147"/>
-      <c r="C58" s="146"/>
-      <c r="D58" s="164"/>
-      <c r="E58" s="147"/>
+      <c r="A58" s="158"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="160"/>
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="137"/>
-      <c r="B59" s="138"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="138"/>
+      <c r="A59" s="142"/>
+      <c r="B59" s="144"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="144"/>
       <c r="F59" s="43"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="137"/>
-      <c r="B60" s="138"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="138"/>
+      <c r="A60" s="142"/>
+      <c r="B60" s="144"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="144"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="137"/>
-      <c r="B61" s="138"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="138"/>
+      <c r="A61" s="142"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="137"/>
-      <c r="B62" s="138"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="138"/>
+      <c r="A62" s="142"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="143"/>
+      <c r="E62" s="144"/>
       <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="137"/>
-      <c r="B63" s="138"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="138"/>
+      <c r="A63" s="142"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="143"/>
+      <c r="E63" s="144"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="137"/>
-      <c r="B64" s="138"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="138"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="143"/>
+      <c r="E64" s="144"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="137"/>
-      <c r="B65" s="138"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="138"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="143"/>
+      <c r="E65" s="144"/>
       <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="137"/>
-      <c r="B66" s="138"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="138"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="143"/>
+      <c r="E66" s="144"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="137"/>
-      <c r="B67" s="138"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="138"/>
+      <c r="A67" s="142"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="137"/>
-      <c r="B68" s="138"/>
-      <c r="C68" s="137"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="138"/>
+      <c r="A68" s="142"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="143"/>
+      <c r="E68" s="144"/>
       <c r="F68" s="43"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="137"/>
-      <c r="B69" s="138"/>
-      <c r="C69" s="137"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="138"/>
+      <c r="A69" s="142"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="143"/>
+      <c r="E69" s="144"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="137"/>
-      <c r="B70" s="138"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="138"/>
+      <c r="A70" s="142"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="142"/>
+      <c r="D70" s="143"/>
+      <c r="E70" s="144"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="137"/>
-      <c r="B71" s="138"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="138"/>
+      <c r="A71" s="142"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="143"/>
+      <c r="E71" s="144"/>
       <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="137"/>
-      <c r="B72" s="138"/>
-      <c r="C72" s="137"/>
-      <c r="D72" s="165"/>
-      <c r="E72" s="138"/>
+      <c r="A72" s="142"/>
+      <c r="B72" s="144"/>
+      <c r="C72" s="142"/>
+      <c r="D72" s="143"/>
+      <c r="E72" s="144"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="137"/>
-      <c r="B73" s="138"/>
-      <c r="C73" s="137"/>
-      <c r="D73" s="165"/>
-      <c r="E73" s="138"/>
+      <c r="A73" s="142"/>
+      <c r="B73" s="144"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="143"/>
+      <c r="E73" s="144"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="137"/>
-      <c r="B74" s="138"/>
-      <c r="C74" s="137"/>
-      <c r="D74" s="165"/>
-      <c r="E74" s="138"/>
+      <c r="A74" s="142"/>
+      <c r="B74" s="144"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="143"/>
+      <c r="E74" s="144"/>
       <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="137"/>
-      <c r="B75" s="138"/>
-      <c r="C75" s="137"/>
-      <c r="D75" s="165"/>
-      <c r="E75" s="138"/>
+      <c r="A75" s="142"/>
+      <c r="B75" s="144"/>
+      <c r="C75" s="142"/>
+      <c r="D75" s="143"/>
+      <c r="E75" s="144"/>
       <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="137"/>
-      <c r="B76" s="138"/>
-      <c r="C76" s="137"/>
-      <c r="D76" s="165"/>
-      <c r="E76" s="138"/>
+      <c r="A76" s="142"/>
+      <c r="B76" s="144"/>
+      <c r="C76" s="142"/>
+      <c r="D76" s="143"/>
+      <c r="E76" s="144"/>
       <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="137"/>
-      <c r="B77" s="138"/>
-      <c r="C77" s="137"/>
-      <c r="D77" s="165"/>
-      <c r="E77" s="138"/>
+      <c r="A77" s="142"/>
+      <c r="B77" s="144"/>
+      <c r="C77" s="142"/>
+      <c r="D77" s="143"/>
+      <c r="E77" s="144"/>
       <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="137"/>
-      <c r="B78" s="138"/>
-      <c r="C78" s="137"/>
-      <c r="D78" s="165"/>
-      <c r="E78" s="138"/>
+      <c r="A78" s="142"/>
+      <c r="B78" s="144"/>
+      <c r="C78" s="142"/>
+      <c r="D78" s="143"/>
+      <c r="E78" s="144"/>
       <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="137"/>
-      <c r="B79" s="138"/>
-      <c r="C79" s="137"/>
-      <c r="D79" s="165"/>
-      <c r="E79" s="138"/>
+      <c r="A79" s="142"/>
+      <c r="B79" s="144"/>
+      <c r="C79" s="142"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="144"/>
       <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="137"/>
-      <c r="B80" s="138"/>
-      <c r="C80" s="137"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="138"/>
+      <c r="A80" s="142"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="142"/>
+      <c r="D80" s="143"/>
+      <c r="E80" s="144"/>
       <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="137"/>
-      <c r="B81" s="138"/>
-      <c r="C81" s="137"/>
-      <c r="D81" s="165"/>
-      <c r="E81" s="138"/>
+      <c r="A81" s="142"/>
+      <c r="B81" s="144"/>
+      <c r="C81" s="142"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="144"/>
       <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="159"/>
-      <c r="B82" s="160"/>
-      <c r="C82" s="159"/>
-      <c r="D82" s="167"/>
-      <c r="E82" s="160"/>
+      <c r="A82" s="145"/>
+      <c r="B82" s="147"/>
+      <c r="C82" s="145"/>
+      <c r="D82" s="146"/>
+      <c r="E82" s="147"/>
       <c r="F82" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="C79:E79"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -5522,89 +5625,6 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="C80:E80"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="2">
@@ -5731,7 +5751,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="114"/>
     </row>
@@ -5741,7 +5761,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -5771,26 +5791,26 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5813,47 +5833,47 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="155" t="s">
+      <c r="D17" s="137"/>
+      <c r="E17" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="137"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="155"/>
+      <c r="C19" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="137"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -5871,14 +5891,14 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -5896,14 +5916,14 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -5923,28 +5943,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
+      <c r="A24" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="133"/>
+      <c r="B25" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -5961,12 +5981,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="106"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -5983,12 +6003,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="107"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -6005,12 +6025,12 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="108"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -6029,28 +6049,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
+      <c r="A30" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="172"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -6069,14 +6089,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
+      <c r="B32" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -6093,12 +6113,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="107"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -6115,12 +6135,12 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="108"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -6157,28 +6177,28 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="150"/>
+      <c r="A36" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="172"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
+      <c r="B37" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -6195,12 +6215,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="106"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="169"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -6217,12 +6237,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="107"/>
-      <c r="B39" s="162"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="162"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="170"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -6239,12 +6259,12 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="108"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="171"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -6283,7 +6303,7 @@
     <row r="42" spans="1:21">
       <c r="A42" s="6"/>
       <c r="M42" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -6311,78 +6331,78 @@
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="179" t="s">
+      <c r="C44" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="177" t="s">
+      <c r="D44" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="182" t="s">
+      <c r="E44" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="177" t="s">
+      <c r="F44" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="177" t="s">
+      <c r="H44" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="177" t="s">
+      <c r="I44" s="180" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="K44" s="182" t="s">
-        <v>208</v>
-      </c>
-      <c r="L44" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="M44" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="N44" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="O44" s="180" t="s">
+      <c r="K44" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="L44" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="N44" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="181"/>
-      <c r="Q44" s="180" t="s">
+      <c r="P44" s="188"/>
+      <c r="Q44" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="181"/>
+      <c r="R44" s="188"/>
       <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="T44" s="177" t="s">
+      <c r="T44" s="180" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
-      <c r="L45" s="184"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="184"/>
+      <c r="A45" s="182"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="185"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="181"/>
       <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
@@ -6398,7 +6418,7 @@
       <c r="S45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="178"/>
+      <c r="T45" s="182"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="7">
@@ -6423,10 +6443,10 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M46" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N46" s="23"/>
       <c r="O46" s="23">
@@ -6465,7 +6485,7 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N47" s="24"/>
       <c r="O47" s="20"/>
@@ -6504,7 +6524,7 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N48" s="24" t="s">
         <v>137</v>
@@ -6535,7 +6555,7 @@
       <c r="G49" s="78"/>
       <c r="H49" s="73"/>
       <c r="I49" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J49" s="23" t="s">
         <v>101</v>
@@ -6543,7 +6563,7 @@
       <c r="K49" s="73"/>
       <c r="L49" s="73"/>
       <c r="M49" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N49" s="24"/>
       <c r="O49" s="20"/>
@@ -7020,12 +7040,23 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
@@ -7038,23 +7069,12 @@
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="B39:G39"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="B25:G25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -7209,19 +7229,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -7244,37 +7264,37 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="155" t="s">
+      <c r="D13" s="137"/>
+      <c r="E13" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27" customHeight="1">
       <c r="A14" s="111" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="111"/>
-      <c r="C14" s="190" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="155"/>
+      <c r="C14" s="189" t="s">
+        <v>240</v>
+      </c>
+      <c r="D14" s="137"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -7289,28 +7309,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
+      <c r="A17" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
+      <c r="B18" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -7322,12 +7342,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -7339,12 +7359,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -7356,12 +7376,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -7377,29 +7397,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
+      <c r="A23" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="172"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
+      <c r="B24" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -7414,14 +7434,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
+      <c r="B25" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -7435,14 +7455,14 @@
       <c r="A26" s="107">
         <v>2</v>
       </c>
-      <c r="B26" s="135" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
+      <c r="B26" s="150" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -7454,12 +7474,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -7488,29 +7508,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150"/>
+      <c r="A29" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="172"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="B30" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -7523,12 +7543,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -7541,12 +7561,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="170"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -7558,12 +7578,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -7616,64 +7636,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="182" t="s">
+      <c r="B37" s="184" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D37" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="182" t="s">
+      <c r="E37" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="182" t="s">
+      <c r="F37" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="182" t="s">
+      <c r="H37" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="182" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="187" t="s">
+      <c r="I37" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="188"/>
-      <c r="M37" s="189" t="s">
+      <c r="L37" s="191"/>
+      <c r="M37" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="188"/>
+      <c r="N37" s="191"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="182" t="s">
+      <c r="P37" s="184" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="186"/>
-      <c r="B38" s="186"/>
+      <c r="A38" s="193"/>
+      <c r="B38" s="193"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="184"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="181"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -7689,7 +7709,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="186"/>
+      <c r="P38" s="193"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -8187,6 +8207,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -8199,23 +8236,6 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -8645,16 +8665,16 @@
         <v>148</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="124" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8675,10 +8695,10 @@
         <v>138</v>
       </c>
       <c r="G5" s="125" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8695,15 +8715,15 @@
       <c r="E6" s="57"/>
       <c r="F6" s="57"/>
       <c r="G6" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="11" t="s">
@@ -8714,7 +8734,7 @@
       </c>
       <c r="G7" s="126"/>
       <c r="H7" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8836,7 +8856,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="114"/>
     </row>
@@ -8846,7 +8866,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -8876,26 +8896,26 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -8918,47 +8938,47 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="155" t="s">
+      <c r="D17" s="137"/>
+      <c r="E17" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="137"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="155"/>
+      <c r="C19" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="137"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -8976,14 +8996,14 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -9001,12 +9021,12 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="90"/>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -9026,28 +9046,28 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:21">
-      <c r="A24" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
+      <c r="A24" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="132"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="133"/>
+      <c r="B25" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="169"/>
       <c r="H25" s="95"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
@@ -9064,12 +9084,12 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="106"/>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -9086,12 +9106,12 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="107"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -9108,12 +9128,12 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="108"/>
-      <c r="B28" s="163"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="J28" s="102"/>
@@ -9132,28 +9152,28 @@
       <c r="C29"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
+      <c r="A30" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="172"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
+      <c r="B31" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
       <c r="H31" s="95"/>
       <c r="I31" s="95"/>
       <c r="J31" s="95"/>
@@ -9172,14 +9192,14 @@
       <c r="A32" s="106">
         <v>1</v>
       </c>
-      <c r="B32" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
+      <c r="B32" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -9196,12 +9216,12 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="107"/>
-      <c r="B33" s="135"/>
-      <c r="C33" s="135"/>
-      <c r="D33" s="135"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -9218,12 +9238,12 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="108"/>
-      <c r="B34" s="136"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="J34" s="102"/>
@@ -9260,28 +9280,28 @@
       <c r="S35"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B36" s="149"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="150"/>
+      <c r="A36" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="172"/>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
+      <c r="B37" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
       <c r="H37" s="95"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -9298,12 +9318,12 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="106"/>
-      <c r="B38" s="161"/>
-      <c r="C38" s="161"/>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="169"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="153"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -9320,12 +9340,12 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="107"/>
-      <c r="B39" s="162"/>
-      <c r="C39" s="162"/>
-      <c r="D39" s="162"/>
-      <c r="E39" s="162"/>
-      <c r="F39" s="162"/>
-      <c r="G39" s="170"/>
+      <c r="B39" s="154"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="155"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -9342,12 +9362,12 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="108"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="171"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
       <c r="J40" s="102"/>
@@ -9386,7 +9406,7 @@
     <row r="42" spans="1:21">
       <c r="A42" s="6"/>
       <c r="M42" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -9414,78 +9434,78 @@
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="177" t="s">
+      <c r="A44" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="179" t="s">
+      <c r="C44" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="177" t="s">
+      <c r="D44" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="182" t="s">
+      <c r="E44" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G44" s="177" t="s">
+      <c r="F44" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="177" t="s">
+      <c r="H44" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="177" t="s">
+      <c r="I44" s="180" t="s">
+        <v>236</v>
+      </c>
+      <c r="J44" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="J44" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="K44" s="182" t="s">
-        <v>208</v>
-      </c>
-      <c r="L44" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="M44" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="N44" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="O44" s="180" t="s">
+      <c r="K44" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="L44" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="M44" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="N44" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="O44" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="P44" s="181"/>
-      <c r="Q44" s="180" t="s">
+      <c r="P44" s="188"/>
+      <c r="Q44" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="181"/>
+      <c r="R44" s="188"/>
       <c r="S44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="T44" s="177" t="s">
+      <c r="T44" s="180" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="183"/>
-      <c r="K45" s="183"/>
-      <c r="L45" s="184"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="184"/>
+      <c r="A45" s="182"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="185"/>
+      <c r="F45" s="185"/>
+      <c r="G45" s="182"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="182"/>
+      <c r="J45" s="185"/>
+      <c r="K45" s="185"/>
+      <c r="L45" s="181"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="181"/>
       <c r="O45" s="27" t="s">
         <v>74</v>
       </c>
@@ -9501,7 +9521,7 @@
       <c r="S45" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="T45" s="178"/>
+      <c r="T45" s="182"/>
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="7">
@@ -9526,10 +9546,10 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M46" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N46" s="23"/>
       <c r="O46" s="23">
@@ -9568,7 +9588,7 @@
       <c r="K47" s="24"/>
       <c r="L47" s="24"/>
       <c r="M47" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N47" s="24"/>
       <c r="O47" s="20"/>
@@ -9607,7 +9627,7 @@
       <c r="K48" s="25"/>
       <c r="L48" s="25"/>
       <c r="M48" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N48" s="24" t="s">
         <v>137</v>
@@ -9638,7 +9658,7 @@
       <c r="G49" s="78"/>
       <c r="H49" s="73"/>
       <c r="I49" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J49" s="23" t="s">
         <v>101</v>
@@ -9646,7 +9666,7 @@
       <c r="K49" s="73"/>
       <c r="L49" s="73"/>
       <c r="M49" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N49" s="24" t="s">
         <v>137</v>
@@ -10125,25 +10145,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="A24:G24"/>
@@ -10160,6 +10161,25 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B37:G37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -10214,10 +10234,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10314,19 +10334,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -10348,108 +10368,104 @@
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="155" t="s">
+      <c r="D14" s="137"/>
+      <c r="E14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="15" spans="1:15" ht="27" customHeight="1">
+      <c r="A15" s="111" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="27" customHeight="1">
-      <c r="A14" s="111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="190" t="s">
-        <v>241</v>
-      </c>
-      <c r="D14" s="155"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="112" t="s">
+      <c r="B15" s="111"/>
+      <c r="C15" s="189" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="137"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="113"/>
+      <c r="C16" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="6"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="101"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="106"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="B19" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="169"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="107"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -10460,16 +10476,15 @@
       <c r="Q20"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="108"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="154"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
+      <c r="G21" s="154"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
-      <c r="J21" s="95"/>
       <c r="K21" s="102"/>
       <c r="L21" s="102"/>
       <c r="M21" s="102"/>
@@ -10478,76 +10493,73 @@
       <c r="Q21"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="C22"/>
-      <c r="J22" s="102"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
+      <c r="C23"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="172"/>
+      <c r="J24" s="102"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="168" t="s">
+      <c r="B25" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="106">
+        <v>1</v>
+      </c>
+      <c r="B26" s="149" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="106">
-        <v>1</v>
-      </c>
-      <c r="B25" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="107">
-        <v>2</v>
-      </c>
-      <c r="B26" s="135" t="s">
-        <v>240</v>
-      </c>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -10558,16 +10570,19 @@
       <c r="Q26"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="108"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
+      <c r="A27" s="107">
+        <v>2</v>
+      </c>
+      <c r="B27" s="150" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
-      <c r="J27" s="95"/>
       <c r="K27" s="102"/>
       <c r="L27" s="102"/>
       <c r="M27" s="102"/>
@@ -10576,84 +10591,85 @@
       <c r="Q27"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" s="102"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
       <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150"/>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
       <c r="J29" s="102"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="172"/>
+      <c r="J30" s="102"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="P30" s="101"/>
-      <c r="Q30" s="101"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="106"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="B31" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="107"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="170"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
+      <c r="J32"/>
       <c r="K32" s="102"/>
       <c r="L32" s="102"/>
       <c r="M32" s="102"/>
@@ -10662,16 +10678,15 @@
       <c r="Q32"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="108"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="171"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="155"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
-      <c r="J33" s="95"/>
       <c r="K33" s="102"/>
       <c r="L33" s="102"/>
       <c r="M33" s="102"/>
@@ -10680,194 +10695,186 @@
       <c r="Q33"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34" s="102"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
       <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="6"/>
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
       <c r="J35" s="102"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="6"/>
+      <c r="J36" s="102"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="48"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="49"/>
-    </row>
-    <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="182" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="49"/>
+    </row>
+    <row r="38" spans="1:17" ht="15">
+      <c r="A38" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="182" t="s">
+      <c r="B38" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C38" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D38" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="182" t="s">
+      <c r="E38" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="182" t="s">
+      <c r="F38" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G38" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="182" t="s">
+      <c r="H38" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="182" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="187" t="s">
+      <c r="I38" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="K38" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="188"/>
-      <c r="M37" s="189" t="s">
+      <c r="L38" s="191"/>
+      <c r="M38" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="188"/>
-      <c r="O37" s="50" t="s">
+      <c r="N38" s="191"/>
+      <c r="O38" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="182" t="s">
+      <c r="P38" s="184" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="186"/>
-      <c r="B38" s="186"/>
-      <c r="C38" s="52" t="s">
+    <row r="39" spans="1:17" ht="15">
+      <c r="A39" s="193"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="53" t="s">
+      <c r="D39" s="193"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="193"/>
+      <c r="H39" s="193"/>
+      <c r="I39" s="193"/>
+      <c r="J39" s="181"/>
+      <c r="K39" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="L38" s="53" t="s">
+      <c r="L39" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="M38" s="53" t="s">
+      <c r="M39" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="N38" s="53" t="s">
+      <c r="N39" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="O38" s="54" t="s">
+      <c r="O39" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="186"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="55">
-        <v>1</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="59"/>
+      <c r="P39" s="193"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E40" s="58"/>
       <c r="F40" s="58"/>
       <c r="G40" s="80"/>
       <c r="H40" s="58"/>
       <c r="I40" s="58"/>
-      <c r="J40" s="24" t="s">
+      <c r="J40" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
       <c r="P40" s="59"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
-        <v>3</v>
-      </c>
-      <c r="B41" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
+        <v>2</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
       <c r="J41" s="24" t="s">
         <v>137</v>
       </c>
@@ -10876,24 +10883,24 @@
       <c r="M41" s="56"/>
       <c r="N41" s="56"/>
       <c r="O41" s="56"/>
-      <c r="P41" s="62"/>
+      <c r="P41" s="59"/>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="55">
-        <v>4</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="65"/>
+        <v>3</v>
+      </c>
+      <c r="B42" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="24" t="s">
         <v>137</v>
       </c>
@@ -10902,48 +10909,48 @@
       <c r="M42" s="56"/>
       <c r="N42" s="56"/>
       <c r="O42" s="56"/>
-      <c r="P42" s="66"/>
+      <c r="P42" s="62"/>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C43" s="64"/>
       <c r="D43" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>167</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E43" s="65"/>
       <c r="F43" s="65"/>
-      <c r="G43" s="82"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="65"/>
       <c r="I43" s="65"/>
       <c r="J43" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
       <c r="P43" s="66"/>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="65"/>
+        <v>107</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>166</v>
+      </c>
       <c r="F44" s="65"/>
       <c r="G44" s="82"/>
       <c r="H44" s="65"/>
@@ -10951,23 +10958,23 @@
       <c r="J44" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
+      <c r="K44" s="58"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
       <c r="P44" s="66"/>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="65" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="E45" s="65"/>
       <c r="F45" s="65"/>
@@ -10985,16 +10992,24 @@
       <c r="P45" s="66"/>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="55"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="55">
+        <v>7</v>
+      </c>
+      <c r="B46" s="63" t="s">
+        <v>111</v>
+      </c>
       <c r="C46" s="64"/>
-      <c r="D46" s="65"/>
+      <c r="D46" s="65" t="s">
+        <v>258</v>
+      </c>
       <c r="E46" s="65"/>
       <c r="F46" s="65"/>
       <c r="G46" s="82"/>
       <c r="H46" s="65"/>
       <c r="I46" s="65"/>
-      <c r="J46" s="24"/>
+      <c r="J46" s="24" t="s">
+        <v>137</v>
+      </c>
       <c r="K46" s="56"/>
       <c r="L46" s="56"/>
       <c r="M46" s="56"/>
@@ -11013,11 +11028,11 @@
       <c r="H47" s="65"/>
       <c r="I47" s="65"/>
       <c r="J47" s="24"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
       <c r="P47" s="66"/>
     </row>
     <row r="48" spans="1:17">
@@ -11031,11 +11046,11 @@
       <c r="H48" s="65"/>
       <c r="I48" s="65"/>
       <c r="J48" s="24"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
       <c r="P48" s="66"/>
     </row>
     <row r="49" spans="1:16">
@@ -11121,11 +11136,11 @@
       <c r="H53" s="65"/>
       <c r="I53" s="65"/>
       <c r="J53" s="24"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
       <c r="P53" s="66"/>
     </row>
     <row r="54" spans="1:16">
@@ -11139,11 +11154,11 @@
       <c r="H54" s="65"/>
       <c r="I54" s="65"/>
       <c r="J54" s="24"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="58"/>
       <c r="P54" s="66"/>
     </row>
     <row r="55" spans="1:16">
@@ -11211,11 +11226,11 @@
       <c r="H58" s="65"/>
       <c r="I58" s="65"/>
       <c r="J58" s="24"/>
-      <c r="K58" s="58"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
       <c r="P58" s="66"/>
     </row>
     <row r="59" spans="1:16">
@@ -11229,11 +11244,11 @@
       <c r="H59" s="65"/>
       <c r="I59" s="65"/>
       <c r="J59" s="24"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
       <c r="P59" s="66"/>
     </row>
     <row r="60" spans="1:16">
@@ -11265,72 +11280,90 @@
       <c r="H61" s="65"/>
       <c r="I61" s="65"/>
       <c r="J61" s="24"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="58"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
+      <c r="K61" s="56"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="56"/>
       <c r="P61" s="66"/>
     </row>
     <row r="62" spans="1:16">
-      <c r="A62" s="67"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
-      <c r="O62" s="71"/>
-      <c r="P62" s="72"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="82"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="66"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="67"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
+      <c r="O63" s="71"/>
+      <c r="P63" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Validate実装パターン</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15" xr:uid="{701F546D-1FF6-BD4A-B0C0-0C5ED6D3FBB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16" xr:uid="{701F546D-1FF6-BD4A-B0C0-0C5ED6D3FBB2}">
       <formula1>isImport</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J39:J62" xr:uid="{92A7294B-4CDA-CF4D-AAF2-996905462F96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J40:J63" xr:uid="{92A7294B-4CDA-CF4D-AAF2-996905462F96}">
       <formula1>isNullable</formula1>
     </dataValidation>
   </dataValidations>
@@ -11347,7 +11380,7 @@
           <x14:formula1>
             <xm:f>config!$B$5:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G39:G62</xm:sqref>
+          <xm:sqref>G40:G63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
@@ -11456,7 +11489,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -11466,45 +11499,45 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -11527,37 +11560,37 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="155" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="137"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -11572,28 +11605,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
+      <c r="A19" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="133"/>
+      <c r="B20" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="169"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -11605,12 +11638,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -11622,12 +11655,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -11639,12 +11672,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -11660,29 +11693,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="150"/>
+      <c r="A25" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="172"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
+      <c r="B26" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -11697,14 +11730,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
+      <c r="B27" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -11716,12 +11749,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -11733,12 +11766,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -11767,29 +11800,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="150"/>
+      <c r="A31" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="172"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="B32" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -11802,12 +11835,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="169"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -11820,12 +11853,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="170"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -11837,12 +11870,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="171"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -11895,64 +11928,64 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="182" t="s">
+      <c r="A39" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="182" t="s">
+      <c r="B39" s="184" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="182" t="s">
+      <c r="E39" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="182" t="s">
+      <c r="F39" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="191" t="s">
+      <c r="H39" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="191" t="s">
-        <v>225</v>
-      </c>
-      <c r="J39" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K39" s="187" t="s">
+      <c r="I39" s="194" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="188"/>
-      <c r="M39" s="189" t="s">
+      <c r="L39" s="191"/>
+      <c r="M39" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="188"/>
+      <c r="N39" s="191"/>
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="182" t="s">
+      <c r="P39" s="184" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="193"/>
+      <c r="B40" s="193"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="184"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="181"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -11968,17 +12001,17 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="186"/>
+      <c r="P40" s="193"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>100</v>
@@ -12003,10 +12036,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>101</v>
@@ -12424,19 +12457,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B32:G32"/>
@@ -12453,6 +12473,19 @@
     <mergeCell ref="J39:J40"/>
     <mergeCell ref="K39:L39"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -12589,7 +12622,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="114"/>
     </row>
@@ -12599,7 +12632,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -12629,26 +12662,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -12671,47 +12704,47 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="155" t="s">
+      <c r="D17" s="137"/>
+      <c r="E17" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="137"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="155"/>
+      <c r="C19" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="137"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -12730,14 +12763,14 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -12756,14 +12789,14 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="112" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -12784,23 +12817,23 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="151" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153"/>
+      <c r="A24" s="174" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="176"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="100"/>
-      <c r="C25" s="192" t="s">
-        <v>255</v>
+      <c r="C25" s="130" t="s">
+        <v>254</v>
       </c>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
@@ -12817,8 +12850,8 @@
         <v>97</v>
       </c>
       <c r="B26" s="103"/>
-      <c r="C26" s="193" t="s">
-        <v>256</v>
+      <c r="C26" s="131" t="s">
+        <v>255</v>
       </c>
       <c r="D26" s="87"/>
       <c r="E26" s="87"/>
@@ -12827,10 +12860,10 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="103"/>
-      <c r="C27" s="194"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
       <c r="F27" s="98"/>
@@ -12840,28 +12873,28 @@
       <c r="C28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
+      <c r="A29" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="133"/>
+      <c r="B30" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
@@ -12879,12 +12912,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="106"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -12902,12 +12935,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="107"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -12925,12 +12958,12 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="108"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -12950,28 +12983,28 @@
       <c r="C34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="150"/>
+      <c r="A35" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="172"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
+      <c r="B36" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
@@ -12991,14 +13024,14 @@
       <c r="A37" s="106">
         <v>1</v>
       </c>
-      <c r="B37" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
+      <c r="B37" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -13016,12 +13049,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="107"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -13039,12 +13072,12 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="108"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -13083,28 +13116,28 @@
       <c r="T40"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="150"/>
+      <c r="A41" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="172"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
+      <c r="B42" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
@@ -13122,12 +13155,12 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="106"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="169"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="153"/>
       <c r="H43" s="102"/>
       <c r="I43" s="102"/>
       <c r="J43" s="102"/>
@@ -13145,12 +13178,12 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="107"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="170"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="155"/>
       <c r="H44" s="102"/>
       <c r="I44" s="102"/>
       <c r="J44" s="102"/>
@@ -13168,12 +13201,12 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="108"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="171"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="157"/>
       <c r="H45" s="102"/>
       <c r="I45" s="102"/>
       <c r="J45" s="102"/>
@@ -13214,7 +13247,7 @@
     <row r="47" spans="1:22">
       <c r="A47" s="6"/>
       <c r="N47" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -13243,82 +13276,82 @@
       <c r="U48" s="5"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="177" t="s">
+      <c r="A49" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="177" t="s">
+      <c r="D49" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="182" t="s">
+      <c r="E49" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49" s="177" t="s">
+      <c r="F49" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="177" t="s">
+      <c r="H49" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="177" t="s">
+      <c r="I49" s="180" t="s">
+        <v>236</v>
+      </c>
+      <c r="J49" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="J49" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="K49" s="182" t="s">
-        <v>208</v>
-      </c>
-      <c r="L49" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="M49" s="177" t="s">
-        <v>225</v>
-      </c>
-      <c r="N49" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="O49" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="P49" s="180" t="s">
+      <c r="K49" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="L49" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="180" t="s">
+        <v>224</v>
+      </c>
+      <c r="N49" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="O49" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="P49" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="Q49" s="181"/>
-      <c r="R49" s="180" t="s">
+      <c r="Q49" s="188"/>
+      <c r="R49" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="S49" s="181"/>
+      <c r="S49" s="188"/>
       <c r="T49" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U49" s="177" t="s">
+      <c r="U49" s="180" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="178"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="184"/>
-      <c r="M50" s="178"/>
-      <c r="N50" s="178"/>
-      <c r="O50" s="184"/>
+      <c r="A50" s="182"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="185"/>
+      <c r="K50" s="185"/>
+      <c r="L50" s="181"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="181"/>
       <c r="P50" s="27" t="s">
         <v>74</v>
       </c>
@@ -13334,7 +13367,7 @@
       <c r="T50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U50" s="178"/>
+      <c r="U50" s="182"/>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="7">
@@ -13359,13 +13392,13 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N51" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O51" s="23"/>
       <c r="P51" s="23">
@@ -13405,7 +13438,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
       <c r="N52" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O52" s="24"/>
       <c r="P52" s="20"/>
@@ -13443,7 +13476,7 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
       <c r="N53" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O53" s="24"/>
       <c r="P53" s="20"/>
@@ -13472,7 +13505,7 @@
       <c r="G54" s="78"/>
       <c r="H54" s="73"/>
       <c r="I54" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J54" s="23" t="s">
         <v>101</v>
@@ -13481,7 +13514,7 @@
       <c r="L54" s="73"/>
       <c r="M54" s="73"/>
       <c r="N54" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O54" s="24"/>
       <c r="P54" s="20"/>
@@ -13978,30 +14011,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -14015,6 +14024,30 @@
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="A24:G24"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -14169,19 +14202,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -14204,37 +14237,37 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="155" t="s">
+      <c r="D13" s="137"/>
+      <c r="E13" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="137"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -14249,28 +14282,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
+      <c r="A17" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
+      <c r="B18" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -14282,12 +14315,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -14299,12 +14332,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -14316,12 +14349,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -14337,29 +14370,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
+      <c r="A23" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="172"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
+      <c r="B24" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -14374,14 +14407,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
+      <c r="B25" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -14393,12 +14426,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -14410,12 +14443,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -14444,29 +14477,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150"/>
+      <c r="A29" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="172"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="B30" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -14479,12 +14512,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -14497,12 +14530,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="170"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -14514,12 +14547,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -14572,64 +14605,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="182" t="s">
+      <c r="B37" s="184" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D37" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="182" t="s">
+      <c r="E37" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="182" t="s">
+      <c r="F37" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="182" t="s">
+      <c r="H37" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="182" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="187" t="s">
+      <c r="I37" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="188"/>
-      <c r="M37" s="189" t="s">
+      <c r="L37" s="191"/>
+      <c r="M37" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="188"/>
+      <c r="N37" s="191"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="182" t="s">
+      <c r="P37" s="184" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="186"/>
-      <c r="B38" s="186"/>
+      <c r="A38" s="193"/>
+      <c r="B38" s="193"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="184"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="181"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -14645,7 +14678,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="186"/>
+      <c r="P38" s="193"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -15143,23 +15176,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -15172,6 +15188,23 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -15307,7 +15340,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="34"/>
     </row>
@@ -15317,45 +15350,45 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="127" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="46"/>
       <c r="D12" s="33"/>
       <c r="E12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -15378,37 +15411,37 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="155" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D15" s="155"/>
-      <c r="E15" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B16" s="111"/>
-      <c r="C16" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="137"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
@@ -15423,28 +15456,28 @@
       <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
+      <c r="A19" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="173"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="173"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="133"/>
+      <c r="B20" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="169"/>
       <c r="H20" s="95"/>
       <c r="I20" s="95"/>
       <c r="K20" s="95"/>
@@ -15456,12 +15489,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="106"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="K21" s="102"/>
@@ -15473,12 +15506,12 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="107"/>
-      <c r="B22" s="162"/>
-      <c r="C22" s="162"/>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
       <c r="H22" s="102"/>
       <c r="I22" s="102"/>
       <c r="K22" s="102"/>
@@ -15490,12 +15523,12 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="108"/>
-      <c r="B23" s="163"/>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
       <c r="H23" s="102"/>
       <c r="I23" s="102"/>
       <c r="J23" s="95"/>
@@ -15511,29 +15544,29 @@
       <c r="J24" s="102"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="150"/>
+      <c r="A25" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="172"/>
       <c r="J25" s="102"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
+      <c r="B26" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="148"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
       <c r="H26" s="95"/>
       <c r="I26" s="95"/>
       <c r="J26" s="102"/>
@@ -15548,14 +15581,14 @@
       <c r="A27" s="106">
         <v>1</v>
       </c>
-      <c r="B27" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
+      <c r="B27" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="K27" s="102"/>
@@ -15567,12 +15600,12 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="107"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
       <c r="H28" s="102"/>
       <c r="I28" s="102"/>
       <c r="K28" s="102"/>
@@ -15584,12 +15617,12 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="108"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
       <c r="H29" s="102"/>
       <c r="I29" s="102"/>
       <c r="J29" s="95"/>
@@ -15618,29 +15651,29 @@
       <c r="O30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="150"/>
+      <c r="A31" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="172"/>
       <c r="J31" s="102"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="B32" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
       <c r="H32" s="95"/>
       <c r="I32" s="95"/>
       <c r="J32" s="102"/>
@@ -15653,12 +15686,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="106"/>
-      <c r="B33" s="161"/>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="169"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33"/>
@@ -15671,12 +15704,12 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="107"/>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="170"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="155"/>
       <c r="H34" s="102"/>
       <c r="I34" s="102"/>
       <c r="K34" s="102"/>
@@ -15688,12 +15721,12 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="108"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="163"/>
-      <c r="F35" s="163"/>
-      <c r="G35" s="171"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="157"/>
       <c r="H35" s="102"/>
       <c r="I35" s="102"/>
       <c r="J35" s="95"/>
@@ -15746,64 +15779,64 @@
       <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:17" ht="15">
-      <c r="A39" s="182" t="s">
+      <c r="A39" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="182" t="s">
+      <c r="B39" s="184" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="182" t="s">
+      <c r="E39" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G39" s="182" t="s">
+      <c r="F39" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G39" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="H39" s="191" t="s">
+      <c r="H39" s="194" t="s">
         <v>113</v>
       </c>
-      <c r="I39" s="191" t="s">
-        <v>225</v>
-      </c>
-      <c r="J39" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K39" s="187" t="s">
+      <c r="I39" s="194" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="188"/>
-      <c r="M39" s="189" t="s">
+      <c r="L39" s="191"/>
+      <c r="M39" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="188"/>
+      <c r="N39" s="191"/>
       <c r="O39" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P39" s="182" t="s">
+      <c r="P39" s="184" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="193"/>
+      <c r="B40" s="193"/>
       <c r="C40" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="184"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="193"/>
+      <c r="H40" s="193"/>
+      <c r="I40" s="193"/>
+      <c r="J40" s="181"/>
       <c r="K40" s="53" t="s">
         <v>123</v>
       </c>
@@ -15819,17 +15852,17 @@
       <c r="O40" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P40" s="186"/>
+      <c r="P40" s="193"/>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="55">
         <v>1</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D41" s="58" t="s">
         <v>100</v>
@@ -15854,10 +15887,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D42" s="58" t="s">
         <v>101</v>
@@ -16275,23 +16308,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
     <mergeCell ref="B29:G29"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -16304,6 +16320,23 @@
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B28:G28"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -16351,7 +16384,7 @@
   </sheetPr>
   <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:G29"/>
     </sheetView>
   </sheetViews>
@@ -16440,7 +16473,7 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="114"/>
     </row>
@@ -16450,7 +16483,7 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="110" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -16480,26 +16513,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="46"/>
       <c r="D13" s="33"/>
       <c r="E13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -16522,47 +16555,47 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B17" s="111"/>
-      <c r="C17" s="155" t="s">
+      <c r="D17" s="137"/>
+      <c r="E17" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="111"/>
+      <c r="C18" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D18" s="155"/>
+      <c r="D18" s="137"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="111" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="111"/>
-      <c r="C19" s="154" t="s">
-        <v>210</v>
-      </c>
-      <c r="D19" s="155"/>
+      <c r="C19" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="137"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B20" s="113"/>
       <c r="C20" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -16581,14 +16614,14 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="112" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -16607,14 +16640,14 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="112" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B22" s="113"/>
       <c r="C22" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
@@ -16634,22 +16667,22 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:22">
-      <c r="A24" s="151" t="s">
-        <v>257</v>
-      </c>
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="153"/>
+      <c r="A24" s="174" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="176"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="100"/>
-      <c r="C25" s="192"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="93"/>
       <c r="E25" s="93"/>
       <c r="F25" s="93"/>
@@ -16665,7 +16698,7 @@
         <v>97</v>
       </c>
       <c r="B26" s="103"/>
-      <c r="C26" s="193"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="87"/>
       <c r="E26" s="87"/>
       <c r="F26" s="87"/>
@@ -16673,10 +16706,10 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="103"/>
-      <c r="C27" s="194"/>
+      <c r="C27" s="132"/>
       <c r="D27" s="98"/>
       <c r="E27" s="98"/>
       <c r="F27" s="98"/>
@@ -16686,28 +16719,28 @@
       <c r="C28"/>
     </row>
     <row r="29" spans="1:22">
-      <c r="A29" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
+      <c r="A29" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" s="173"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="173"/>
+      <c r="E29" s="173"/>
+      <c r="F29" s="173"/>
+      <c r="G29" s="173"/>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="133"/>
+      <c r="B30" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="169"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="95"/>
@@ -16725,12 +16758,12 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="106"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
@@ -16748,12 +16781,12 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="107"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="162"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="J32" s="102"/>
@@ -16771,12 +16804,12 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="108"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="102"/>
@@ -16796,28 +16829,28 @@
       <c r="C34"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B35" s="149"/>
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="150"/>
+      <c r="A35" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="172"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
+      <c r="B36" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="148"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
       <c r="H36" s="95"/>
       <c r="I36" s="95"/>
       <c r="J36" s="95"/>
@@ -16837,14 +16870,14 @@
       <c r="A37" s="106">
         <v>1</v>
       </c>
-      <c r="B37" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" s="134"/>
-      <c r="D37" s="134"/>
-      <c r="E37" s="134"/>
-      <c r="F37" s="134"/>
-      <c r="G37" s="134"/>
+      <c r="B37" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="149"/>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
       <c r="J37" s="102"/>
@@ -16862,12 +16895,12 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="107"/>
-      <c r="B38" s="135"/>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="135"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
       <c r="J38" s="102"/>
@@ -16885,12 +16918,12 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="108"/>
-      <c r="B39" s="136"/>
-      <c r="C39" s="136"/>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
       <c r="J39" s="102"/>
@@ -16929,28 +16962,28 @@
       <c r="T40"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="150"/>
+      <c r="A41" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="172"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
+      <c r="B42" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
       <c r="H42" s="95"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
@@ -16968,12 +17001,12 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="106"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="169"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="153"/>
       <c r="H43" s="102"/>
       <c r="I43" s="102"/>
       <c r="J43" s="102"/>
@@ -16991,12 +17024,12 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="107"/>
-      <c r="B44" s="162"/>
-      <c r="C44" s="162"/>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
-      <c r="F44" s="162"/>
-      <c r="G44" s="170"/>
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="155"/>
       <c r="H44" s="102"/>
       <c r="I44" s="102"/>
       <c r="J44" s="102"/>
@@ -17014,12 +17047,12 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="108"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="171"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="157"/>
       <c r="H45" s="102"/>
       <c r="I45" s="102"/>
       <c r="J45" s="102"/>
@@ -17060,7 +17093,7 @@
     <row r="47" spans="1:22">
       <c r="A47" s="6"/>
       <c r="N47" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -17089,82 +17122,82 @@
       <c r="U48" s="5"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="177" t="s">
+      <c r="A49" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="179" t="s">
+      <c r="C49" s="186" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="177" t="s">
+      <c r="D49" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="182" t="s">
+      <c r="E49" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G49" s="177" t="s">
+      <c r="F49" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="H49" s="177" t="s">
+      <c r="H49" s="180" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="177" t="s">
+      <c r="I49" s="180" t="s">
+        <v>236</v>
+      </c>
+      <c r="J49" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="J49" s="182" t="s">
-        <v>238</v>
-      </c>
-      <c r="K49" s="182" t="s">
-        <v>208</v>
-      </c>
-      <c r="L49" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="M49" s="177" t="s">
-        <v>225</v>
-      </c>
-      <c r="N49" s="177" t="s">
-        <v>222</v>
-      </c>
-      <c r="O49" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="P49" s="180" t="s">
+      <c r="K49" s="184" t="s">
+        <v>207</v>
+      </c>
+      <c r="L49" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="M49" s="180" t="s">
+        <v>224</v>
+      </c>
+      <c r="N49" s="180" t="s">
+        <v>221</v>
+      </c>
+      <c r="O49" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="P49" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="Q49" s="181"/>
-      <c r="R49" s="180" t="s">
+      <c r="Q49" s="188"/>
+      <c r="R49" s="187" t="s">
         <v>16</v>
       </c>
-      <c r="S49" s="181"/>
+      <c r="S49" s="188"/>
       <c r="T49" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="U49" s="177" t="s">
+      <c r="U49" s="180" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="178"/>
-      <c r="B50" s="178"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="178"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="178"/>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="184"/>
-      <c r="M50" s="178"/>
-      <c r="N50" s="178"/>
-      <c r="O50" s="184"/>
+      <c r="A50" s="182"/>
+      <c r="B50" s="182"/>
+      <c r="C50" s="182"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="182"/>
+      <c r="J50" s="185"/>
+      <c r="K50" s="185"/>
+      <c r="L50" s="181"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="182"/>
+      <c r="O50" s="181"/>
       <c r="P50" s="27" t="s">
         <v>74</v>
       </c>
@@ -17180,7 +17213,7 @@
       <c r="T50" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U50" s="178"/>
+      <c r="U50" s="182"/>
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="7">
@@ -17205,13 +17238,13 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N51" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O51" s="23"/>
       <c r="P51" s="23">
@@ -17251,7 +17284,7 @@
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
       <c r="N52" s="120" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O52" s="24"/>
       <c r="P52" s="20"/>
@@ -17289,7 +17322,7 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
       <c r="N53" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O53" s="24"/>
       <c r="P53" s="20"/>
@@ -17318,7 +17351,7 @@
       <c r="G54" s="78"/>
       <c r="H54" s="73"/>
       <c r="I54" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J54" s="23" t="s">
         <v>101</v>
@@ -17327,7 +17360,7 @@
       <c r="L54" s="73"/>
       <c r="M54" s="73"/>
       <c r="N54" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O54" s="24" t="s">
         <v>137</v>
@@ -17363,7 +17396,7 @@
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
       <c r="N55" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O55" s="24"/>
       <c r="P55" s="24"/>
@@ -17397,7 +17430,7 @@
       <c r="L56" s="25"/>
       <c r="M56" s="25"/>
       <c r="N56" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O56" s="24"/>
       <c r="P56" s="20"/>
@@ -17429,7 +17462,7 @@
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O57" s="24"/>
       <c r="P57" s="20"/>
@@ -17832,30 +17865,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="O49:O50"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
     <mergeCell ref="B38:G38"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
@@ -17869,6 +17878,30 @@
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="A24:G24"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="U49:U50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="N49:N50"/>
+    <mergeCell ref="O49:O50"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="4">
@@ -18023,19 +18056,19 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="74" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" s="85"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="46"/>
       <c r="D10" s="33"/>
       <c r="E10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -18058,37 +18091,37 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="111"/>
-      <c r="C13" s="155" t="s">
+      <c r="D13" s="137"/>
+      <c r="E13" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="111"/>
+      <c r="C14" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="155" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="137"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="90" t="s">
         <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -18103,28 +18136,28 @@
       <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="130" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
+      <c r="A17" s="173" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" s="173"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="173"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="131" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
+      <c r="B18" s="167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="169"/>
       <c r="H18" s="95"/>
       <c r="I18" s="95"/>
       <c r="K18" s="95"/>
@@ -18136,12 +18169,12 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="106"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
       <c r="H19" s="102"/>
       <c r="I19" s="102"/>
       <c r="K19" s="102"/>
@@ -18153,12 +18186,12 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="107"/>
-      <c r="B20" s="162"/>
-      <c r="C20" s="162"/>
-      <c r="D20" s="162"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="162"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
       <c r="H20" s="102"/>
       <c r="I20" s="102"/>
       <c r="K20" s="102"/>
@@ -18170,12 +18203,12 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="108"/>
-      <c r="B21" s="163"/>
-      <c r="C21" s="163"/>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="163"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
       <c r="J21" s="95"/>
@@ -18191,29 +18224,29 @@
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="150"/>
+      <c r="A23" s="170" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="172"/>
       <c r="J23" s="102"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="168" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
+      <c r="B24" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="148"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
       <c r="H24" s="95"/>
       <c r="I24" s="95"/>
       <c r="J24" s="102"/>
@@ -18228,14 +18261,14 @@
       <c r="A25" s="106">
         <v>1</v>
       </c>
-      <c r="B25" s="134" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
+      <c r="B25" s="149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
       <c r="H25" s="102"/>
       <c r="I25" s="102"/>
       <c r="K25" s="102"/>
@@ -18247,12 +18280,12 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="107"/>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
       <c r="H26" s="102"/>
       <c r="I26" s="102"/>
       <c r="K26" s="102"/>
@@ -18264,12 +18297,12 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="108"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="95"/>
@@ -18298,29 +18331,29 @@
       <c r="O28"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="148" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="150"/>
+      <c r="A29" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="172"/>
       <c r="J29" s="102"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="168" t="s">
-        <v>180</v>
-      </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
+      <c r="B30" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="95"/>
       <c r="I30" s="95"/>
       <c r="J30" s="102"/>
@@ -18333,12 +18366,12 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="106"/>
-      <c r="B31" s="161"/>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="169"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
       <c r="H31" s="102"/>
       <c r="I31" s="102"/>
       <c r="J31"/>
@@ -18351,12 +18384,12 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="107"/>
-      <c r="B32" s="162"/>
-      <c r="C32" s="162"/>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="170"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="155"/>
       <c r="H32" s="102"/>
       <c r="I32" s="102"/>
       <c r="K32" s="102"/>
@@ -18368,12 +18401,12 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="108"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="171"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="157"/>
       <c r="H33" s="102"/>
       <c r="I33" s="102"/>
       <c r="J33" s="95"/>
@@ -18426,64 +18459,64 @@
       <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:17" ht="15">
-      <c r="A37" s="182" t="s">
+      <c r="A37" s="184" t="s">
         <v>115</v>
       </c>
-      <c r="B37" s="182" t="s">
+      <c r="B37" s="184" t="s">
         <v>116</v>
       </c>
       <c r="C37" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D37" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="182" t="s">
+      <c r="E37" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="182" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="182" t="s">
+      <c r="F37" s="184" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="182" t="s">
+      <c r="H37" s="184" t="s">
         <v>113</v>
       </c>
-      <c r="I37" s="182" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="177" t="s">
-        <v>190</v>
-      </c>
-      <c r="K37" s="187" t="s">
+      <c r="I37" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="J37" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="K37" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="188"/>
-      <c r="M37" s="189" t="s">
+      <c r="L37" s="191"/>
+      <c r="M37" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="N37" s="188"/>
+      <c r="N37" s="191"/>
       <c r="O37" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="P37" s="182" t="s">
+      <c r="P37" s="184" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15">
-      <c r="A38" s="186"/>
-      <c r="B38" s="186"/>
+      <c r="A38" s="193"/>
+      <c r="B38" s="193"/>
       <c r="C38" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="184"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="193"/>
+      <c r="I38" s="193"/>
+      <c r="J38" s="181"/>
       <c r="K38" s="53" t="s">
         <v>123</v>
       </c>
@@ -18499,7 +18532,7 @@
       <c r="O38" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="P38" s="186"/>
+      <c r="P38" s="193"/>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="55">
@@ -18997,23 +19030,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P37:P38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
@@ -19026,6 +19042,23 @@
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
